--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>371700</v>
+        <v>155100</v>
       </c>
       <c r="E8" s="3">
-        <v>318600</v>
+        <v>270300</v>
       </c>
       <c r="F8" s="3">
-        <v>300900</v>
+        <v>362600</v>
       </c>
       <c r="G8" s="3">
-        <v>258700</v>
+        <v>310800</v>
       </c>
       <c r="H8" s="3">
-        <v>276800</v>
+        <v>293500</v>
       </c>
       <c r="I8" s="3">
+        <v>252400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>270000</v>
+      </c>
+      <c r="K8" s="3">
         <v>321900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>246300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>221300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>215300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>272100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>121400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>104100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29600</v>
+        <v>34400</v>
       </c>
       <c r="E9" s="3">
-        <v>41100</v>
+        <v>20800</v>
       </c>
       <c r="F9" s="3">
-        <v>37400</v>
+        <v>28900</v>
       </c>
       <c r="G9" s="3">
-        <v>57800</v>
+        <v>40000</v>
       </c>
       <c r="H9" s="3">
-        <v>100200</v>
+        <v>36500</v>
       </c>
       <c r="I9" s="3">
+        <v>56400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>97800</v>
+      </c>
+      <c r="K9" s="3">
         <v>136000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>98500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>45300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>38400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>47000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>17800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>16200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>342100</v>
+        <v>120700</v>
       </c>
       <c r="E10" s="3">
-        <v>277600</v>
+        <v>249500</v>
       </c>
       <c r="F10" s="3">
-        <v>263500</v>
+        <v>333700</v>
       </c>
       <c r="G10" s="3">
-        <v>200900</v>
+        <v>270800</v>
       </c>
       <c r="H10" s="3">
-        <v>176500</v>
+        <v>257000</v>
       </c>
       <c r="I10" s="3">
+        <v>196000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>172200</v>
+      </c>
+      <c r="K10" s="3">
         <v>185900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>147800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>176000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>176900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>225100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>103600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>87800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6300</v>
+        <v>7700</v>
       </c>
       <c r="E12" s="3">
-        <v>9000</v>
+        <v>4800</v>
       </c>
       <c r="F12" s="3">
-        <v>9100</v>
+        <v>6200</v>
       </c>
       <c r="G12" s="3">
-        <v>11200</v>
+        <v>8800</v>
       </c>
       <c r="H12" s="3">
-        <v>5900</v>
+        <v>8900</v>
       </c>
       <c r="I12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K12" s="3">
         <v>5300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>9400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>196800</v>
+        <v>289600</v>
       </c>
       <c r="E17" s="3">
-        <v>137200</v>
+        <v>238600</v>
       </c>
       <c r="F17" s="3">
-        <v>137600</v>
+        <v>191900</v>
       </c>
       <c r="G17" s="3">
-        <v>131500</v>
+        <v>133900</v>
       </c>
       <c r="H17" s="3">
-        <v>175900</v>
+        <v>134200</v>
       </c>
       <c r="I17" s="3">
+        <v>128300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>171600</v>
+      </c>
+      <c r="K17" s="3">
         <v>210900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>199500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>138300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>112100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>99000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>40200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>49800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>175000</v>
+        <v>-134500</v>
       </c>
       <c r="E18" s="3">
-        <v>181400</v>
+        <v>31800</v>
       </c>
       <c r="F18" s="3">
-        <v>163300</v>
+        <v>170700</v>
       </c>
       <c r="G18" s="3">
-        <v>127200</v>
+        <v>176900</v>
       </c>
       <c r="H18" s="3">
-        <v>100800</v>
+        <v>159300</v>
       </c>
       <c r="I18" s="3">
+        <v>124100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>98400</v>
+      </c>
+      <c r="K18" s="3">
         <v>111000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>46800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>83000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>103300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>173100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>81200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>54300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
-        <v>4600</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-3900</v>
-      </c>
       <c r="I20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K20" s="3">
         <v>4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,20 +1327,26 @@
       <c r="L21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>173300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>51100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>176200</v>
+        <v>-72000</v>
       </c>
       <c r="E23" s="3">
-        <v>186000</v>
+        <v>30600</v>
       </c>
       <c r="F23" s="3">
-        <v>164700</v>
+        <v>171900</v>
       </c>
       <c r="G23" s="3">
-        <v>121100</v>
+        <v>181400</v>
       </c>
       <c r="H23" s="3">
-        <v>97000</v>
+        <v>160700</v>
       </c>
       <c r="I23" s="3">
+        <v>118100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K23" s="3">
         <v>115400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>46600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>82900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>103400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>172800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>81000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>51000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26500</v>
+        <v>-3900</v>
       </c>
       <c r="E24" s="3">
-        <v>21900</v>
+        <v>12700</v>
       </c>
       <c r="F24" s="3">
-        <v>28400</v>
+        <v>25800</v>
       </c>
       <c r="G24" s="3">
-        <v>11000</v>
+        <v>21400</v>
       </c>
       <c r="H24" s="3">
+        <v>27700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>6800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>28300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>13400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>8800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>149700</v>
+        <v>-68100</v>
       </c>
       <c r="E26" s="3">
-        <v>164100</v>
+        <v>17900</v>
       </c>
       <c r="F26" s="3">
-        <v>136300</v>
+        <v>146000</v>
       </c>
       <c r="G26" s="3">
-        <v>110100</v>
+        <v>160000</v>
       </c>
       <c r="H26" s="3">
-        <v>98100</v>
+        <v>132900</v>
       </c>
       <c r="I26" s="3">
+        <v>107400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K26" s="3">
         <v>103900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>45300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>80200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>96600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>144500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>67600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>42200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>149700</v>
+        <v>-68100</v>
       </c>
       <c r="E27" s="3">
-        <v>164100</v>
+        <v>17900</v>
       </c>
       <c r="F27" s="3">
-        <v>136300</v>
+        <v>146000</v>
       </c>
       <c r="G27" s="3">
-        <v>110100</v>
+        <v>160000</v>
       </c>
       <c r="H27" s="3">
-        <v>98100</v>
+        <v>132900</v>
       </c>
       <c r="I27" s="3">
+        <v>107400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K27" s="3">
         <v>103900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>45300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>80200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>96600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>144500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>67600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>42200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3900</v>
-      </c>
       <c r="I32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>149700</v>
+        <v>-68100</v>
       </c>
       <c r="E33" s="3">
-        <v>164100</v>
+        <v>17900</v>
       </c>
       <c r="F33" s="3">
-        <v>136300</v>
+        <v>146000</v>
       </c>
       <c r="G33" s="3">
-        <v>110100</v>
+        <v>160000</v>
       </c>
       <c r="H33" s="3">
-        <v>98100</v>
+        <v>132900</v>
       </c>
       <c r="I33" s="3">
+        <v>107400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K33" s="3">
         <v>103900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>45300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>80200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>96600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>144500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>67600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>42200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>149700</v>
+        <v>-68100</v>
       </c>
       <c r="E35" s="3">
-        <v>164100</v>
+        <v>17900</v>
       </c>
       <c r="F35" s="3">
-        <v>136300</v>
+        <v>146000</v>
       </c>
       <c r="G35" s="3">
-        <v>110100</v>
+        <v>160000</v>
       </c>
       <c r="H35" s="3">
-        <v>98100</v>
+        <v>132900</v>
       </c>
       <c r="I35" s="3">
+        <v>107400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K35" s="3">
         <v>103900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>45300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>80200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>96600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>144500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>67600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>42200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2138,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>381100</v>
+        <v>245100</v>
       </c>
       <c r="E41" s="3">
-        <v>371200</v>
+        <v>400400</v>
       </c>
       <c r="F41" s="3">
-        <v>277100</v>
+        <v>371700</v>
       </c>
       <c r="G41" s="3">
-        <v>358900</v>
+        <v>362100</v>
       </c>
       <c r="H41" s="3">
-        <v>395200</v>
+        <v>270300</v>
       </c>
       <c r="I41" s="3">
+        <v>350100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>385500</v>
+      </c>
+      <c r="K41" s="3">
         <v>416800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>823100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1014000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>220100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>95700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="3">
         <v>114300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4300</v>
+        <v>172500</v>
       </c>
       <c r="E42" s="3">
-        <v>4300</v>
+        <v>32300</v>
       </c>
       <c r="F42" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="H42" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K42" s="3">
         <v>9700</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>44500</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="3">
         <v>62600</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1629600</v>
+        <v>1285300</v>
       </c>
       <c r="E43" s="3">
-        <v>1578500</v>
+        <v>1544400</v>
       </c>
       <c r="F43" s="3">
-        <v>1699000</v>
+        <v>1589700</v>
       </c>
       <c r="G43" s="3">
-        <v>1410400</v>
+        <v>1539700</v>
       </c>
       <c r="H43" s="3">
-        <v>1450900</v>
+        <v>1657300</v>
       </c>
       <c r="I43" s="3">
+        <v>1375800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1415300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1567100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1362300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1301100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1580900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1456100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="3">
         <v>745600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,184 +2334,214 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>397900</v>
+        <v>231500</v>
       </c>
       <c r="E45" s="3">
-        <v>405500</v>
+        <v>405400</v>
       </c>
       <c r="F45" s="3">
-        <v>415900</v>
+        <v>388200</v>
       </c>
       <c r="G45" s="3">
-        <v>309600</v>
+        <v>395500</v>
       </c>
       <c r="H45" s="3">
-        <v>358700</v>
+        <v>405700</v>
       </c>
       <c r="I45" s="3">
+        <v>302000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>349900</v>
+      </c>
+      <c r="K45" s="3">
         <v>435700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>265200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>487700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>459300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>117600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="3">
         <v>85200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2413000</v>
+        <v>1934500</v>
       </c>
       <c r="E46" s="3">
-        <v>2359400</v>
+        <v>2382600</v>
       </c>
       <c r="F46" s="3">
-        <v>2396400</v>
+        <v>2353800</v>
       </c>
       <c r="G46" s="3">
-        <v>2078900</v>
+        <v>2301500</v>
       </c>
       <c r="H46" s="3">
-        <v>2208900</v>
+        <v>2337600</v>
       </c>
       <c r="I46" s="3">
+        <v>2027900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2154700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2429200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2450700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2847300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2260300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1669400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1007700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>131100</v>
+        <v>68500</v>
       </c>
       <c r="E47" s="3">
-        <v>221200</v>
+        <v>109400</v>
       </c>
       <c r="F47" s="3">
-        <v>145100</v>
+        <v>127800</v>
       </c>
       <c r="G47" s="3">
-        <v>195700</v>
+        <v>215800</v>
       </c>
       <c r="H47" s="3">
-        <v>103300</v>
+        <v>141500</v>
       </c>
       <c r="I47" s="3">
+        <v>190900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>100700</v>
+      </c>
+      <c r="K47" s="3">
         <v>106500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>59100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>9400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>11100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q47" s="3">
         <v>22400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>32300</v>
+        <v>35900</v>
       </c>
       <c r="E48" s="3">
-        <v>28900</v>
+        <v>33800</v>
       </c>
       <c r="F48" s="3">
-        <v>27300</v>
+        <v>31500</v>
       </c>
       <c r="G48" s="3">
-        <v>19000</v>
+        <v>28200</v>
       </c>
       <c r="H48" s="3">
-        <v>19000</v>
+        <v>26700</v>
       </c>
       <c r="I48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K48" s="3">
         <v>16800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,43 +2549,49 @@
         <v>900</v>
       </c>
       <c r="E49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>800</v>
+      </c>
+      <c r="G49" s="3">
         <v>900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1000</v>
       </c>
       <c r="H49" s="3">
         <v>1000</v>
       </c>
       <c r="I49" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>105200</v>
+        <v>67500</v>
       </c>
       <c r="E52" s="3">
-        <v>67500</v>
+        <v>43100</v>
       </c>
       <c r="F52" s="3">
-        <v>48200</v>
+        <v>102600</v>
       </c>
       <c r="G52" s="3">
-        <v>37400</v>
+        <v>65800</v>
       </c>
       <c r="H52" s="3">
-        <v>26200</v>
+        <v>47000</v>
       </c>
       <c r="I52" s="3">
+        <v>36500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K52" s="3">
         <v>26800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>41200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>18100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q52" s="3">
         <v>4300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2682400</v>
+        <v>2107200</v>
       </c>
       <c r="E54" s="3">
-        <v>2677900</v>
+        <v>2569900</v>
       </c>
       <c r="F54" s="3">
-        <v>2618100</v>
+        <v>2616500</v>
       </c>
       <c r="G54" s="3">
-        <v>2332000</v>
+        <v>2612200</v>
       </c>
       <c r="H54" s="3">
-        <v>2358300</v>
+        <v>2553800</v>
       </c>
       <c r="I54" s="3">
+        <v>2274800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2300500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2580600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2552900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2876200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2280500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1687700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1035100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,201 +2924,231 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>111600</v>
+        <v>53800</v>
       </c>
       <c r="E58" s="3">
-        <v>465100</v>
+        <v>146900</v>
       </c>
       <c r="F58" s="3">
-        <v>602900</v>
+        <v>108900</v>
       </c>
       <c r="G58" s="3">
-        <v>553900</v>
+        <v>453700</v>
       </c>
       <c r="H58" s="3">
-        <v>690300</v>
+        <v>588100</v>
       </c>
       <c r="I58" s="3">
+        <v>540300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>673300</v>
+      </c>
+      <c r="K58" s="3">
         <v>865400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>897200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1184200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1314200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>959700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q58" s="3">
         <v>608400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>427400</v>
+        <v>379700</v>
       </c>
       <c r="E59" s="3">
-        <v>312600</v>
+        <v>398600</v>
       </c>
       <c r="F59" s="3">
-        <v>221700</v>
+        <v>416900</v>
       </c>
       <c r="G59" s="3">
-        <v>166300</v>
+        <v>304900</v>
       </c>
       <c r="H59" s="3">
-        <v>120400</v>
+        <v>216300</v>
       </c>
       <c r="I59" s="3">
+        <v>162200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>117400</v>
+      </c>
+      <c r="K59" s="3">
         <v>260600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>206600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>200400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>307700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>203900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="3">
         <v>50100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>539000</v>
+        <v>433600</v>
       </c>
       <c r="E60" s="3">
-        <v>777700</v>
+        <v>545500</v>
       </c>
       <c r="F60" s="3">
-        <v>824600</v>
+        <v>525800</v>
       </c>
       <c r="G60" s="3">
-        <v>720200</v>
+        <v>758600</v>
       </c>
       <c r="H60" s="3">
-        <v>810600</v>
+        <v>804400</v>
       </c>
       <c r="I60" s="3">
+        <v>702500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>790700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1126000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1103800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1384700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1621900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1163600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q60" s="3">
         <v>658500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>383000</v>
+        <v>204700</v>
       </c>
       <c r="E61" s="3">
-        <v>85700</v>
+        <v>327400</v>
       </c>
       <c r="F61" s="3">
-        <v>85700</v>
+        <v>373600</v>
       </c>
       <c r="G61" s="3">
-        <v>59300</v>
+        <v>83600</v>
       </c>
       <c r="H61" s="3">
-        <v>28400</v>
+        <v>83600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>57900</v>
       </c>
       <c r="J61" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>36600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>75700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>37800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>11100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>76000</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
-        <v>56700</v>
+        <v>28100</v>
       </c>
       <c r="F62" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>16</v>
+        <v>74100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>55300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>17700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>998000</v>
+        <v>642100</v>
       </c>
       <c r="E66" s="3">
-        <v>920100</v>
+        <v>901000</v>
       </c>
       <c r="F66" s="3">
-        <v>928400</v>
+        <v>973500</v>
       </c>
       <c r="G66" s="3">
-        <v>779500</v>
+        <v>897500</v>
       </c>
       <c r="H66" s="3">
-        <v>839000</v>
+        <v>905700</v>
       </c>
       <c r="I66" s="3">
+        <v>760400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>818400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1126000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1140400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1460400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1659700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1165300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q66" s="3">
         <v>669600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3195,22 +3530,28 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>882100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>882100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>864400</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1177000</v>
+        <v>961500</v>
       </c>
       <c r="E72" s="3">
-        <v>1027300</v>
+        <v>1166000</v>
       </c>
       <c r="F72" s="3">
-        <v>863300</v>
+        <v>1148100</v>
       </c>
       <c r="G72" s="3">
-        <v>727000</v>
+        <v>1002100</v>
       </c>
       <c r="H72" s="3">
-        <v>616900</v>
+        <v>842100</v>
       </c>
       <c r="I72" s="3">
+        <v>709200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>601700</v>
+      </c>
+      <c r="K72" s="3">
         <v>518800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>414900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>366200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-280000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-376600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-510600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1684400</v>
+        <v>1465100</v>
       </c>
       <c r="E76" s="3">
-        <v>1757800</v>
+        <v>1668900</v>
       </c>
       <c r="F76" s="3">
-        <v>1689600</v>
+        <v>1643000</v>
       </c>
       <c r="G76" s="3">
-        <v>1552500</v>
+        <v>1714600</v>
       </c>
       <c r="H76" s="3">
-        <v>1519300</v>
+        <v>1648200</v>
       </c>
       <c r="I76" s="3">
+        <v>1514500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1482000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1454600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1412500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1415900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-261400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-359800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-498900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>149700</v>
+        <v>-68100</v>
       </c>
       <c r="E81" s="3">
-        <v>164100</v>
+        <v>17900</v>
       </c>
       <c r="F81" s="3">
-        <v>136300</v>
+        <v>146000</v>
       </c>
       <c r="G81" s="3">
-        <v>110100</v>
+        <v>160000</v>
       </c>
       <c r="H81" s="3">
-        <v>98100</v>
+        <v>132900</v>
       </c>
       <c r="I81" s="3">
+        <v>107400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K81" s="3">
         <v>103900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>45300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>80200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>96600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>144500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>67600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>42200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3654,26 +4051,32 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>239700</v>
+        <v>73000</v>
       </c>
       <c r="E89" s="3">
-        <v>202800</v>
+        <v>171000</v>
       </c>
       <c r="F89" s="3">
-        <v>171800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+        <v>233900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>177900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>187500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L89" s="3">
         <v>70000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>110100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>132000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>214400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>77300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>54200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3980,26 +4421,32 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="3">
         <v>100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>62900</v>
+        <v>202600</v>
       </c>
       <c r="E94" s="3">
-        <v>126400</v>
+        <v>-518400</v>
       </c>
       <c r="F94" s="3">
-        <v>208700</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
+        <v>61400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>523900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-197000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="3">
         <v>-182300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>82500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>154700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-341900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-48600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-228600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>275400</v>
+        <v>162400</v>
       </c>
       <c r="E100" s="3">
-        <v>-276600</v>
+        <v>-540300</v>
       </c>
       <c r="F100" s="3">
-        <v>71300</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
+        <v>268600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-273900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>73600</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="3">
         <v>-270400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>612800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-162300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>106600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>36500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>254400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L101" s="3">
         <v>-20500</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L102" s="3">
         <v>-403200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>793900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>124400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-20900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>65100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>79900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>155100</v>
+        <v>161000</v>
       </c>
       <c r="E8" s="3">
-        <v>270300</v>
+        <v>280500</v>
       </c>
       <c r="F8" s="3">
-        <v>362600</v>
+        <v>376300</v>
       </c>
       <c r="G8" s="3">
-        <v>310800</v>
+        <v>322500</v>
       </c>
       <c r="H8" s="3">
-        <v>293500</v>
+        <v>304500</v>
       </c>
       <c r="I8" s="3">
-        <v>252400</v>
+        <v>261900</v>
       </c>
       <c r="J8" s="3">
-        <v>270000</v>
+        <v>280100</v>
       </c>
       <c r="K8" s="3">
         <v>321900</v>
@@ -794,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>34400</v>
+        <v>35700</v>
       </c>
       <c r="E9" s="3">
-        <v>20800</v>
+        <v>21600</v>
       </c>
       <c r="F9" s="3">
-        <v>28900</v>
+        <v>30000</v>
       </c>
       <c r="G9" s="3">
-        <v>40000</v>
+        <v>41600</v>
       </c>
       <c r="H9" s="3">
-        <v>36500</v>
+        <v>37800</v>
       </c>
       <c r="I9" s="3">
-        <v>56400</v>
+        <v>58500</v>
       </c>
       <c r="J9" s="3">
-        <v>97800</v>
+        <v>101400</v>
       </c>
       <c r="K9" s="3">
         <v>136000</v>
@@ -844,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>120700</v>
+        <v>125200</v>
       </c>
       <c r="E10" s="3">
-        <v>249500</v>
+        <v>258900</v>
       </c>
       <c r="F10" s="3">
-        <v>333700</v>
+        <v>346300</v>
       </c>
       <c r="G10" s="3">
-        <v>270800</v>
+        <v>281000</v>
       </c>
       <c r="H10" s="3">
-        <v>257000</v>
+        <v>266700</v>
       </c>
       <c r="I10" s="3">
-        <v>196000</v>
+        <v>203400</v>
       </c>
       <c r="J10" s="3">
-        <v>172200</v>
+        <v>178700</v>
       </c>
       <c r="K10" s="3">
         <v>185900</v>
@@ -914,25 +914,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="E12" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F12" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G12" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="H12" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="I12" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="J12" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="K12" s="3">
         <v>5300</v>
@@ -1131,25 +1131,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>289600</v>
+        <v>300500</v>
       </c>
       <c r="E17" s="3">
-        <v>238600</v>
+        <v>247600</v>
       </c>
       <c r="F17" s="3">
-        <v>191900</v>
+        <v>199200</v>
       </c>
       <c r="G17" s="3">
-        <v>133900</v>
+        <v>138900</v>
       </c>
       <c r="H17" s="3">
-        <v>134200</v>
+        <v>139200</v>
       </c>
       <c r="I17" s="3">
-        <v>128300</v>
+        <v>133100</v>
       </c>
       <c r="J17" s="3">
-        <v>171600</v>
+        <v>178100</v>
       </c>
       <c r="K17" s="3">
         <v>210900</v>
@@ -1181,25 +1181,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-134500</v>
+        <v>-139600</v>
       </c>
       <c r="E18" s="3">
-        <v>31800</v>
+        <v>32900</v>
       </c>
       <c r="F18" s="3">
-        <v>170700</v>
+        <v>177100</v>
       </c>
       <c r="G18" s="3">
-        <v>176900</v>
+        <v>183600</v>
       </c>
       <c r="H18" s="3">
-        <v>159300</v>
+        <v>165300</v>
       </c>
       <c r="I18" s="3">
-        <v>124100</v>
+        <v>128700</v>
       </c>
       <c r="J18" s="3">
-        <v>98400</v>
+        <v>102100</v>
       </c>
       <c r="K18" s="3">
         <v>111000</v>
@@ -1251,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>62500</v>
+        <v>64800</v>
       </c>
       <c r="E20" s="3">
         <v>-1200</v>
@@ -1260,16 +1260,16 @@
         <v>1200</v>
       </c>
       <c r="G20" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H20" s="3">
         <v>1400</v>
       </c>
       <c r="I20" s="3">
-        <v>-5900</v>
+        <v>-6200</v>
       </c>
       <c r="J20" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K20" s="3">
         <v>4400</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-72000</v>
+        <v>-74700</v>
       </c>
       <c r="E23" s="3">
-        <v>30600</v>
+        <v>31800</v>
       </c>
       <c r="F23" s="3">
-        <v>171900</v>
+        <v>178300</v>
       </c>
       <c r="G23" s="3">
-        <v>181400</v>
+        <v>188200</v>
       </c>
       <c r="H23" s="3">
-        <v>160700</v>
+        <v>166700</v>
       </c>
       <c r="I23" s="3">
-        <v>118100</v>
+        <v>122600</v>
       </c>
       <c r="J23" s="3">
-        <v>94600</v>
+        <v>98200</v>
       </c>
       <c r="K23" s="3">
         <v>115400</v>
@@ -1451,22 +1451,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="E24" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="F24" s="3">
-        <v>25800</v>
+        <v>26800</v>
       </c>
       <c r="G24" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="H24" s="3">
-        <v>27700</v>
+        <v>28800</v>
       </c>
       <c r="I24" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="J24" s="3">
         <v>-1100</v>
@@ -1551,25 +1551,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-68100</v>
+        <v>-70700</v>
       </c>
       <c r="E26" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="F26" s="3">
-        <v>146000</v>
+        <v>151500</v>
       </c>
       <c r="G26" s="3">
-        <v>160000</v>
+        <v>166100</v>
       </c>
       <c r="H26" s="3">
-        <v>132900</v>
+        <v>137900</v>
       </c>
       <c r="I26" s="3">
-        <v>107400</v>
+        <v>111500</v>
       </c>
       <c r="J26" s="3">
-        <v>95700</v>
+        <v>99300</v>
       </c>
       <c r="K26" s="3">
         <v>103900</v>
@@ -1601,25 +1601,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-68100</v>
+        <v>-70700</v>
       </c>
       <c r="E27" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="F27" s="3">
-        <v>146000</v>
+        <v>151500</v>
       </c>
       <c r="G27" s="3">
-        <v>160000</v>
+        <v>166100</v>
       </c>
       <c r="H27" s="3">
-        <v>132900</v>
+        <v>137900</v>
       </c>
       <c r="I27" s="3">
-        <v>107400</v>
+        <v>111500</v>
       </c>
       <c r="J27" s="3">
-        <v>95700</v>
+        <v>99300</v>
       </c>
       <c r="K27" s="3">
         <v>103900</v>
@@ -1851,7 +1851,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-62500</v>
+        <v>-64800</v>
       </c>
       <c r="E32" s="3">
         <v>1200</v>
@@ -1860,16 +1860,16 @@
         <v>-1200</v>
       </c>
       <c r="G32" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="H32" s="3">
         <v>-1400</v>
       </c>
       <c r="I32" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="J32" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K32" s="3">
         <v>-4400</v>
@@ -1901,25 +1901,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-68100</v>
+        <v>-70700</v>
       </c>
       <c r="E33" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="F33" s="3">
-        <v>146000</v>
+        <v>151500</v>
       </c>
       <c r="G33" s="3">
-        <v>160000</v>
+        <v>166100</v>
       </c>
       <c r="H33" s="3">
-        <v>132900</v>
+        <v>137900</v>
       </c>
       <c r="I33" s="3">
-        <v>107400</v>
+        <v>111500</v>
       </c>
       <c r="J33" s="3">
-        <v>95700</v>
+        <v>99300</v>
       </c>
       <c r="K33" s="3">
         <v>103900</v>
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-68100</v>
+        <v>-70700</v>
       </c>
       <c r="E35" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="F35" s="3">
-        <v>146000</v>
+        <v>151500</v>
       </c>
       <c r="G35" s="3">
-        <v>160000</v>
+        <v>166100</v>
       </c>
       <c r="H35" s="3">
-        <v>132900</v>
+        <v>137900</v>
       </c>
       <c r="I35" s="3">
-        <v>107400</v>
+        <v>111500</v>
       </c>
       <c r="J35" s="3">
-        <v>95700</v>
+        <v>99300</v>
       </c>
       <c r="K35" s="3">
         <v>103900</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>245100</v>
+        <v>254300</v>
       </c>
       <c r="E41" s="3">
-        <v>400400</v>
+        <v>415500</v>
       </c>
       <c r="F41" s="3">
-        <v>371700</v>
+        <v>385700</v>
       </c>
       <c r="G41" s="3">
-        <v>362100</v>
+        <v>375700</v>
       </c>
       <c r="H41" s="3">
-        <v>270300</v>
+        <v>280500</v>
       </c>
       <c r="I41" s="3">
-        <v>350100</v>
+        <v>363200</v>
       </c>
       <c r="J41" s="3">
-        <v>385500</v>
+        <v>400000</v>
       </c>
       <c r="K41" s="3">
         <v>416800</v>
@@ -2196,25 +2196,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>172500</v>
+        <v>179000</v>
       </c>
       <c r="E42" s="3">
-        <v>32300</v>
+        <v>33600</v>
       </c>
       <c r="F42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>4200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H42" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>4000</v>
       </c>
       <c r="K42" s="3">
         <v>9700</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1285300</v>
+        <v>1333700</v>
       </c>
       <c r="E43" s="3">
-        <v>1544400</v>
+        <v>1602600</v>
       </c>
       <c r="F43" s="3">
-        <v>1589700</v>
+        <v>1649500</v>
       </c>
       <c r="G43" s="3">
-        <v>1539700</v>
+        <v>1597700</v>
       </c>
       <c r="H43" s="3">
-        <v>1657300</v>
+        <v>1719800</v>
       </c>
       <c r="I43" s="3">
-        <v>1375800</v>
+        <v>1427600</v>
       </c>
       <c r="J43" s="3">
-        <v>1415300</v>
+        <v>1468600</v>
       </c>
       <c r="K43" s="3">
         <v>1567100</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>231500</v>
+        <v>240200</v>
       </c>
       <c r="E45" s="3">
-        <v>405400</v>
+        <v>420700</v>
       </c>
       <c r="F45" s="3">
-        <v>388200</v>
+        <v>402800</v>
       </c>
       <c r="G45" s="3">
-        <v>395500</v>
+        <v>410400</v>
       </c>
       <c r="H45" s="3">
-        <v>405700</v>
+        <v>421000</v>
       </c>
       <c r="I45" s="3">
-        <v>302000</v>
+        <v>313400</v>
       </c>
       <c r="J45" s="3">
-        <v>349900</v>
+        <v>363000</v>
       </c>
       <c r="K45" s="3">
         <v>435700</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1934500</v>
+        <v>2007300</v>
       </c>
       <c r="E46" s="3">
-        <v>2382600</v>
+        <v>2472300</v>
       </c>
       <c r="F46" s="3">
-        <v>2353800</v>
+        <v>2442400</v>
       </c>
       <c r="G46" s="3">
-        <v>2301500</v>
+        <v>2388200</v>
       </c>
       <c r="H46" s="3">
-        <v>2337600</v>
+        <v>2425600</v>
       </c>
       <c r="I46" s="3">
-        <v>2027900</v>
+        <v>2104300</v>
       </c>
       <c r="J46" s="3">
-        <v>2154700</v>
+        <v>2235800</v>
       </c>
       <c r="K46" s="3">
         <v>2429200</v>
@@ -2446,25 +2446,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68500</v>
+        <v>71000</v>
       </c>
       <c r="E47" s="3">
-        <v>109400</v>
+        <v>113500</v>
       </c>
       <c r="F47" s="3">
-        <v>127800</v>
+        <v>132700</v>
       </c>
       <c r="G47" s="3">
-        <v>215800</v>
+        <v>223900</v>
       </c>
       <c r="H47" s="3">
-        <v>141500</v>
+        <v>146900</v>
       </c>
       <c r="I47" s="3">
-        <v>190900</v>
+        <v>198000</v>
       </c>
       <c r="J47" s="3">
-        <v>100700</v>
+        <v>104500</v>
       </c>
       <c r="K47" s="3">
         <v>106500</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35900</v>
+        <v>37300</v>
       </c>
       <c r="E48" s="3">
-        <v>33800</v>
+        <v>35100</v>
       </c>
       <c r="F48" s="3">
-        <v>31500</v>
+        <v>32700</v>
       </c>
       <c r="G48" s="3">
-        <v>28200</v>
+        <v>29300</v>
       </c>
       <c r="H48" s="3">
-        <v>26700</v>
+        <v>27700</v>
       </c>
       <c r="I48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J48" s="3">
         <v>3700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3600</v>
       </c>
       <c r="K48" s="3">
         <v>16800</v>
@@ -2552,7 +2552,7 @@
         <v>1000</v>
       </c>
       <c r="F49" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
@@ -2561,10 +2561,10 @@
         <v>1000</v>
       </c>
       <c r="I49" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="J49" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="K49" s="3">
         <v>1200</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>67500</v>
+        <v>70000</v>
       </c>
       <c r="E52" s="3">
-        <v>43100</v>
+        <v>44700</v>
       </c>
       <c r="F52" s="3">
-        <v>102600</v>
+        <v>106400</v>
       </c>
       <c r="G52" s="3">
-        <v>65800</v>
+        <v>68300</v>
       </c>
       <c r="H52" s="3">
-        <v>47000</v>
+        <v>48800</v>
       </c>
       <c r="I52" s="3">
-        <v>36500</v>
+        <v>37800</v>
       </c>
       <c r="J52" s="3">
-        <v>25600</v>
+        <v>26500</v>
       </c>
       <c r="K52" s="3">
         <v>26800</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2107200</v>
+        <v>2186600</v>
       </c>
       <c r="E54" s="3">
-        <v>2569900</v>
+        <v>2666700</v>
       </c>
       <c r="F54" s="3">
-        <v>2616500</v>
+        <v>2715100</v>
       </c>
       <c r="G54" s="3">
-        <v>2612200</v>
+        <v>2710500</v>
       </c>
       <c r="H54" s="3">
-        <v>2553800</v>
+        <v>2650000</v>
       </c>
       <c r="I54" s="3">
-        <v>2274800</v>
+        <v>2360500</v>
       </c>
       <c r="J54" s="3">
-        <v>2300500</v>
+        <v>2387100</v>
       </c>
       <c r="K54" s="3">
         <v>2580600</v>
@@ -2936,25 +2936,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>53800</v>
+        <v>55900</v>
       </c>
       <c r="E58" s="3">
-        <v>146900</v>
+        <v>152400</v>
       </c>
       <c r="F58" s="3">
-        <v>108900</v>
+        <v>112900</v>
       </c>
       <c r="G58" s="3">
-        <v>453700</v>
+        <v>470800</v>
       </c>
       <c r="H58" s="3">
-        <v>588100</v>
+        <v>610200</v>
       </c>
       <c r="I58" s="3">
-        <v>540300</v>
+        <v>560700</v>
       </c>
       <c r="J58" s="3">
-        <v>673300</v>
+        <v>698700</v>
       </c>
       <c r="K58" s="3">
         <v>865400</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>379700</v>
+        <v>394000</v>
       </c>
       <c r="E59" s="3">
-        <v>398600</v>
+        <v>413600</v>
       </c>
       <c r="F59" s="3">
-        <v>416900</v>
+        <v>432600</v>
       </c>
       <c r="G59" s="3">
-        <v>304900</v>
+        <v>316400</v>
       </c>
       <c r="H59" s="3">
-        <v>216300</v>
+        <v>224500</v>
       </c>
       <c r="I59" s="3">
-        <v>162200</v>
+        <v>168300</v>
       </c>
       <c r="J59" s="3">
-        <v>117400</v>
+        <v>121800</v>
       </c>
       <c r="K59" s="3">
         <v>260600</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>433600</v>
+        <v>449900</v>
       </c>
       <c r="E60" s="3">
-        <v>545500</v>
+        <v>566000</v>
       </c>
       <c r="F60" s="3">
-        <v>525800</v>
+        <v>545600</v>
       </c>
       <c r="G60" s="3">
-        <v>758600</v>
+        <v>787200</v>
       </c>
       <c r="H60" s="3">
-        <v>804400</v>
+        <v>834700</v>
       </c>
       <c r="I60" s="3">
-        <v>702500</v>
+        <v>729000</v>
       </c>
       <c r="J60" s="3">
-        <v>790700</v>
+        <v>820500</v>
       </c>
       <c r="K60" s="3">
         <v>1126000</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>204700</v>
+        <v>212400</v>
       </c>
       <c r="E61" s="3">
-        <v>327400</v>
+        <v>339800</v>
       </c>
       <c r="F61" s="3">
-        <v>373600</v>
+        <v>387700</v>
       </c>
       <c r="G61" s="3">
-        <v>83600</v>
+        <v>86800</v>
       </c>
       <c r="H61" s="3">
-        <v>83600</v>
+        <v>86800</v>
       </c>
       <c r="I61" s="3">
-        <v>57900</v>
+        <v>60000</v>
       </c>
       <c r="J61" s="3">
-        <v>27700</v>
+        <v>28800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3136,19 +3136,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>28100</v>
+        <v>29100</v>
       </c>
       <c r="F62" s="3">
-        <v>74100</v>
+        <v>76900</v>
       </c>
       <c r="G62" s="3">
-        <v>55300</v>
+        <v>57400</v>
       </c>
       <c r="H62" s="3">
-        <v>17700</v>
+        <v>18300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>16</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>642100</v>
+        <v>666300</v>
       </c>
       <c r="E66" s="3">
-        <v>901000</v>
+        <v>934900</v>
       </c>
       <c r="F66" s="3">
-        <v>973500</v>
+        <v>1010200</v>
       </c>
       <c r="G66" s="3">
-        <v>897500</v>
+        <v>931300</v>
       </c>
       <c r="H66" s="3">
-        <v>905700</v>
+        <v>939800</v>
       </c>
       <c r="I66" s="3">
-        <v>760400</v>
+        <v>789000</v>
       </c>
       <c r="J66" s="3">
-        <v>818400</v>
+        <v>849200</v>
       </c>
       <c r="K66" s="3">
         <v>1126000</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>961500</v>
+        <v>997700</v>
       </c>
       <c r="E72" s="3">
-        <v>1166000</v>
+        <v>1209900</v>
       </c>
       <c r="F72" s="3">
-        <v>1148100</v>
+        <v>1191400</v>
       </c>
       <c r="G72" s="3">
-        <v>1002100</v>
+        <v>1039800</v>
       </c>
       <c r="H72" s="3">
-        <v>842100</v>
+        <v>873800</v>
       </c>
       <c r="I72" s="3">
-        <v>709200</v>
+        <v>735900</v>
       </c>
       <c r="J72" s="3">
-        <v>601700</v>
+        <v>624400</v>
       </c>
       <c r="K72" s="3">
         <v>518800</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1465100</v>
+        <v>1520300</v>
       </c>
       <c r="E76" s="3">
-        <v>1668900</v>
+        <v>1731700</v>
       </c>
       <c r="F76" s="3">
-        <v>1643000</v>
+        <v>1704900</v>
       </c>
       <c r="G76" s="3">
-        <v>1714600</v>
+        <v>1779200</v>
       </c>
       <c r="H76" s="3">
-        <v>1648200</v>
+        <v>1710200</v>
       </c>
       <c r="I76" s="3">
-        <v>1514500</v>
+        <v>1571500</v>
       </c>
       <c r="J76" s="3">
-        <v>1482000</v>
+        <v>1537800</v>
       </c>
       <c r="K76" s="3">
         <v>1454600</v>
@@ -3961,25 +3961,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-68100</v>
+        <v>-70700</v>
       </c>
       <c r="E81" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="F81" s="3">
-        <v>146000</v>
+        <v>151500</v>
       </c>
       <c r="G81" s="3">
-        <v>160000</v>
+        <v>166100</v>
       </c>
       <c r="H81" s="3">
-        <v>132900</v>
+        <v>137900</v>
       </c>
       <c r="I81" s="3">
-        <v>107400</v>
+        <v>111500</v>
       </c>
       <c r="J81" s="3">
-        <v>95700</v>
+        <v>99300</v>
       </c>
       <c r="K81" s="3">
         <v>103900</v>
@@ -4331,19 +4331,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>73000</v>
+        <v>75800</v>
       </c>
       <c r="E89" s="3">
-        <v>171000</v>
+        <v>177400</v>
       </c>
       <c r="F89" s="3">
-        <v>233900</v>
+        <v>242700</v>
       </c>
       <c r="G89" s="3">
-        <v>177900</v>
+        <v>184600</v>
       </c>
       <c r="H89" s="3">
-        <v>187500</v>
+        <v>194600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -4551,19 +4551,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>202600</v>
+        <v>210300</v>
       </c>
       <c r="E94" s="3">
-        <v>-518400</v>
+        <v>-537900</v>
       </c>
       <c r="F94" s="3">
-        <v>61400</v>
+        <v>63700</v>
       </c>
       <c r="G94" s="3">
-        <v>523900</v>
+        <v>543600</v>
       </c>
       <c r="H94" s="3">
-        <v>-197000</v>
+        <v>-204400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
@@ -4821,19 +4821,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>162400</v>
+        <v>168600</v>
       </c>
       <c r="E100" s="3">
-        <v>-540300</v>
+        <v>-560700</v>
       </c>
       <c r="F100" s="3">
-        <v>268600</v>
+        <v>278800</v>
       </c>
       <c r="G100" s="3">
-        <v>-273900</v>
+        <v>-284200</v>
       </c>
       <c r="H100" s="3">
-        <v>73600</v>
+        <v>76300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>161000</v>
+        <v>177500</v>
       </c>
       <c r="E8" s="3">
-        <v>280500</v>
+        <v>168600</v>
       </c>
       <c r="F8" s="3">
-        <v>376300</v>
+        <v>293800</v>
       </c>
       <c r="G8" s="3">
-        <v>322500</v>
+        <v>394100</v>
       </c>
       <c r="H8" s="3">
-        <v>304500</v>
+        <v>337800</v>
       </c>
       <c r="I8" s="3">
-        <v>261900</v>
+        <v>319000</v>
       </c>
       <c r="J8" s="3">
+        <v>274300</v>
+      </c>
+      <c r="K8" s="3">
         <v>280100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>321900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>246300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>221300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>215300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>272100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>121400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>104100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35700</v>
+        <v>55700</v>
       </c>
       <c r="E9" s="3">
-        <v>21600</v>
+        <v>37400</v>
       </c>
       <c r="F9" s="3">
-        <v>30000</v>
+        <v>22600</v>
       </c>
       <c r="G9" s="3">
-        <v>41600</v>
+        <v>31400</v>
       </c>
       <c r="H9" s="3">
-        <v>37800</v>
+        <v>43500</v>
       </c>
       <c r="I9" s="3">
-        <v>58500</v>
+        <v>39600</v>
       </c>
       <c r="J9" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K9" s="3">
         <v>101400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>136000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>98500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>47000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>125200</v>
+        <v>121800</v>
       </c>
       <c r="E10" s="3">
-        <v>258900</v>
+        <v>131200</v>
       </c>
       <c r="F10" s="3">
-        <v>346300</v>
+        <v>271200</v>
       </c>
       <c r="G10" s="3">
-        <v>281000</v>
+        <v>362700</v>
       </c>
       <c r="H10" s="3">
-        <v>266700</v>
+        <v>294300</v>
       </c>
       <c r="I10" s="3">
-        <v>203400</v>
+        <v>279400</v>
       </c>
       <c r="J10" s="3">
+        <v>213000</v>
+      </c>
+      <c r="K10" s="3">
         <v>178700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>185900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>147800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>176000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>176900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>225100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>103600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>87800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>7900</v>
+        <v>8600</v>
       </c>
       <c r="E12" s="3">
-        <v>5000</v>
+        <v>8300</v>
       </c>
       <c r="F12" s="3">
-        <v>6400</v>
+        <v>5200</v>
       </c>
       <c r="G12" s="3">
-        <v>9100</v>
+        <v>6700</v>
       </c>
       <c r="H12" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="I12" s="3">
-        <v>11300</v>
+        <v>9700</v>
       </c>
       <c r="J12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>300500</v>
+        <v>130000</v>
       </c>
       <c r="E17" s="3">
-        <v>247600</v>
+        <v>314800</v>
       </c>
       <c r="F17" s="3">
-        <v>199200</v>
+        <v>259300</v>
       </c>
       <c r="G17" s="3">
-        <v>138900</v>
+        <v>208600</v>
       </c>
       <c r="H17" s="3">
-        <v>139200</v>
+        <v>145500</v>
       </c>
       <c r="I17" s="3">
-        <v>133100</v>
+        <v>145800</v>
       </c>
       <c r="J17" s="3">
+        <v>139500</v>
+      </c>
+      <c r="K17" s="3">
         <v>178100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>210900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>199500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>138300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>112100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>99000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>40200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>49800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-139600</v>
+        <v>47500</v>
       </c>
       <c r="E18" s="3">
-        <v>32900</v>
+        <v>-146200</v>
       </c>
       <c r="F18" s="3">
-        <v>177100</v>
+        <v>34500</v>
       </c>
       <c r="G18" s="3">
-        <v>183600</v>
+        <v>185500</v>
       </c>
       <c r="H18" s="3">
-        <v>165300</v>
+        <v>192300</v>
       </c>
       <c r="I18" s="3">
-        <v>128700</v>
+        <v>173100</v>
       </c>
       <c r="J18" s="3">
+        <v>134800</v>
+      </c>
+      <c r="K18" s="3">
         <v>102100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>111000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>46800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>83000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>103300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>173100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>81200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>54300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>64800</v>
+        <v>-7700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1200</v>
+        <v>67900</v>
       </c>
       <c r="F20" s="3">
-        <v>1200</v>
+        <v>-1300</v>
       </c>
       <c r="G20" s="3">
-        <v>4600</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>1400</v>
+        <v>4800</v>
       </c>
       <c r="I20" s="3">
-        <v>-6200</v>
+        <v>1500</v>
       </c>
       <c r="J20" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1333,20 +1370,23 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>173300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>51100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-74700</v>
+        <v>39800</v>
       </c>
       <c r="E23" s="3">
-        <v>31800</v>
+        <v>-78300</v>
       </c>
       <c r="F23" s="3">
-        <v>178300</v>
+        <v>33300</v>
       </c>
       <c r="G23" s="3">
-        <v>188200</v>
+        <v>186800</v>
       </c>
       <c r="H23" s="3">
-        <v>166700</v>
+        <v>197200</v>
       </c>
       <c r="I23" s="3">
-        <v>122600</v>
+        <v>174600</v>
       </c>
       <c r="J23" s="3">
+        <v>128400</v>
+      </c>
+      <c r="K23" s="3">
         <v>98200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>115400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>82900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>103400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>172800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>81000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>51000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4100</v>
+        <v>12500</v>
       </c>
       <c r="E24" s="3">
-        <v>13200</v>
+        <v>-4300</v>
       </c>
       <c r="F24" s="3">
-        <v>26800</v>
+        <v>13800</v>
       </c>
       <c r="G24" s="3">
-        <v>22200</v>
+        <v>28100</v>
       </c>
       <c r="H24" s="3">
-        <v>28800</v>
+        <v>23200</v>
       </c>
       <c r="I24" s="3">
-        <v>11100</v>
+        <v>30200</v>
       </c>
       <c r="J24" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>28300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-70700</v>
+        <v>27300</v>
       </c>
       <c r="E26" s="3">
-        <v>18600</v>
+        <v>-74000</v>
       </c>
       <c r="F26" s="3">
-        <v>151500</v>
+        <v>19500</v>
       </c>
       <c r="G26" s="3">
-        <v>166100</v>
+        <v>158700</v>
       </c>
       <c r="H26" s="3">
-        <v>137900</v>
+        <v>173900</v>
       </c>
       <c r="I26" s="3">
-        <v>111500</v>
+        <v>144500</v>
       </c>
       <c r="J26" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K26" s="3">
         <v>99300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>103900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>80200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>96600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>144500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>67600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>42200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-70700</v>
+        <v>27300</v>
       </c>
       <c r="E27" s="3">
-        <v>18600</v>
+        <v>-74000</v>
       </c>
       <c r="F27" s="3">
-        <v>151500</v>
+        <v>19500</v>
       </c>
       <c r="G27" s="3">
-        <v>166100</v>
+        <v>158700</v>
       </c>
       <c r="H27" s="3">
-        <v>137900</v>
+        <v>173900</v>
       </c>
       <c r="I27" s="3">
-        <v>111500</v>
+        <v>144500</v>
       </c>
       <c r="J27" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K27" s="3">
         <v>99300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>45300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>80200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>96600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>144500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>67600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-64800</v>
+        <v>7700</v>
       </c>
       <c r="E32" s="3">
-        <v>1200</v>
+        <v>-67900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1200</v>
+        <v>1300</v>
       </c>
       <c r="G32" s="3">
-        <v>-4600</v>
+        <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1400</v>
+        <v>-4800</v>
       </c>
       <c r="I32" s="3">
-        <v>6200</v>
+        <v>-1500</v>
       </c>
       <c r="J32" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-70700</v>
+        <v>27300</v>
       </c>
       <c r="E33" s="3">
-        <v>18600</v>
+        <v>-74000</v>
       </c>
       <c r="F33" s="3">
-        <v>151500</v>
+        <v>19500</v>
       </c>
       <c r="G33" s="3">
-        <v>166100</v>
+        <v>158700</v>
       </c>
       <c r="H33" s="3">
-        <v>137900</v>
+        <v>173900</v>
       </c>
       <c r="I33" s="3">
-        <v>111500</v>
+        <v>144500</v>
       </c>
       <c r="J33" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K33" s="3">
         <v>99300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>45300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>80200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>96600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>144500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>67600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-70700</v>
+        <v>27300</v>
       </c>
       <c r="E35" s="3">
-        <v>18600</v>
+        <v>-74000</v>
       </c>
       <c r="F35" s="3">
-        <v>151500</v>
+        <v>19500</v>
       </c>
       <c r="G35" s="3">
-        <v>166100</v>
+        <v>158700</v>
       </c>
       <c r="H35" s="3">
-        <v>137900</v>
+        <v>173900</v>
       </c>
       <c r="I35" s="3">
-        <v>111500</v>
+        <v>144500</v>
       </c>
       <c r="J35" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K35" s="3">
         <v>99300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>45300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>80200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>96600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>144500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>67600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,158 +2226,168 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>254300</v>
+        <v>266400</v>
       </c>
       <c r="E41" s="3">
-        <v>415500</v>
+        <v>266400</v>
       </c>
       <c r="F41" s="3">
-        <v>385700</v>
+        <v>435200</v>
       </c>
       <c r="G41" s="3">
-        <v>375700</v>
+        <v>404000</v>
       </c>
       <c r="H41" s="3">
-        <v>280500</v>
+        <v>393500</v>
       </c>
       <c r="I41" s="3">
-        <v>363200</v>
+        <v>293800</v>
       </c>
       <c r="J41" s="3">
+        <v>380500</v>
+      </c>
+      <c r="K41" s="3">
         <v>400000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>416800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>823100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1014000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>220100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>95700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="3">
         <v>114300</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>179000</v>
+        <v>187500</v>
       </c>
       <c r="E42" s="3">
-        <v>33600</v>
+        <v>187500</v>
       </c>
       <c r="F42" s="3">
-        <v>4400</v>
+        <v>35200</v>
       </c>
       <c r="G42" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H42" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>4200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9700</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>44500</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="3">
         <v>62600</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1333700</v>
+        <v>1397000</v>
       </c>
       <c r="E43" s="3">
-        <v>1602600</v>
+        <v>1397000</v>
       </c>
       <c r="F43" s="3">
-        <v>1649500</v>
+        <v>1678600</v>
       </c>
       <c r="G43" s="3">
-        <v>1597700</v>
+        <v>1727800</v>
       </c>
       <c r="H43" s="3">
-        <v>1719800</v>
+        <v>1673500</v>
       </c>
       <c r="I43" s="3">
-        <v>1427600</v>
+        <v>1801300</v>
       </c>
       <c r="J43" s="3">
+        <v>1495300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1468600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1567100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1362300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1301100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1580900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1456100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="3">
         <v>745600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,258 +2436,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>240200</v>
+        <v>251600</v>
       </c>
       <c r="E45" s="3">
-        <v>420700</v>
+        <v>251600</v>
       </c>
       <c r="F45" s="3">
-        <v>402800</v>
+        <v>440600</v>
       </c>
       <c r="G45" s="3">
-        <v>410400</v>
+        <v>421900</v>
       </c>
       <c r="H45" s="3">
-        <v>421000</v>
+        <v>429900</v>
       </c>
       <c r="I45" s="3">
-        <v>313400</v>
+        <v>441000</v>
       </c>
       <c r="J45" s="3">
+        <v>328300</v>
+      </c>
+      <c r="K45" s="3">
         <v>363000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>435700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>265200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>487700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>459300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>117600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="3">
         <v>85200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2007300</v>
+        <v>2102500</v>
       </c>
       <c r="E46" s="3">
-        <v>2472300</v>
+        <v>2102500</v>
       </c>
       <c r="F46" s="3">
-        <v>2442400</v>
+        <v>2589600</v>
       </c>
       <c r="G46" s="3">
-        <v>2388200</v>
+        <v>2558300</v>
       </c>
       <c r="H46" s="3">
-        <v>2425600</v>
+        <v>2501500</v>
       </c>
       <c r="I46" s="3">
-        <v>2104300</v>
+        <v>2540700</v>
       </c>
       <c r="J46" s="3">
+        <v>2204100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2235800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2429200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2450700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2847300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2260300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1669400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="3">
         <v>1007700</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71000</v>
+        <v>74400</v>
       </c>
       <c r="E47" s="3">
-        <v>113500</v>
+        <v>74400</v>
       </c>
       <c r="F47" s="3">
-        <v>132700</v>
+        <v>118900</v>
       </c>
       <c r="G47" s="3">
-        <v>223900</v>
+        <v>139000</v>
       </c>
       <c r="H47" s="3">
-        <v>146900</v>
+        <v>234500</v>
       </c>
       <c r="I47" s="3">
-        <v>198000</v>
+        <v>153800</v>
       </c>
       <c r="J47" s="3">
+        <v>207400</v>
+      </c>
+      <c r="K47" s="3">
         <v>104500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>106500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>59100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="3">
         <v>22400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37300</v>
+        <v>39000</v>
       </c>
       <c r="E48" s="3">
-        <v>35100</v>
+        <v>39000</v>
       </c>
       <c r="F48" s="3">
-        <v>32700</v>
+        <v>36800</v>
       </c>
       <c r="G48" s="3">
-        <v>29300</v>
+        <v>34200</v>
       </c>
       <c r="H48" s="3">
-        <v>27700</v>
+        <v>30700</v>
       </c>
       <c r="I48" s="3">
-        <v>3800</v>
+        <v>29000</v>
       </c>
       <c r="J48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="P48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
       </c>
       <c r="F49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
       </c>
       <c r="H49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K49" s="3">
         <v>16500</v>
       </c>
-      <c r="J49" s="3">
-        <v>16500</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70000</v>
+        <v>73400</v>
       </c>
       <c r="E52" s="3">
-        <v>44700</v>
+        <v>73400</v>
       </c>
       <c r="F52" s="3">
-        <v>106400</v>
+        <v>46900</v>
       </c>
       <c r="G52" s="3">
-        <v>68300</v>
+        <v>111500</v>
       </c>
       <c r="H52" s="3">
-        <v>48800</v>
+        <v>71600</v>
       </c>
       <c r="I52" s="3">
-        <v>37800</v>
+        <v>51100</v>
       </c>
       <c r="J52" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K52" s="3">
         <v>26500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="3">
         <v>4300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2186600</v>
+        <v>2290300</v>
       </c>
       <c r="E54" s="3">
-        <v>2666700</v>
+        <v>2290300</v>
       </c>
       <c r="F54" s="3">
-        <v>2715100</v>
+        <v>2793200</v>
       </c>
       <c r="G54" s="3">
-        <v>2710500</v>
+        <v>2843900</v>
       </c>
       <c r="H54" s="3">
-        <v>2650000</v>
+        <v>2839100</v>
       </c>
       <c r="I54" s="3">
-        <v>2360500</v>
+        <v>2775700</v>
       </c>
       <c r="J54" s="3">
+        <v>2472500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2387100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2580600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2552900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2876200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2280500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1687700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="3">
         <v>1035100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,228 +3061,243 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>55900</v>
+        <v>58500</v>
       </c>
       <c r="E58" s="3">
-        <v>152400</v>
+        <v>58500</v>
       </c>
       <c r="F58" s="3">
-        <v>112900</v>
+        <v>159700</v>
       </c>
       <c r="G58" s="3">
-        <v>470800</v>
+        <v>118300</v>
       </c>
       <c r="H58" s="3">
-        <v>610200</v>
+        <v>493100</v>
       </c>
       <c r="I58" s="3">
-        <v>560700</v>
+        <v>639200</v>
       </c>
       <c r="J58" s="3">
+        <v>587300</v>
+      </c>
+      <c r="K58" s="3">
         <v>698700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>865400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>897200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1184200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1314200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>959700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="3">
         <v>608400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>394000</v>
+        <v>412700</v>
       </c>
       <c r="E59" s="3">
-        <v>413600</v>
+        <v>412700</v>
       </c>
       <c r="F59" s="3">
-        <v>432600</v>
+        <v>433200</v>
       </c>
       <c r="G59" s="3">
-        <v>316400</v>
+        <v>453100</v>
       </c>
       <c r="H59" s="3">
-        <v>224500</v>
+        <v>331400</v>
       </c>
       <c r="I59" s="3">
-        <v>168300</v>
+        <v>235100</v>
       </c>
       <c r="J59" s="3">
+        <v>176300</v>
+      </c>
+      <c r="K59" s="3">
         <v>121800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>260600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>206600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>307700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>203900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="3">
         <v>50100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>449900</v>
+        <v>471200</v>
       </c>
       <c r="E60" s="3">
-        <v>566000</v>
+        <v>471200</v>
       </c>
       <c r="F60" s="3">
-        <v>545600</v>
+        <v>592900</v>
       </c>
       <c r="G60" s="3">
-        <v>787200</v>
+        <v>571400</v>
       </c>
       <c r="H60" s="3">
-        <v>834700</v>
+        <v>824500</v>
       </c>
       <c r="I60" s="3">
-        <v>729000</v>
+        <v>874300</v>
       </c>
       <c r="J60" s="3">
+        <v>763500</v>
+      </c>
+      <c r="K60" s="3">
         <v>820500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1126000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1103800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1384700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1621900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1163600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="3">
         <v>658500</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>212400</v>
+        <v>222500</v>
       </c>
       <c r="E61" s="3">
-        <v>339800</v>
+        <v>222500</v>
       </c>
       <c r="F61" s="3">
-        <v>387700</v>
+        <v>355900</v>
       </c>
       <c r="G61" s="3">
-        <v>86800</v>
+        <v>406100</v>
       </c>
       <c r="H61" s="3">
-        <v>86800</v>
+        <v>90900</v>
       </c>
       <c r="I61" s="3">
-        <v>60000</v>
+        <v>90900</v>
       </c>
       <c r="J61" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K61" s="3">
         <v>28800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>36600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>75700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>11100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="E62" s="3">
-        <v>29100</v>
+        <v>4200</v>
       </c>
       <c r="F62" s="3">
-        <v>76900</v>
+        <v>30500</v>
       </c>
       <c r="G62" s="3">
-        <v>57400</v>
+        <v>80600</v>
       </c>
       <c r="H62" s="3">
-        <v>18300</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>16</v>
+        <v>60100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>19200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>16</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>666300</v>
+        <v>697900</v>
       </c>
       <c r="E66" s="3">
-        <v>934900</v>
+        <v>697900</v>
       </c>
       <c r="F66" s="3">
-        <v>1010200</v>
+        <v>979300</v>
       </c>
       <c r="G66" s="3">
-        <v>931300</v>
+        <v>1058100</v>
       </c>
       <c r="H66" s="3">
-        <v>939800</v>
+        <v>975500</v>
       </c>
       <c r="I66" s="3">
-        <v>789000</v>
+        <v>984300</v>
       </c>
       <c r="J66" s="3">
+        <v>826400</v>
+      </c>
+      <c r="K66" s="3">
         <v>849200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1126000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1140400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1460400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1659700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1165300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R66" s="3">
         <v>669600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3536,22 +3704,25 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>882100</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>882100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>882100</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>864400</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>997700</v>
+        <v>1045100</v>
       </c>
       <c r="E72" s="3">
-        <v>1209900</v>
+        <v>1045100</v>
       </c>
       <c r="F72" s="3">
-        <v>1191400</v>
+        <v>1267300</v>
       </c>
       <c r="G72" s="3">
-        <v>1039800</v>
+        <v>1247900</v>
       </c>
       <c r="H72" s="3">
-        <v>873800</v>
+        <v>1089200</v>
       </c>
       <c r="I72" s="3">
-        <v>735900</v>
+        <v>915200</v>
       </c>
       <c r="J72" s="3">
+        <v>770800</v>
+      </c>
+      <c r="K72" s="3">
         <v>624400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>518800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>414900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>366200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-280000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-376600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3">
         <v>-510600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1520300</v>
+        <v>1592400</v>
       </c>
       <c r="E76" s="3">
-        <v>1731700</v>
+        <v>1592400</v>
       </c>
       <c r="F76" s="3">
-        <v>1704900</v>
+        <v>1813900</v>
       </c>
       <c r="G76" s="3">
-        <v>1779200</v>
+        <v>1785800</v>
       </c>
       <c r="H76" s="3">
-        <v>1710200</v>
+        <v>1863600</v>
       </c>
       <c r="I76" s="3">
-        <v>1571500</v>
+        <v>1791400</v>
       </c>
       <c r="J76" s="3">
+        <v>1646000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1537800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1454600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1412500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1415900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-261400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-359800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R76" s="3">
         <v>-498900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-70700</v>
+        <v>27300</v>
       </c>
       <c r="E81" s="3">
-        <v>18600</v>
+        <v>-74000</v>
       </c>
       <c r="F81" s="3">
-        <v>151500</v>
+        <v>19500</v>
       </c>
       <c r="G81" s="3">
-        <v>166100</v>
+        <v>158700</v>
       </c>
       <c r="H81" s="3">
-        <v>137900</v>
+        <v>173900</v>
       </c>
       <c r="I81" s="3">
-        <v>111500</v>
+        <v>144500</v>
       </c>
       <c r="J81" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K81" s="3">
         <v>99300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>45300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>80200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>96600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>144500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>67600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4057,26 +4256,29 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,28 +4539,31 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>75800</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>177400</v>
+        <v>79300</v>
       </c>
       <c r="F89" s="3">
-        <v>242700</v>
+        <v>185800</v>
       </c>
       <c r="G89" s="3">
-        <v>184600</v>
+        <v>254200</v>
       </c>
       <c r="H89" s="3">
-        <v>194600</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+        <v>193300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>203800</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
@@ -4354,29 +4571,32 @@
       <c r="K89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="3">
         <v>70000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>110100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>132000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>214400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>77300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>54200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4427,26 +4648,29 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3">
         <v>100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,28 +4772,31 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>210300</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
-        <v>-537900</v>
+        <v>220200</v>
       </c>
       <c r="F94" s="3">
-        <v>63700</v>
+        <v>-563400</v>
       </c>
       <c r="G94" s="3">
-        <v>543600</v>
+        <v>66700</v>
       </c>
       <c r="H94" s="3">
-        <v>-204400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+        <v>569400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-214100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
@@ -4574,29 +4804,32 @@
       <c r="K94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="3">
         <v>-182300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>82500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>154700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-341900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-48600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-228600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,28 +5058,31 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>168600</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-560700</v>
+        <v>176600</v>
       </c>
       <c r="F100" s="3">
-        <v>278800</v>
+        <v>-587300</v>
       </c>
       <c r="G100" s="3">
-        <v>-284200</v>
+        <v>292000</v>
       </c>
       <c r="H100" s="3">
-        <v>76300</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
+        <v>-297700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>80000</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
@@ -4844,29 +5090,32 @@
       <c r="K100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3">
         <v>-270400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>612800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-162300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>106600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>36500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>254400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4891,32 +5140,35 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="3">
         <v>-20500</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4941,28 +5193,31 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="3">
         <v>-403200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>793900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>124400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>65100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>79900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>177500</v>
+        <v>129800</v>
       </c>
       <c r="E8" s="3">
-        <v>168600</v>
+        <v>178300</v>
       </c>
       <c r="F8" s="3">
-        <v>293800</v>
+        <v>169300</v>
       </c>
       <c r="G8" s="3">
-        <v>394100</v>
+        <v>295100</v>
       </c>
       <c r="H8" s="3">
-        <v>337800</v>
+        <v>395800</v>
       </c>
       <c r="I8" s="3">
-        <v>319000</v>
+        <v>339300</v>
       </c>
       <c r="J8" s="3">
+        <v>320400</v>
+      </c>
+      <c r="K8" s="3">
         <v>274300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>280100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>321900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>246300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>221300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>215300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>272100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>121400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>104100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>55700</v>
+        <v>30400</v>
       </c>
       <c r="E9" s="3">
-        <v>37400</v>
+        <v>56000</v>
       </c>
       <c r="F9" s="3">
-        <v>22600</v>
+        <v>37600</v>
       </c>
       <c r="G9" s="3">
-        <v>31400</v>
+        <v>22700</v>
       </c>
       <c r="H9" s="3">
-        <v>43500</v>
+        <v>31500</v>
       </c>
       <c r="I9" s="3">
-        <v>39600</v>
+        <v>43700</v>
       </c>
       <c r="J9" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K9" s="3">
         <v>61300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>101400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>136000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>98500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>47000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>121800</v>
+        <v>99400</v>
       </c>
       <c r="E10" s="3">
-        <v>131200</v>
+        <v>122300</v>
       </c>
       <c r="F10" s="3">
-        <v>271200</v>
+        <v>131700</v>
       </c>
       <c r="G10" s="3">
-        <v>362700</v>
+        <v>272400</v>
       </c>
       <c r="H10" s="3">
-        <v>294300</v>
+        <v>364300</v>
       </c>
       <c r="I10" s="3">
-        <v>279400</v>
+        <v>295600</v>
       </c>
       <c r="J10" s="3">
+        <v>280600</v>
+      </c>
+      <c r="K10" s="3">
         <v>213000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>178700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>185900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>147800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>176000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>176900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>225100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>103600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>87800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E12" s="3">
         <v>8600</v>
       </c>
-      <c r="E12" s="3">
-        <v>8300</v>
-      </c>
       <c r="F12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G12" s="3">
         <v>5200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>130000</v>
+        <v>12500</v>
       </c>
       <c r="E17" s="3">
-        <v>314800</v>
+        <v>130600</v>
       </c>
       <c r="F17" s="3">
-        <v>259300</v>
+        <v>316200</v>
       </c>
       <c r="G17" s="3">
-        <v>208600</v>
+        <v>260500</v>
       </c>
       <c r="H17" s="3">
-        <v>145500</v>
+        <v>209500</v>
       </c>
       <c r="I17" s="3">
-        <v>145800</v>
+        <v>146100</v>
       </c>
       <c r="J17" s="3">
+        <v>146500</v>
+      </c>
+      <c r="K17" s="3">
         <v>139500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>178100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>210900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>199500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>138300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>112100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>99000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>40200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>49800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>47500</v>
+        <v>117300</v>
       </c>
       <c r="E18" s="3">
-        <v>-146200</v>
+        <v>47700</v>
       </c>
       <c r="F18" s="3">
-        <v>34500</v>
+        <v>-146800</v>
       </c>
       <c r="G18" s="3">
-        <v>185500</v>
+        <v>34700</v>
       </c>
       <c r="H18" s="3">
-        <v>192300</v>
+        <v>186300</v>
       </c>
       <c r="I18" s="3">
+        <v>193100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>134800</v>
+      </c>
+      <c r="L18" s="3">
+        <v>102100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>111000</v>
+      </c>
+      <c r="N18" s="3">
+        <v>46800</v>
+      </c>
+      <c r="O18" s="3">
+        <v>83000</v>
+      </c>
+      <c r="P18" s="3">
+        <v>103300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>173100</v>
       </c>
-      <c r="J18" s="3">
-        <v>134800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>102100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>111000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>46800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>83000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>103300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>173100</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>81200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>54300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-7700</v>
+        <v>-6800</v>
       </c>
       <c r="E20" s="3">
-        <v>67900</v>
+        <v>-7800</v>
       </c>
       <c r="F20" s="3">
+        <v>68200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
-        <v>4800</v>
-      </c>
       <c r="I20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1373,20 +1410,23 @@
       <c r="O21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>173300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>51100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>39800</v>
+        <v>110500</v>
       </c>
       <c r="E23" s="3">
-        <v>-78300</v>
+        <v>40000</v>
       </c>
       <c r="F23" s="3">
-        <v>33300</v>
+        <v>-78600</v>
       </c>
       <c r="G23" s="3">
-        <v>186800</v>
+        <v>33400</v>
       </c>
       <c r="H23" s="3">
-        <v>197200</v>
+        <v>187600</v>
       </c>
       <c r="I23" s="3">
-        <v>174600</v>
+        <v>198000</v>
       </c>
       <c r="J23" s="3">
+        <v>175400</v>
+      </c>
+      <c r="K23" s="3">
         <v>128400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>115400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>82900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>103400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>172800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>81000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>51000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12500</v>
+        <v>20100</v>
       </c>
       <c r="E24" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4300</v>
       </c>
-      <c r="F24" s="3">
-        <v>13800</v>
-      </c>
       <c r="G24" s="3">
-        <v>28100</v>
+        <v>13900</v>
       </c>
       <c r="H24" s="3">
-        <v>23200</v>
+        <v>28200</v>
       </c>
       <c r="I24" s="3">
-        <v>30200</v>
+        <v>23300</v>
       </c>
       <c r="J24" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K24" s="3">
         <v>11600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>27300</v>
+        <v>90500</v>
       </c>
       <c r="E26" s="3">
-        <v>-74000</v>
+        <v>27400</v>
       </c>
       <c r="F26" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="G26" s="3">
         <v>19500</v>
       </c>
-      <c r="G26" s="3">
-        <v>158700</v>
-      </c>
       <c r="H26" s="3">
-        <v>173900</v>
+        <v>159400</v>
       </c>
       <c r="I26" s="3">
+        <v>174700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>116800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>99300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>103900</v>
+      </c>
+      <c r="N26" s="3">
+        <v>45300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>80200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>96600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>144500</v>
       </c>
-      <c r="J26" s="3">
-        <v>116800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>99300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>103900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>45300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>80200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>96600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>144500</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>67600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>42200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>27300</v>
+        <v>90500</v>
       </c>
       <c r="E27" s="3">
-        <v>-74000</v>
+        <v>27400</v>
       </c>
       <c r="F27" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="G27" s="3">
         <v>19500</v>
       </c>
-      <c r="G27" s="3">
-        <v>158700</v>
-      </c>
       <c r="H27" s="3">
-        <v>173900</v>
+        <v>159400</v>
       </c>
       <c r="I27" s="3">
+        <v>174700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>116800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>99300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>103900</v>
+      </c>
+      <c r="N27" s="3">
+        <v>45300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>80200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>96600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>144500</v>
       </c>
-      <c r="J27" s="3">
-        <v>116800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>99300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>103900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>45300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>80200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>96600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>144500</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>67600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7700</v>
+        <v>6800</v>
       </c>
       <c r="E32" s="3">
-        <v>-67900</v>
+        <v>7800</v>
       </c>
       <c r="F32" s="3">
+        <v>-68200</v>
+      </c>
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
-        <v>-4800</v>
-      </c>
       <c r="I32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>27300</v>
+        <v>90500</v>
       </c>
       <c r="E33" s="3">
-        <v>-74000</v>
+        <v>27400</v>
       </c>
       <c r="F33" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="G33" s="3">
         <v>19500</v>
       </c>
-      <c r="G33" s="3">
-        <v>158700</v>
-      </c>
       <c r="H33" s="3">
-        <v>173900</v>
+        <v>159400</v>
       </c>
       <c r="I33" s="3">
+        <v>174700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>116800</v>
+      </c>
+      <c r="L33" s="3">
+        <v>99300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>103900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>45300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>80200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>96600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>144500</v>
       </c>
-      <c r="J33" s="3">
-        <v>116800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>99300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>103900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>45300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>80200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>96600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>144500</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>67600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>27300</v>
+        <v>90500</v>
       </c>
       <c r="E35" s="3">
-        <v>-74000</v>
+        <v>27400</v>
       </c>
       <c r="F35" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="G35" s="3">
         <v>19500</v>
       </c>
-      <c r="G35" s="3">
-        <v>158700</v>
-      </c>
       <c r="H35" s="3">
-        <v>173900</v>
+        <v>159400</v>
       </c>
       <c r="I35" s="3">
+        <v>174700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>116800</v>
+      </c>
+      <c r="L35" s="3">
+        <v>99300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>103900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>45300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>80200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>96600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>144500</v>
       </c>
-      <c r="J35" s="3">
-        <v>116800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>99300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>103900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>45300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>80200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>96600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>144500</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>67600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,75 +2313,79 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>266400</v>
+        <v>227500</v>
       </c>
       <c r="E41" s="3">
-        <v>266400</v>
+        <v>267600</v>
       </c>
       <c r="F41" s="3">
-        <v>435200</v>
+        <v>267600</v>
       </c>
       <c r="G41" s="3">
-        <v>404000</v>
+        <v>437100</v>
       </c>
       <c r="H41" s="3">
-        <v>393500</v>
+        <v>405800</v>
       </c>
       <c r="I41" s="3">
-        <v>293800</v>
+        <v>395200</v>
       </c>
       <c r="J41" s="3">
+        <v>295100</v>
+      </c>
+      <c r="K41" s="3">
         <v>380500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>416800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>823100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1014000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>220100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>95700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="3">
         <v>114300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>187500</v>
+        <v>567700</v>
       </c>
       <c r="E42" s="3">
-        <v>187500</v>
+        <v>188400</v>
       </c>
       <c r="F42" s="3">
-        <v>35200</v>
+        <v>188400</v>
       </c>
       <c r="G42" s="3">
-        <v>4600</v>
+        <v>35300</v>
       </c>
       <c r="H42" s="3">
         <v>4600</v>
@@ -2304,90 +2394,96 @@
         <v>4600</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>4200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9700</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>44500</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" s="3">
         <v>62600</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1397000</v>
+        <v>793000</v>
       </c>
       <c r="E43" s="3">
-        <v>1397000</v>
+        <v>1403100</v>
       </c>
       <c r="F43" s="3">
-        <v>1678600</v>
+        <v>1403100</v>
       </c>
       <c r="G43" s="3">
-        <v>1727800</v>
+        <v>1685900</v>
       </c>
       <c r="H43" s="3">
-        <v>1673500</v>
+        <v>1735300</v>
       </c>
       <c r="I43" s="3">
-        <v>1801300</v>
+        <v>1680800</v>
       </c>
       <c r="J43" s="3">
+        <v>1809200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1495300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1468600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1567100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1362300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1301100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1580900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1456100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="3">
         <v>745600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,225 +2535,240 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>251600</v>
+        <v>213600</v>
       </c>
       <c r="E45" s="3">
-        <v>251600</v>
+        <v>252700</v>
       </c>
       <c r="F45" s="3">
-        <v>440600</v>
+        <v>252700</v>
       </c>
       <c r="G45" s="3">
-        <v>421900</v>
+        <v>442500</v>
       </c>
       <c r="H45" s="3">
-        <v>429900</v>
+        <v>423700</v>
       </c>
       <c r="I45" s="3">
-        <v>441000</v>
+        <v>431700</v>
       </c>
       <c r="J45" s="3">
+        <v>442900</v>
+      </c>
+      <c r="K45" s="3">
         <v>328300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>363000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>435700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>265200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>487700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>459300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>117600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" s="3">
         <v>85200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2102500</v>
+        <v>1801800</v>
       </c>
       <c r="E46" s="3">
-        <v>2102500</v>
+        <v>2111600</v>
       </c>
       <c r="F46" s="3">
-        <v>2589600</v>
+        <v>2111600</v>
       </c>
       <c r="G46" s="3">
-        <v>2558300</v>
+        <v>2600800</v>
       </c>
       <c r="H46" s="3">
-        <v>2501500</v>
+        <v>2569400</v>
       </c>
       <c r="I46" s="3">
-        <v>2540700</v>
+        <v>2512300</v>
       </c>
       <c r="J46" s="3">
+        <v>2551700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2204100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2235800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2429200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2450700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2847300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2260300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1669400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="3">
         <v>1007700</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74400</v>
+        <v>99600</v>
       </c>
       <c r="E47" s="3">
-        <v>74400</v>
+        <v>74700</v>
       </c>
       <c r="F47" s="3">
-        <v>118900</v>
+        <v>74700</v>
       </c>
       <c r="G47" s="3">
-        <v>139000</v>
+        <v>119400</v>
       </c>
       <c r="H47" s="3">
-        <v>234500</v>
+        <v>139600</v>
       </c>
       <c r="I47" s="3">
-        <v>153800</v>
+        <v>235500</v>
       </c>
       <c r="J47" s="3">
+        <v>154500</v>
+      </c>
+      <c r="K47" s="3">
         <v>207400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>104500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>106500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>59100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="3">
         <v>22400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39000</v>
+        <v>54700</v>
       </c>
       <c r="E48" s="3">
-        <v>39000</v>
+        <v>39200</v>
       </c>
       <c r="F48" s="3">
-        <v>36800</v>
+        <v>39200</v>
       </c>
       <c r="G48" s="3">
-        <v>34200</v>
+        <v>36900</v>
       </c>
       <c r="H48" s="3">
-        <v>30700</v>
+        <v>34400</v>
       </c>
       <c r="I48" s="3">
-        <v>29000</v>
+        <v>30800</v>
       </c>
       <c r="J48" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" s="3">
         <v>700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E49" s="3">
         <v>1000</v>
@@ -2666,46 +2777,49 @@
         <v>1000</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="3">
         <v>900</v>
       </c>
       <c r="I49" s="3">
+        <v>900</v>
+      </c>
+      <c r="J49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73400</v>
+        <v>60400</v>
       </c>
       <c r="E52" s="3">
-        <v>73400</v>
+        <v>73700</v>
       </c>
       <c r="F52" s="3">
-        <v>46900</v>
+        <v>73700</v>
       </c>
       <c r="G52" s="3">
-        <v>111500</v>
+        <v>47100</v>
       </c>
       <c r="H52" s="3">
-        <v>71600</v>
+        <v>112000</v>
       </c>
       <c r="I52" s="3">
-        <v>51100</v>
+        <v>71900</v>
       </c>
       <c r="J52" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K52" s="3">
         <v>39600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>18100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S52" s="3">
         <v>4300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2290300</v>
+        <v>2017700</v>
       </c>
       <c r="E54" s="3">
-        <v>2290300</v>
+        <v>2300200</v>
       </c>
       <c r="F54" s="3">
-        <v>2793200</v>
+        <v>2300200</v>
       </c>
       <c r="G54" s="3">
-        <v>2843900</v>
+        <v>2805300</v>
       </c>
       <c r="H54" s="3">
-        <v>2839100</v>
+        <v>2856200</v>
       </c>
       <c r="I54" s="3">
-        <v>2775700</v>
+        <v>2851400</v>
       </c>
       <c r="J54" s="3">
+        <v>2787800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2472500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2387100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2580600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2552900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2876200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2280500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1687700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S54" s="3">
         <v>1035100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,243 +3195,258 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>58500</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>58500</v>
+        <v>58800</v>
       </c>
       <c r="F58" s="3">
-        <v>159700</v>
+        <v>58800</v>
       </c>
       <c r="G58" s="3">
-        <v>118300</v>
+        <v>160400</v>
       </c>
       <c r="H58" s="3">
-        <v>493100</v>
+        <v>118800</v>
       </c>
       <c r="I58" s="3">
-        <v>639200</v>
+        <v>495200</v>
       </c>
       <c r="J58" s="3">
+        <v>641900</v>
+      </c>
+      <c r="K58" s="3">
         <v>587300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>698700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>865400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>897200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1184200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1314200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>959700</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S58" s="3">
         <v>608400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>412700</v>
+        <v>150600</v>
       </c>
       <c r="E59" s="3">
-        <v>412700</v>
+        <v>414500</v>
       </c>
       <c r="F59" s="3">
-        <v>433200</v>
+        <v>414500</v>
       </c>
       <c r="G59" s="3">
-        <v>453100</v>
+        <v>435100</v>
       </c>
       <c r="H59" s="3">
-        <v>331400</v>
+        <v>455100</v>
       </c>
       <c r="I59" s="3">
-        <v>235100</v>
+        <v>332800</v>
       </c>
       <c r="J59" s="3">
+        <v>236100</v>
+      </c>
+      <c r="K59" s="3">
         <v>176300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>121800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>260600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>206600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>307700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>203900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S59" s="3">
         <v>50100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>471200</v>
+        <v>150600</v>
       </c>
       <c r="E60" s="3">
-        <v>471200</v>
+        <v>473300</v>
       </c>
       <c r="F60" s="3">
-        <v>592900</v>
+        <v>473300</v>
       </c>
       <c r="G60" s="3">
-        <v>571400</v>
+        <v>595400</v>
       </c>
       <c r="H60" s="3">
-        <v>824500</v>
+        <v>573900</v>
       </c>
       <c r="I60" s="3">
-        <v>874300</v>
+        <v>828100</v>
       </c>
       <c r="J60" s="3">
+        <v>878100</v>
+      </c>
+      <c r="K60" s="3">
         <v>763500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>820500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1126000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1103800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1384700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1621900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1163600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S60" s="3">
         <v>658500</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>222500</v>
+        <v>147700</v>
       </c>
       <c r="E61" s="3">
-        <v>222500</v>
+        <v>223400</v>
       </c>
       <c r="F61" s="3">
-        <v>355900</v>
+        <v>223400</v>
       </c>
       <c r="G61" s="3">
-        <v>406100</v>
+        <v>357400</v>
       </c>
       <c r="H61" s="3">
-        <v>90900</v>
+        <v>407900</v>
       </c>
       <c r="I61" s="3">
-        <v>90900</v>
+        <v>91300</v>
       </c>
       <c r="J61" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K61" s="3">
         <v>62900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>36600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>75700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>11100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4200</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
         <v>4200</v>
       </c>
       <c r="F62" s="3">
-        <v>30500</v>
+        <v>4200</v>
       </c>
       <c r="G62" s="3">
-        <v>80600</v>
+        <v>30700</v>
       </c>
       <c r="H62" s="3">
-        <v>60100</v>
+        <v>80900</v>
       </c>
       <c r="I62" s="3">
-        <v>19200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
+        <v>60400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>19300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>16</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>697900</v>
+        <v>300600</v>
       </c>
       <c r="E66" s="3">
-        <v>697900</v>
+        <v>700900</v>
       </c>
       <c r="F66" s="3">
-        <v>979300</v>
+        <v>700900</v>
       </c>
       <c r="G66" s="3">
-        <v>1058100</v>
+        <v>983500</v>
       </c>
       <c r="H66" s="3">
-        <v>975500</v>
+        <v>1062700</v>
       </c>
       <c r="I66" s="3">
-        <v>984300</v>
+        <v>979800</v>
       </c>
       <c r="J66" s="3">
+        <v>988600</v>
+      </c>
+      <c r="K66" s="3">
         <v>826400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>849200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1126000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1140400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1460400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1659700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1165300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S66" s="3">
         <v>669600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3707,22 +3875,25 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>882100</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>882100</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>882100</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>864400</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1045100</v>
+        <v>1167500</v>
       </c>
       <c r="E72" s="3">
-        <v>1045100</v>
+        <v>1049600</v>
       </c>
       <c r="F72" s="3">
-        <v>1267300</v>
+        <v>1049600</v>
       </c>
       <c r="G72" s="3">
-        <v>1247900</v>
+        <v>1272800</v>
       </c>
       <c r="H72" s="3">
-        <v>1089200</v>
+        <v>1253300</v>
       </c>
       <c r="I72" s="3">
-        <v>915200</v>
+        <v>1093900</v>
       </c>
       <c r="J72" s="3">
+        <v>919200</v>
+      </c>
+      <c r="K72" s="3">
         <v>770800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>624400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>518800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>414900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>366200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-280000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-376600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S72" s="3">
         <v>-510600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1592400</v>
+        <v>1717200</v>
       </c>
       <c r="E76" s="3">
-        <v>1592400</v>
+        <v>1599300</v>
       </c>
       <c r="F76" s="3">
-        <v>1813900</v>
+        <v>1599300</v>
       </c>
       <c r="G76" s="3">
-        <v>1785800</v>
+        <v>1821800</v>
       </c>
       <c r="H76" s="3">
-        <v>1863600</v>
+        <v>1793500</v>
       </c>
       <c r="I76" s="3">
-        <v>1791400</v>
+        <v>1871700</v>
       </c>
       <c r="J76" s="3">
+        <v>1799100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1646000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1537800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1454600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1412500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1415900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-261400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-359800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S76" s="3">
         <v>-498900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>27300</v>
+        <v>90500</v>
       </c>
       <c r="E81" s="3">
-        <v>-74000</v>
+        <v>27400</v>
       </c>
       <c r="F81" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="G81" s="3">
         <v>19500</v>
       </c>
-      <c r="G81" s="3">
-        <v>158700</v>
-      </c>
       <c r="H81" s="3">
-        <v>173900</v>
+        <v>159400</v>
       </c>
       <c r="I81" s="3">
+        <v>174700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>116800</v>
+      </c>
+      <c r="L81" s="3">
+        <v>99300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>103900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>45300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>80200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>96600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>144500</v>
       </c>
-      <c r="J81" s="3">
-        <v>116800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>99300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>103900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>45300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>80200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>96600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>144500</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>67600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4259,26 +4458,29 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
+      <c r="R83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,31 +4756,34 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>182600</v>
       </c>
       <c r="E89" s="3">
-        <v>79300</v>
+        <v>48500</v>
       </c>
       <c r="F89" s="3">
-        <v>185800</v>
+        <v>79700</v>
       </c>
       <c r="G89" s="3">
-        <v>254200</v>
+        <v>186600</v>
       </c>
       <c r="H89" s="3">
-        <v>193300</v>
+        <v>255300</v>
       </c>
       <c r="I89" s="3">
-        <v>203800</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+        <v>194200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>204700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
@@ -4574,29 +4791,32 @@
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N89" s="3">
         <v>70000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>110100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>132000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>214400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>77300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>54200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4651,26 +4872,29 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="3">
         <v>100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,31 +5002,34 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>113400</v>
       </c>
       <c r="E94" s="3">
-        <v>220200</v>
+        <v>110800</v>
       </c>
       <c r="F94" s="3">
-        <v>-563400</v>
+        <v>221200</v>
       </c>
       <c r="G94" s="3">
-        <v>66700</v>
+        <v>-565900</v>
       </c>
       <c r="H94" s="3">
-        <v>569400</v>
+        <v>67000</v>
       </c>
       <c r="I94" s="3">
-        <v>-214100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+        <v>571800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-215000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
@@ -4807,29 +5037,32 @@
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="3">
         <v>-182300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>82500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>154700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-341900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-228600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5304,34 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>49900</v>
       </c>
       <c r="E100" s="3">
-        <v>176600</v>
+        <v>8200</v>
       </c>
       <c r="F100" s="3">
-        <v>-587300</v>
+        <v>177300</v>
       </c>
       <c r="G100" s="3">
-        <v>292000</v>
+        <v>-589800</v>
       </c>
       <c r="H100" s="3">
-        <v>-297700</v>
+        <v>293200</v>
       </c>
       <c r="I100" s="3">
-        <v>80000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+        <v>-299000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>80300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
@@ -5093,29 +5339,32 @@
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="3">
         <v>-270400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>612800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-162300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>106600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>36500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>254400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5143,32 +5392,35 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="3">
         <v>-20500</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5196,28 +5448,31 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N102" s="3">
         <v>-403200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>793900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>124400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>65100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>79900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>129800</v>
+        <v>111300</v>
       </c>
       <c r="E8" s="3">
-        <v>178300</v>
+        <v>132500</v>
       </c>
       <c r="F8" s="3">
-        <v>169300</v>
+        <v>182100</v>
       </c>
       <c r="G8" s="3">
-        <v>295100</v>
+        <v>149400</v>
       </c>
       <c r="H8" s="3">
-        <v>395800</v>
+        <v>301300</v>
       </c>
       <c r="I8" s="3">
-        <v>339300</v>
+        <v>404200</v>
       </c>
       <c r="J8" s="3">
+        <v>346500</v>
+      </c>
+      <c r="K8" s="3">
         <v>320400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>274300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>280100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>321900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>246300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>221300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>215300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>272100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>121400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>104100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>30400</v>
+        <v>31400</v>
       </c>
       <c r="E9" s="3">
-        <v>56000</v>
+        <v>31000</v>
       </c>
       <c r="F9" s="3">
-        <v>37600</v>
+        <v>57200</v>
       </c>
       <c r="G9" s="3">
-        <v>22700</v>
+        <v>14900</v>
       </c>
       <c r="H9" s="3">
-        <v>31500</v>
+        <v>23200</v>
       </c>
       <c r="I9" s="3">
-        <v>43700</v>
+        <v>32200</v>
       </c>
       <c r="J9" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K9" s="3">
         <v>39800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>61300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>101400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>136000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>47000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>99400</v>
+        <v>79900</v>
       </c>
       <c r="E10" s="3">
-        <v>122300</v>
+        <v>101500</v>
       </c>
       <c r="F10" s="3">
-        <v>131700</v>
+        <v>124900</v>
       </c>
       <c r="G10" s="3">
-        <v>272400</v>
+        <v>134500</v>
       </c>
       <c r="H10" s="3">
-        <v>364300</v>
+        <v>278100</v>
       </c>
       <c r="I10" s="3">
-        <v>295600</v>
+        <v>372000</v>
       </c>
       <c r="J10" s="3">
+        <v>301800</v>
+      </c>
+      <c r="K10" s="3">
         <v>280600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>213000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>178700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>185900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>147800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>176000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>176900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>225100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>103600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>87800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="P12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q12" s="3">
         <v>7800</v>
       </c>
-      <c r="E12" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>9700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>11900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>5500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>7800</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>12500</v>
+        <v>-5100</v>
       </c>
       <c r="E17" s="3">
-        <v>130600</v>
+        <v>12700</v>
       </c>
       <c r="F17" s="3">
-        <v>316200</v>
+        <v>133300</v>
       </c>
       <c r="G17" s="3">
-        <v>260500</v>
+        <v>299400</v>
       </c>
       <c r="H17" s="3">
-        <v>209500</v>
+        <v>266000</v>
       </c>
       <c r="I17" s="3">
-        <v>146100</v>
+        <v>213900</v>
       </c>
       <c r="J17" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K17" s="3">
         <v>146500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>139500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>178100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>210900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>199500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>138300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>112100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>99000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>40200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>49800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>117300</v>
+        <v>116500</v>
       </c>
       <c r="E18" s="3">
-        <v>47700</v>
+        <v>119800</v>
       </c>
       <c r="F18" s="3">
-        <v>-146800</v>
+        <v>48700</v>
       </c>
       <c r="G18" s="3">
-        <v>34700</v>
+        <v>-149900</v>
       </c>
       <c r="H18" s="3">
-        <v>186300</v>
+        <v>35400</v>
       </c>
       <c r="I18" s="3">
-        <v>193100</v>
+        <v>190300</v>
       </c>
       <c r="J18" s="3">
+        <v>197200</v>
+      </c>
+      <c r="K18" s="3">
         <v>173900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>134800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>102100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>111000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>46800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>83000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>103300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>173100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>54300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-6800</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>-7800</v>
+        <v>-6900</v>
       </c>
       <c r="F20" s="3">
-        <v>68200</v>
+        <v>-7900</v>
       </c>
       <c r="G20" s="3">
+        <v>69700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
-        <v>4900</v>
-      </c>
       <c r="J20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1413,20 +1449,23 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>173300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>51100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>110500</v>
+        <v>117100</v>
       </c>
       <c r="E23" s="3">
-        <v>40000</v>
+        <v>112900</v>
       </c>
       <c r="F23" s="3">
-        <v>-78600</v>
+        <v>40800</v>
       </c>
       <c r="G23" s="3">
-        <v>33400</v>
+        <v>-80300</v>
       </c>
       <c r="H23" s="3">
-        <v>187600</v>
+        <v>34100</v>
       </c>
       <c r="I23" s="3">
-        <v>198000</v>
+        <v>191600</v>
       </c>
       <c r="J23" s="3">
+        <v>202200</v>
+      </c>
+      <c r="K23" s="3">
         <v>175400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>128400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>115400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>82900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>103400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>172800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>81000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>51000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20100</v>
+        <v>11900</v>
       </c>
       <c r="E24" s="3">
-        <v>12600</v>
+        <v>20500</v>
       </c>
       <c r="F24" s="3">
-        <v>-4300</v>
+        <v>12900</v>
       </c>
       <c r="G24" s="3">
-        <v>13900</v>
+        <v>-4400</v>
       </c>
       <c r="H24" s="3">
-        <v>28200</v>
+        <v>14200</v>
       </c>
       <c r="I24" s="3">
-        <v>23300</v>
+        <v>28800</v>
       </c>
       <c r="J24" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K24" s="3">
         <v>30300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>90500</v>
+        <v>105100</v>
       </c>
       <c r="E26" s="3">
-        <v>27400</v>
+        <v>92400</v>
       </c>
       <c r="F26" s="3">
-        <v>-74300</v>
+        <v>28000</v>
       </c>
       <c r="G26" s="3">
-        <v>19500</v>
+        <v>-75900</v>
       </c>
       <c r="H26" s="3">
-        <v>159400</v>
+        <v>19900</v>
       </c>
       <c r="I26" s="3">
-        <v>174700</v>
+        <v>162800</v>
       </c>
       <c r="J26" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K26" s="3">
         <v>145100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>116800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>99300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>103900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>45300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>80200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>96600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>144500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>67600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>42200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>90500</v>
+        <v>105100</v>
       </c>
       <c r="E27" s="3">
-        <v>27400</v>
+        <v>92400</v>
       </c>
       <c r="F27" s="3">
-        <v>-74300</v>
+        <v>28000</v>
       </c>
       <c r="G27" s="3">
-        <v>19500</v>
+        <v>-75900</v>
       </c>
       <c r="H27" s="3">
-        <v>159400</v>
+        <v>19900</v>
       </c>
       <c r="I27" s="3">
-        <v>174700</v>
+        <v>162800</v>
       </c>
       <c r="J27" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K27" s="3">
         <v>145100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>116800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>99300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>103900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>45300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>80200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>96600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>144500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>67600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6800</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>7800</v>
+        <v>6900</v>
       </c>
       <c r="F32" s="3">
-        <v>-68200</v>
+        <v>7900</v>
       </c>
       <c r="G32" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
-        <v>-4900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>90500</v>
+        <v>105100</v>
       </c>
       <c r="E33" s="3">
-        <v>27400</v>
+        <v>92400</v>
       </c>
       <c r="F33" s="3">
-        <v>-74300</v>
+        <v>28000</v>
       </c>
       <c r="G33" s="3">
-        <v>19500</v>
+        <v>-75900</v>
       </c>
       <c r="H33" s="3">
-        <v>159400</v>
+        <v>19900</v>
       </c>
       <c r="I33" s="3">
-        <v>174700</v>
+        <v>162800</v>
       </c>
       <c r="J33" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K33" s="3">
         <v>145100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>116800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>99300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>103900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>80200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>96600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>144500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>67600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>42200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>90500</v>
+        <v>105100</v>
       </c>
       <c r="E35" s="3">
-        <v>27400</v>
+        <v>92400</v>
       </c>
       <c r="F35" s="3">
-        <v>-74300</v>
+        <v>28000</v>
       </c>
       <c r="G35" s="3">
-        <v>19500</v>
+        <v>-75900</v>
       </c>
       <c r="H35" s="3">
-        <v>159400</v>
+        <v>19900</v>
       </c>
       <c r="I35" s="3">
-        <v>174700</v>
+        <v>162800</v>
       </c>
       <c r="J35" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K35" s="3">
         <v>145100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>116800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>99300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>103900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>80200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>96600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>144500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>67600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>42200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,176 +2399,186 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>227500</v>
+        <v>239900</v>
       </c>
       <c r="E41" s="3">
-        <v>267600</v>
+        <v>232300</v>
       </c>
       <c r="F41" s="3">
-        <v>267600</v>
+        <v>273200</v>
       </c>
       <c r="G41" s="3">
-        <v>437100</v>
+        <v>273200</v>
       </c>
       <c r="H41" s="3">
-        <v>405800</v>
+        <v>446300</v>
       </c>
       <c r="I41" s="3">
-        <v>395200</v>
+        <v>414400</v>
       </c>
       <c r="J41" s="3">
+        <v>403600</v>
+      </c>
+      <c r="K41" s="3">
         <v>295100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>380500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>416800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>823100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1014000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>220100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>95700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T41" s="3">
         <v>114300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>567700</v>
+        <v>786700</v>
       </c>
       <c r="E42" s="3">
-        <v>188400</v>
+        <v>579700</v>
       </c>
       <c r="F42" s="3">
-        <v>188400</v>
+        <v>192300</v>
       </c>
       <c r="G42" s="3">
-        <v>35300</v>
+        <v>192300</v>
       </c>
       <c r="H42" s="3">
+        <v>36100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K42" s="3">
         <v>4600</v>
       </c>
-      <c r="I42" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>4200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9700</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>44500</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T42" s="3">
         <v>62600</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>793000</v>
+        <v>657300</v>
       </c>
       <c r="E43" s="3">
-        <v>1403100</v>
+        <v>809800</v>
       </c>
       <c r="F43" s="3">
-        <v>1403100</v>
+        <v>1432700</v>
       </c>
       <c r="G43" s="3">
-        <v>1685900</v>
+        <v>1432700</v>
       </c>
       <c r="H43" s="3">
-        <v>1735300</v>
+        <v>1721500</v>
       </c>
       <c r="I43" s="3">
-        <v>1680800</v>
+        <v>1772000</v>
       </c>
       <c r="J43" s="3">
+        <v>1716300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1809200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1495300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1468600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1567100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1362300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1301100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1580900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1456100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T43" s="3">
         <v>745600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,240 +2633,255 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>213600</v>
+        <v>140100</v>
       </c>
       <c r="E45" s="3">
-        <v>252700</v>
+        <v>218100</v>
       </c>
       <c r="F45" s="3">
-        <v>252700</v>
+        <v>258000</v>
       </c>
       <c r="G45" s="3">
-        <v>442500</v>
+        <v>258000</v>
       </c>
       <c r="H45" s="3">
-        <v>423700</v>
+        <v>451900</v>
       </c>
       <c r="I45" s="3">
-        <v>431700</v>
+        <v>432700</v>
       </c>
       <c r="J45" s="3">
+        <v>440900</v>
+      </c>
+      <c r="K45" s="3">
         <v>442900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>328300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>363000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>435700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>265200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>487700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>459300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>117600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T45" s="3">
         <v>85200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1801800</v>
+        <v>1823800</v>
       </c>
       <c r="E46" s="3">
-        <v>2111600</v>
+        <v>1839900</v>
       </c>
       <c r="F46" s="3">
-        <v>2111600</v>
+        <v>2156300</v>
       </c>
       <c r="G46" s="3">
-        <v>2600800</v>
+        <v>2156300</v>
       </c>
       <c r="H46" s="3">
-        <v>2569400</v>
+        <v>2655800</v>
       </c>
       <c r="I46" s="3">
-        <v>2512300</v>
+        <v>2623700</v>
       </c>
       <c r="J46" s="3">
+        <v>2565400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2551700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2204100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2235800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2429200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2450700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2847300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2260300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1669400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T46" s="3">
         <v>1007700</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>99600</v>
+        <v>95300</v>
       </c>
       <c r="E47" s="3">
-        <v>74700</v>
+        <v>101800</v>
       </c>
       <c r="F47" s="3">
-        <v>74700</v>
+        <v>76300</v>
       </c>
       <c r="G47" s="3">
-        <v>119400</v>
+        <v>76300</v>
       </c>
       <c r="H47" s="3">
-        <v>139600</v>
+        <v>121900</v>
       </c>
       <c r="I47" s="3">
-        <v>235500</v>
+        <v>142500</v>
       </c>
       <c r="J47" s="3">
+        <v>240500</v>
+      </c>
+      <c r="K47" s="3">
         <v>154500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>207400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>104500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>106500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>59100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T47" s="3">
         <v>22400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>54700</v>
+        <v>80200</v>
       </c>
       <c r="E48" s="3">
-        <v>39200</v>
+        <v>55800</v>
       </c>
       <c r="F48" s="3">
-        <v>39200</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="3">
-        <v>36900</v>
+        <v>40000</v>
       </c>
       <c r="H48" s="3">
-        <v>34400</v>
+        <v>37700</v>
       </c>
       <c r="I48" s="3">
-        <v>30800</v>
+        <v>35100</v>
       </c>
       <c r="J48" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K48" s="3">
         <v>29100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="R48" s="3">
+        <v>600</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T48" s="3">
         <v>700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1000</v>
       </c>
       <c r="F49" s="3">
         <v>1000</v>
@@ -2780,46 +2890,49 @@
         <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="I49" s="3">
         <v>900</v>
       </c>
       <c r="J49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>60400</v>
+        <v>89600</v>
       </c>
       <c r="E52" s="3">
-        <v>73700</v>
+        <v>61700</v>
       </c>
       <c r="F52" s="3">
-        <v>73700</v>
+        <v>75200</v>
       </c>
       <c r="G52" s="3">
-        <v>47100</v>
+        <v>75200</v>
       </c>
       <c r="H52" s="3">
-        <v>112000</v>
+        <v>48000</v>
       </c>
       <c r="I52" s="3">
-        <v>71900</v>
+        <v>114300</v>
       </c>
       <c r="J52" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K52" s="3">
         <v>51400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>39600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>41200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T52" s="3">
         <v>4300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2017700</v>
+        <v>2090200</v>
       </c>
       <c r="E54" s="3">
-        <v>2300200</v>
+        <v>2060400</v>
       </c>
       <c r="F54" s="3">
-        <v>2300200</v>
+        <v>2348900</v>
       </c>
       <c r="G54" s="3">
-        <v>2805300</v>
+        <v>2348900</v>
       </c>
       <c r="H54" s="3">
-        <v>2856200</v>
+        <v>2864600</v>
       </c>
       <c r="I54" s="3">
-        <v>2851400</v>
+        <v>2916600</v>
       </c>
       <c r="J54" s="3">
+        <v>2911700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2787800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2472500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2387100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2580600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2552900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2876200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2280500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1687700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T54" s="3">
         <v>1035100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,250 +3340,262 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>58800</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>58800</v>
+        <v>60000</v>
       </c>
       <c r="G58" s="3">
-        <v>160400</v>
+        <v>60000</v>
       </c>
       <c r="H58" s="3">
-        <v>118800</v>
+        <v>163700</v>
       </c>
       <c r="I58" s="3">
-        <v>495200</v>
+        <v>121300</v>
       </c>
       <c r="J58" s="3">
+        <v>505700</v>
+      </c>
+      <c r="K58" s="3">
         <v>641900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>587300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>698700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>865400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>897200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1184200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1314200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>959700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T58" s="3">
         <v>608400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>150600</v>
+        <v>73700</v>
       </c>
       <c r="E59" s="3">
-        <v>414500</v>
+        <v>153800</v>
       </c>
       <c r="F59" s="3">
-        <v>414500</v>
+        <v>423300</v>
       </c>
       <c r="G59" s="3">
-        <v>435100</v>
+        <v>423300</v>
       </c>
       <c r="H59" s="3">
-        <v>455100</v>
+        <v>444300</v>
       </c>
       <c r="I59" s="3">
-        <v>332800</v>
+        <v>464700</v>
       </c>
       <c r="J59" s="3">
+        <v>339900</v>
+      </c>
+      <c r="K59" s="3">
         <v>236100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>176300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>121800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>260600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>206600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>307700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>203900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T59" s="3">
         <v>50100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>150600</v>
+        <v>73700</v>
       </c>
       <c r="E60" s="3">
-        <v>473300</v>
+        <v>153800</v>
       </c>
       <c r="F60" s="3">
-        <v>473300</v>
+        <v>483300</v>
       </c>
       <c r="G60" s="3">
-        <v>595400</v>
+        <v>483300</v>
       </c>
       <c r="H60" s="3">
-        <v>573900</v>
+        <v>608000</v>
       </c>
       <c r="I60" s="3">
-        <v>828100</v>
+        <v>586100</v>
       </c>
       <c r="J60" s="3">
+        <v>845600</v>
+      </c>
+      <c r="K60" s="3">
         <v>878100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>763500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>820500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1126000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1103800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1384700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1621900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1163600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T60" s="3">
         <v>658500</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>147700</v>
+        <v>144200</v>
       </c>
       <c r="E61" s="3">
-        <v>223400</v>
+        <v>150800</v>
       </c>
       <c r="F61" s="3">
-        <v>223400</v>
+        <v>228100</v>
       </c>
       <c r="G61" s="3">
-        <v>357400</v>
+        <v>228100</v>
       </c>
       <c r="H61" s="3">
-        <v>407900</v>
+        <v>365000</v>
       </c>
       <c r="I61" s="3">
+        <v>416500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>93200</v>
+      </c>
+      <c r="K61" s="3">
         <v>91300</v>
       </c>
-      <c r="J61" s="3">
-        <v>91300</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>62900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>36600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>75700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>11100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>14200</v>
       </c>
       <c r="E62" s="3">
-        <v>4200</v>
+        <v>2400</v>
       </c>
       <c r="F62" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G62" s="3">
-        <v>30700</v>
+        <v>4300</v>
       </c>
       <c r="H62" s="3">
-        <v>80900</v>
+        <v>31300</v>
       </c>
       <c r="I62" s="3">
-        <v>60400</v>
+        <v>82600</v>
       </c>
       <c r="J62" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K62" s="3">
         <v>19300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300600</v>
+        <v>233700</v>
       </c>
       <c r="E66" s="3">
-        <v>700900</v>
+        <v>306900</v>
       </c>
       <c r="F66" s="3">
-        <v>700900</v>
+        <v>715700</v>
       </c>
       <c r="G66" s="3">
-        <v>983500</v>
+        <v>715700</v>
       </c>
       <c r="H66" s="3">
-        <v>1062700</v>
+        <v>1004300</v>
       </c>
       <c r="I66" s="3">
-        <v>979800</v>
+        <v>1085200</v>
       </c>
       <c r="J66" s="3">
+        <v>1000500</v>
+      </c>
+      <c r="K66" s="3">
         <v>988600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>826400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>849200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1126000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1140400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1460400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1659700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1165300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T66" s="3">
         <v>669600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3878,22 +4045,25 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>882100</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>882100</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>882100</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>864400</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1167500</v>
+        <v>1297300</v>
       </c>
       <c r="E72" s="3">
-        <v>1049600</v>
+        <v>1192200</v>
       </c>
       <c r="F72" s="3">
-        <v>1049600</v>
+        <v>1071800</v>
       </c>
       <c r="G72" s="3">
-        <v>1272800</v>
+        <v>1071800</v>
       </c>
       <c r="H72" s="3">
-        <v>1253300</v>
+        <v>1299800</v>
       </c>
       <c r="I72" s="3">
-        <v>1093900</v>
+        <v>1279800</v>
       </c>
       <c r="J72" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="K72" s="3">
         <v>919200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>770800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>624400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>518800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>414900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>366200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-280000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-376600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T72" s="3">
         <v>-510600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1717200</v>
+        <v>1856500</v>
       </c>
       <c r="E76" s="3">
-        <v>1599300</v>
+        <v>1753500</v>
       </c>
       <c r="F76" s="3">
-        <v>1599300</v>
+        <v>1633100</v>
       </c>
       <c r="G76" s="3">
-        <v>1821800</v>
+        <v>1633100</v>
       </c>
       <c r="H76" s="3">
-        <v>1793500</v>
+        <v>1860300</v>
       </c>
       <c r="I76" s="3">
-        <v>1871700</v>
+        <v>1831400</v>
       </c>
       <c r="J76" s="3">
+        <v>1911300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1799100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1646000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1537800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1454600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1412500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1415900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-261400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-359800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T76" s="3">
         <v>-498900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>90500</v>
+        <v>105100</v>
       </c>
       <c r="E81" s="3">
-        <v>27400</v>
+        <v>92400</v>
       </c>
       <c r="F81" s="3">
-        <v>-74300</v>
+        <v>28000</v>
       </c>
       <c r="G81" s="3">
-        <v>19500</v>
+        <v>-75900</v>
       </c>
       <c r="H81" s="3">
-        <v>159400</v>
+        <v>19900</v>
       </c>
       <c r="I81" s="3">
-        <v>174700</v>
+        <v>162800</v>
       </c>
       <c r="J81" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K81" s="3">
         <v>145100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>116800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>99300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>103900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>80200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>96600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>144500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>67600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>42200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4461,26 +4659,29 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
+      <c r="S83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>182600</v>
+        <v>68300</v>
       </c>
       <c r="E89" s="3">
-        <v>48500</v>
+        <v>186500</v>
       </c>
       <c r="F89" s="3">
-        <v>79700</v>
+        <v>49500</v>
       </c>
       <c r="G89" s="3">
-        <v>186600</v>
+        <v>81400</v>
       </c>
       <c r="H89" s="3">
-        <v>255300</v>
+        <v>190600</v>
       </c>
       <c r="I89" s="3">
-        <v>194200</v>
+        <v>260700</v>
       </c>
       <c r="J89" s="3">
+        <v>198300</v>
+      </c>
+      <c r="K89" s="3">
         <v>204700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O89" s="3">
         <v>70000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>110100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>132000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>214400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>77300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>54200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4875,26 +5095,29 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T91" s="3">
         <v>100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>113400</v>
+        <v>-964900</v>
       </c>
       <c r="E94" s="3">
-        <v>110800</v>
+        <v>115800</v>
       </c>
       <c r="F94" s="3">
-        <v>221200</v>
+        <v>113100</v>
       </c>
       <c r="G94" s="3">
-        <v>-565900</v>
+        <v>225900</v>
       </c>
       <c r="H94" s="3">
-        <v>67000</v>
+        <v>-577800</v>
       </c>
       <c r="I94" s="3">
-        <v>571800</v>
+        <v>68400</v>
       </c>
       <c r="J94" s="3">
+        <v>583900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-215000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="3">
         <v>-182300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>82500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>154700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-341900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-48600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-228600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>49900</v>
+        <v>-488700</v>
       </c>
       <c r="E100" s="3">
-        <v>8200</v>
+        <v>51000</v>
       </c>
       <c r="F100" s="3">
-        <v>177300</v>
+        <v>8400</v>
       </c>
       <c r="G100" s="3">
-        <v>-589800</v>
+        <v>181100</v>
       </c>
       <c r="H100" s="3">
-        <v>293200</v>
+        <v>-602300</v>
       </c>
       <c r="I100" s="3">
-        <v>-299000</v>
+        <v>299400</v>
       </c>
       <c r="J100" s="3">
+        <v>-305300</v>
+      </c>
+      <c r="K100" s="3">
         <v>80300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="3">
         <v>-270400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>612800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-162300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>106600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>36500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>254400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5395,32 +5643,35 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="3">
         <v>-20500</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5451,28 +5702,31 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3">
         <v>-403200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>793900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>124400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-20900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>65100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>79900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>111300</v>
+        <v>79400</v>
       </c>
       <c r="E8" s="3">
-        <v>132500</v>
+        <v>109900</v>
       </c>
       <c r="F8" s="3">
-        <v>182100</v>
+        <v>130800</v>
       </c>
       <c r="G8" s="3">
-        <v>149400</v>
+        <v>179700</v>
       </c>
       <c r="H8" s="3">
-        <v>301300</v>
+        <v>147500</v>
       </c>
       <c r="I8" s="3">
-        <v>404200</v>
+        <v>297400</v>
       </c>
       <c r="J8" s="3">
+        <v>398900</v>
+      </c>
+      <c r="K8" s="3">
         <v>346500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>320400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>274300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>280100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>321900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>246300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>221300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>215300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>272100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>121400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>104100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>31400</v>
+        <v>14000</v>
       </c>
       <c r="E9" s="3">
         <v>31000</v>
       </c>
       <c r="F9" s="3">
-        <v>57200</v>
+        <v>30600</v>
       </c>
       <c r="G9" s="3">
-        <v>14900</v>
+        <v>56400</v>
       </c>
       <c r="H9" s="3">
-        <v>23200</v>
+        <v>14700</v>
       </c>
       <c r="I9" s="3">
-        <v>32200</v>
+        <v>22900</v>
       </c>
       <c r="J9" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K9" s="3">
         <v>44600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>61300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>101400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>136000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>98500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>45300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>47000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>79900</v>
+        <v>65400</v>
       </c>
       <c r="E10" s="3">
-        <v>101500</v>
+        <v>78800</v>
       </c>
       <c r="F10" s="3">
-        <v>124900</v>
+        <v>100200</v>
       </c>
       <c r="G10" s="3">
-        <v>134500</v>
+        <v>123300</v>
       </c>
       <c r="H10" s="3">
-        <v>278100</v>
+        <v>132800</v>
       </c>
       <c r="I10" s="3">
-        <v>372000</v>
+        <v>274500</v>
       </c>
       <c r="J10" s="3">
+        <v>367200</v>
+      </c>
+      <c r="K10" s="3">
         <v>301800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>280600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>213000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>178700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>185900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>147800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>176000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>176900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>225100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>103600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>87800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
       </c>
-      <c r="E12" s="3">
-        <v>8000</v>
-      </c>
       <c r="F12" s="3">
-        <v>8800</v>
+        <v>7900</v>
       </c>
       <c r="G12" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="H12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I12" s="3">
         <v>5300</v>
       </c>
-      <c r="I12" s="3">
-        <v>6900</v>
-      </c>
       <c r="J12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K12" s="3">
         <v>9800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>-5100</v>
       </c>
-      <c r="E17" s="3">
-        <v>12700</v>
-      </c>
       <c r="F17" s="3">
-        <v>133300</v>
+        <v>12600</v>
       </c>
       <c r="G17" s="3">
-        <v>299400</v>
+        <v>131600</v>
       </c>
       <c r="H17" s="3">
-        <v>266000</v>
+        <v>295500</v>
       </c>
       <c r="I17" s="3">
-        <v>213900</v>
+        <v>262500</v>
       </c>
       <c r="J17" s="3">
+        <v>211200</v>
+      </c>
+      <c r="K17" s="3">
         <v>149200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>146500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>139500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>178100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>210900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>199500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>138300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>112100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>99000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>40200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>49800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>116500</v>
+        <v>71600</v>
       </c>
       <c r="E18" s="3">
-        <v>119800</v>
+        <v>115000</v>
       </c>
       <c r="F18" s="3">
-        <v>48700</v>
+        <v>118200</v>
       </c>
       <c r="G18" s="3">
-        <v>-149900</v>
+        <v>48100</v>
       </c>
       <c r="H18" s="3">
-        <v>35400</v>
+        <v>-148000</v>
       </c>
       <c r="I18" s="3">
-        <v>190300</v>
+        <v>34900</v>
       </c>
       <c r="J18" s="3">
+        <v>187800</v>
+      </c>
+      <c r="K18" s="3">
         <v>197200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>173900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>134800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>102100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>111000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>46800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>83000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>103300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>173100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>81200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>54300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>-6900</v>
-      </c>
       <c r="F20" s="3">
-        <v>-7900</v>
+        <v>-6800</v>
       </c>
       <c r="G20" s="3">
-        <v>69700</v>
+        <v>-7800</v>
       </c>
       <c r="H20" s="3">
+        <v>68800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1452,20 +1489,23 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>173300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>51100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>117100</v>
+        <v>85800</v>
       </c>
       <c r="E23" s="3">
-        <v>112900</v>
+        <v>115500</v>
       </c>
       <c r="F23" s="3">
-        <v>40800</v>
+        <v>111400</v>
       </c>
       <c r="G23" s="3">
-        <v>-80300</v>
+        <v>40300</v>
       </c>
       <c r="H23" s="3">
-        <v>34100</v>
+        <v>-79200</v>
       </c>
       <c r="I23" s="3">
-        <v>191600</v>
+        <v>33700</v>
       </c>
       <c r="J23" s="3">
+        <v>189100</v>
+      </c>
+      <c r="K23" s="3">
         <v>202200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>175400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>128400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>115400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>46600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>82900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>103400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>172800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>81000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>51000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="E24" s="3">
-        <v>20500</v>
+        <v>11800</v>
       </c>
       <c r="F24" s="3">
-        <v>12900</v>
+        <v>20200</v>
       </c>
       <c r="G24" s="3">
-        <v>-4400</v>
+        <v>12700</v>
       </c>
       <c r="H24" s="3">
-        <v>14200</v>
+        <v>-4300</v>
       </c>
       <c r="I24" s="3">
-        <v>28800</v>
+        <v>14000</v>
       </c>
       <c r="J24" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K24" s="3">
         <v>23800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>105100</v>
+        <v>73600</v>
       </c>
       <c r="E26" s="3">
-        <v>92400</v>
+        <v>103800</v>
       </c>
       <c r="F26" s="3">
-        <v>28000</v>
+        <v>91200</v>
       </c>
       <c r="G26" s="3">
-        <v>-75900</v>
+        <v>27600</v>
       </c>
       <c r="H26" s="3">
-        <v>19900</v>
+        <v>-74900</v>
       </c>
       <c r="I26" s="3">
-        <v>162800</v>
+        <v>19700</v>
       </c>
       <c r="J26" s="3">
+        <v>160700</v>
+      </c>
+      <c r="K26" s="3">
         <v>178400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>145100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>116800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>99300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>103900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>80200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>96600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>144500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>67600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>42200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>105100</v>
+        <v>73700</v>
       </c>
       <c r="E27" s="3">
-        <v>92400</v>
+        <v>103800</v>
       </c>
       <c r="F27" s="3">
-        <v>28000</v>
+        <v>91200</v>
       </c>
       <c r="G27" s="3">
-        <v>-75900</v>
+        <v>27600</v>
       </c>
       <c r="H27" s="3">
-        <v>19900</v>
+        <v>-74900</v>
       </c>
       <c r="I27" s="3">
-        <v>162800</v>
+        <v>19700</v>
       </c>
       <c r="J27" s="3">
+        <v>160700</v>
+      </c>
+      <c r="K27" s="3">
         <v>178400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>145100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>116800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>99300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>103900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>45300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>80200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>96600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>144500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>67600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>42200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
-        <v>6900</v>
-      </c>
       <c r="F32" s="3">
-        <v>7900</v>
+        <v>6800</v>
       </c>
       <c r="G32" s="3">
-        <v>-69700</v>
+        <v>7800</v>
       </c>
       <c r="H32" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105100</v>
+        <v>73700</v>
       </c>
       <c r="E33" s="3">
-        <v>92400</v>
+        <v>103800</v>
       </c>
       <c r="F33" s="3">
-        <v>28000</v>
+        <v>91200</v>
       </c>
       <c r="G33" s="3">
-        <v>-75900</v>
+        <v>27600</v>
       </c>
       <c r="H33" s="3">
-        <v>19900</v>
+        <v>-74900</v>
       </c>
       <c r="I33" s="3">
-        <v>162800</v>
+        <v>19700</v>
       </c>
       <c r="J33" s="3">
+        <v>160700</v>
+      </c>
+      <c r="K33" s="3">
         <v>178400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>145100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>116800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>99300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>103900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>80200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>96600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>144500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>67600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>42200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105100</v>
+        <v>73700</v>
       </c>
       <c r="E35" s="3">
-        <v>92400</v>
+        <v>103800</v>
       </c>
       <c r="F35" s="3">
-        <v>28000</v>
+        <v>91200</v>
       </c>
       <c r="G35" s="3">
-        <v>-75900</v>
+        <v>27600</v>
       </c>
       <c r="H35" s="3">
-        <v>19900</v>
+        <v>-74900</v>
       </c>
       <c r="I35" s="3">
-        <v>162800</v>
+        <v>19700</v>
       </c>
       <c r="J35" s="3">
+        <v>160700</v>
+      </c>
+      <c r="K35" s="3">
         <v>178400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>145100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>116800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>99300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>103900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>80200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>96600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>144500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>67600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>42200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,185 +2486,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>239900</v>
+        <v>336800</v>
       </c>
       <c r="E41" s="3">
-        <v>232300</v>
+        <v>236800</v>
       </c>
       <c r="F41" s="3">
-        <v>273200</v>
+        <v>229300</v>
       </c>
       <c r="G41" s="3">
-        <v>273200</v>
+        <v>269700</v>
       </c>
       <c r="H41" s="3">
-        <v>446300</v>
+        <v>269700</v>
       </c>
       <c r="I41" s="3">
-        <v>414400</v>
+        <v>440500</v>
       </c>
       <c r="J41" s="3">
+        <v>409000</v>
+      </c>
+      <c r="K41" s="3">
         <v>403600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>295100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>380500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>416800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>823100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1014000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>220100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>95700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U41" s="3">
         <v>114300</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>786700</v>
+        <v>782100</v>
       </c>
       <c r="E42" s="3">
-        <v>579700</v>
+        <v>776400</v>
       </c>
       <c r="F42" s="3">
-        <v>192300</v>
+        <v>572200</v>
       </c>
       <c r="G42" s="3">
-        <v>192300</v>
+        <v>189800</v>
       </c>
       <c r="H42" s="3">
-        <v>36100</v>
+        <v>189800</v>
       </c>
       <c r="I42" s="3">
+        <v>35600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4700</v>
       </c>
-      <c r="J42" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4600</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>4200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9700</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>44500</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U42" s="3">
         <v>62600</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>657300</v>
+        <v>568800</v>
       </c>
       <c r="E43" s="3">
-        <v>809800</v>
+        <v>648700</v>
       </c>
       <c r="F43" s="3">
-        <v>1432700</v>
+        <v>799200</v>
       </c>
       <c r="G43" s="3">
-        <v>1432700</v>
+        <v>1414100</v>
       </c>
       <c r="H43" s="3">
-        <v>1721500</v>
+        <v>1414100</v>
       </c>
       <c r="I43" s="3">
-        <v>1772000</v>
+        <v>1699100</v>
       </c>
       <c r="J43" s="3">
+        <v>1748900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1716300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1809200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1495300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1468600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1567100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1362300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1301100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1580900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1456100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U43" s="3">
         <v>745600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,303 +2732,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>140100</v>
+        <v>191100</v>
       </c>
       <c r="E45" s="3">
-        <v>218100</v>
+        <v>138200</v>
       </c>
       <c r="F45" s="3">
-        <v>258000</v>
+        <v>215300</v>
       </c>
       <c r="G45" s="3">
-        <v>258000</v>
+        <v>254600</v>
       </c>
       <c r="H45" s="3">
-        <v>451900</v>
+        <v>254600</v>
       </c>
       <c r="I45" s="3">
-        <v>432700</v>
+        <v>446000</v>
       </c>
       <c r="J45" s="3">
+        <v>427000</v>
+      </c>
+      <c r="K45" s="3">
         <v>440900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>442900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>328300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>363000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>435700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>265200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>487700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>459300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>117600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U45" s="3">
         <v>85200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1823800</v>
+        <v>1878800</v>
       </c>
       <c r="E46" s="3">
-        <v>1839900</v>
+        <v>1800100</v>
       </c>
       <c r="F46" s="3">
-        <v>2156300</v>
+        <v>1816000</v>
       </c>
       <c r="G46" s="3">
-        <v>2156300</v>
+        <v>2128200</v>
       </c>
       <c r="H46" s="3">
-        <v>2655800</v>
+        <v>2128200</v>
       </c>
       <c r="I46" s="3">
-        <v>2623700</v>
+        <v>2621300</v>
       </c>
       <c r="J46" s="3">
+        <v>2589600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2565400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2551700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2204100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2235800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2429200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2450700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2847300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2260300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1669400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46" s="3">
         <v>1007700</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95300</v>
+        <v>99600</v>
       </c>
       <c r="E47" s="3">
-        <v>101800</v>
+        <v>94100</v>
       </c>
       <c r="F47" s="3">
-        <v>76300</v>
+        <v>100400</v>
       </c>
       <c r="G47" s="3">
-        <v>76300</v>
+        <v>75300</v>
       </c>
       <c r="H47" s="3">
-        <v>121900</v>
+        <v>75300</v>
       </c>
       <c r="I47" s="3">
-        <v>142500</v>
+        <v>120400</v>
       </c>
       <c r="J47" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K47" s="3">
         <v>240500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>154500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>207400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>104500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>106500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>59100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U47" s="3">
         <v>22400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80200</v>
+        <v>101000</v>
       </c>
       <c r="E48" s="3">
-        <v>55800</v>
+        <v>79100</v>
       </c>
       <c r="F48" s="3">
-        <v>40000</v>
+        <v>55100</v>
       </c>
       <c r="G48" s="3">
-        <v>40000</v>
+        <v>39500</v>
       </c>
       <c r="H48" s="3">
-        <v>37700</v>
+        <v>39500</v>
       </c>
       <c r="I48" s="3">
-        <v>35100</v>
+        <v>37200</v>
       </c>
       <c r="J48" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K48" s="3">
         <v>31400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>600</v>
       </c>
       <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="S48" s="3">
+        <v>600</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U48" s="3">
         <v>700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1000</v>
       </c>
       <c r="G49" s="3">
         <v>1000</v>
       </c>
       <c r="H49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
+        <v>17300</v>
+      </c>
+      <c r="N49" s="3">
+        <v>16500</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P49" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>17300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>16500</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>800</v>
-      </c>
-      <c r="P49" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89600</v>
+        <v>83900</v>
       </c>
       <c r="E52" s="3">
-        <v>61700</v>
+        <v>88400</v>
       </c>
       <c r="F52" s="3">
-        <v>75200</v>
+        <v>60900</v>
       </c>
       <c r="G52" s="3">
-        <v>75200</v>
+        <v>74300</v>
       </c>
       <c r="H52" s="3">
-        <v>48000</v>
+        <v>74300</v>
       </c>
       <c r="I52" s="3">
-        <v>114300</v>
+        <v>47400</v>
       </c>
       <c r="J52" s="3">
+        <v>112900</v>
+      </c>
+      <c r="K52" s="3">
         <v>73400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>51400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>41200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U52" s="3">
         <v>4300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2090200</v>
+        <v>2164700</v>
       </c>
       <c r="E54" s="3">
-        <v>2060400</v>
+        <v>2063000</v>
       </c>
       <c r="F54" s="3">
-        <v>2348900</v>
+        <v>2033600</v>
       </c>
       <c r="G54" s="3">
-        <v>2348900</v>
+        <v>2318300</v>
       </c>
       <c r="H54" s="3">
-        <v>2864600</v>
+        <v>2318300</v>
       </c>
       <c r="I54" s="3">
-        <v>2916600</v>
+        <v>2827300</v>
       </c>
       <c r="J54" s="3">
+        <v>2878700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2911700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2787800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2472500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2387100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2580600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2552900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2876200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2280500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1687700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U54" s="3">
         <v>1035100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,274 +3462,289 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>60000</v>
+        <v>59200</v>
       </c>
       <c r="H58" s="3">
-        <v>163700</v>
+        <v>59200</v>
       </c>
       <c r="I58" s="3">
-        <v>121300</v>
+        <v>161600</v>
       </c>
       <c r="J58" s="3">
+        <v>119800</v>
+      </c>
+      <c r="K58" s="3">
         <v>505700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>641900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>587300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>698700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>865400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>897200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1184200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1314200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>959700</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U58" s="3">
         <v>608400</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>73700</v>
+        <v>79200</v>
       </c>
       <c r="E59" s="3">
-        <v>153800</v>
+        <v>72800</v>
       </c>
       <c r="F59" s="3">
-        <v>423300</v>
+        <v>151800</v>
       </c>
       <c r="G59" s="3">
-        <v>423300</v>
+        <v>417800</v>
       </c>
       <c r="H59" s="3">
-        <v>444300</v>
+        <v>417800</v>
       </c>
       <c r="I59" s="3">
-        <v>464700</v>
+        <v>438500</v>
       </c>
       <c r="J59" s="3">
+        <v>458700</v>
+      </c>
+      <c r="K59" s="3">
         <v>339900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>236100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>176300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>121800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>260600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>206600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>307700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>203900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U59" s="3">
         <v>50100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73700</v>
+        <v>79200</v>
       </c>
       <c r="E60" s="3">
-        <v>153800</v>
+        <v>72800</v>
       </c>
       <c r="F60" s="3">
-        <v>483300</v>
+        <v>151800</v>
       </c>
       <c r="G60" s="3">
-        <v>483300</v>
+        <v>477000</v>
       </c>
       <c r="H60" s="3">
-        <v>608000</v>
+        <v>477000</v>
       </c>
       <c r="I60" s="3">
-        <v>586100</v>
+        <v>600100</v>
       </c>
       <c r="J60" s="3">
+        <v>578400</v>
+      </c>
+      <c r="K60" s="3">
         <v>845600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>878100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>763500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>820500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1126000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1103800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1384700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1621900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1163600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U60" s="3">
         <v>658500</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>144200</v>
+        <v>149800</v>
       </c>
       <c r="E61" s="3">
-        <v>150800</v>
+        <v>142300</v>
       </c>
       <c r="F61" s="3">
-        <v>228100</v>
+        <v>148800</v>
       </c>
       <c r="G61" s="3">
-        <v>228100</v>
+        <v>225200</v>
       </c>
       <c r="H61" s="3">
-        <v>365000</v>
+        <v>225200</v>
       </c>
       <c r="I61" s="3">
-        <v>416500</v>
+        <v>360200</v>
       </c>
       <c r="J61" s="3">
+        <v>411100</v>
+      </c>
+      <c r="K61" s="3">
         <v>93200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>91300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>62900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>36600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>75700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>11100</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14200</v>
+        <v>26300</v>
       </c>
       <c r="E62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4300</v>
       </c>
       <c r="G62" s="3">
         <v>4300</v>
       </c>
       <c r="H62" s="3">
-        <v>31300</v>
+        <v>4300</v>
       </c>
       <c r="I62" s="3">
-        <v>82600</v>
+        <v>30900</v>
       </c>
       <c r="J62" s="3">
+        <v>81500</v>
+      </c>
+      <c r="K62" s="3">
         <v>61700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>233700</v>
+        <v>256800</v>
       </c>
       <c r="E66" s="3">
-        <v>306900</v>
+        <v>230700</v>
       </c>
       <c r="F66" s="3">
-        <v>715700</v>
+        <v>302900</v>
       </c>
       <c r="G66" s="3">
-        <v>715700</v>
+        <v>706400</v>
       </c>
       <c r="H66" s="3">
-        <v>1004300</v>
+        <v>706400</v>
       </c>
       <c r="I66" s="3">
-        <v>1085200</v>
+        <v>991300</v>
       </c>
       <c r="J66" s="3">
+        <v>1071000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1000500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>988600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>826400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>849200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1126000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1140400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1460400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1659700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1165300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U66" s="3">
         <v>669600</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4048,22 +4216,25 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>882100</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>882100</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>882100</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>864400</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1297300</v>
+        <v>1354100</v>
       </c>
       <c r="E72" s="3">
-        <v>1192200</v>
+        <v>1280400</v>
       </c>
       <c r="F72" s="3">
-        <v>1071800</v>
+        <v>1176600</v>
       </c>
       <c r="G72" s="3">
-        <v>1071800</v>
+        <v>1057900</v>
       </c>
       <c r="H72" s="3">
-        <v>1299800</v>
+        <v>1057900</v>
       </c>
       <c r="I72" s="3">
-        <v>1279800</v>
+        <v>1282800</v>
       </c>
       <c r="J72" s="3">
+        <v>1263200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1117000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>919200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>770800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>624400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>518800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>414900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>366200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-280000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-376600</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U72" s="3">
         <v>-510600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1856500</v>
+        <v>1907900</v>
       </c>
       <c r="E76" s="3">
-        <v>1753500</v>
+        <v>1832300</v>
       </c>
       <c r="F76" s="3">
-        <v>1633100</v>
+        <v>1730700</v>
       </c>
       <c r="G76" s="3">
-        <v>1633100</v>
+        <v>1611900</v>
       </c>
       <c r="H76" s="3">
-        <v>1860300</v>
+        <v>1611900</v>
       </c>
       <c r="I76" s="3">
-        <v>1831400</v>
+        <v>1836100</v>
       </c>
       <c r="J76" s="3">
+        <v>1807600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1911300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1799100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1646000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1537800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1454600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1412500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1415900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-261400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-359800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U76" s="3">
         <v>-498900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105100</v>
+        <v>73700</v>
       </c>
       <c r="E81" s="3">
-        <v>92400</v>
+        <v>103800</v>
       </c>
       <c r="F81" s="3">
-        <v>28000</v>
+        <v>91200</v>
       </c>
       <c r="G81" s="3">
-        <v>-75900</v>
+        <v>27600</v>
       </c>
       <c r="H81" s="3">
-        <v>19900</v>
+        <v>-74900</v>
       </c>
       <c r="I81" s="3">
-        <v>162800</v>
+        <v>19700</v>
       </c>
       <c r="J81" s="3">
+        <v>160700</v>
+      </c>
+      <c r="K81" s="3">
         <v>178400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>145100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>116800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>99300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>103900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>80200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>96600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>144500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>67600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>42200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4662,26 +4861,29 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
+      <c r="T83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>68300</v>
+        <v>31200</v>
       </c>
       <c r="E89" s="3">
-        <v>186500</v>
+        <v>67400</v>
       </c>
       <c r="F89" s="3">
-        <v>49500</v>
+        <v>184100</v>
       </c>
       <c r="G89" s="3">
-        <v>81400</v>
+        <v>48900</v>
       </c>
       <c r="H89" s="3">
-        <v>190600</v>
+        <v>80300</v>
       </c>
       <c r="I89" s="3">
-        <v>260700</v>
+        <v>188100</v>
       </c>
       <c r="J89" s="3">
+        <v>257300</v>
+      </c>
+      <c r="K89" s="3">
         <v>198300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>204700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P89" s="3">
         <v>70000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>110100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>132000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>214400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>77300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>54200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5098,26 +5319,29 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U91" s="3">
         <v>100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-964900</v>
+        <v>76900</v>
       </c>
       <c r="E94" s="3">
-        <v>115800</v>
+        <v>-952300</v>
       </c>
       <c r="F94" s="3">
-        <v>113100</v>
+        <v>114300</v>
       </c>
       <c r="G94" s="3">
-        <v>225900</v>
+        <v>111600</v>
       </c>
       <c r="H94" s="3">
-        <v>-577800</v>
+        <v>222900</v>
       </c>
       <c r="I94" s="3">
-        <v>68400</v>
+        <v>-570300</v>
       </c>
       <c r="J94" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K94" s="3">
         <v>583900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-215000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94" s="3">
         <v>-182300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>82500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>154700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-341900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-228600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-488700</v>
+        <v>6600</v>
       </c>
       <c r="E100" s="3">
-        <v>51000</v>
+        <v>-482300</v>
       </c>
       <c r="F100" s="3">
-        <v>8400</v>
+        <v>50300</v>
       </c>
       <c r="G100" s="3">
-        <v>181100</v>
+        <v>8300</v>
       </c>
       <c r="H100" s="3">
-        <v>-602300</v>
+        <v>178700</v>
       </c>
       <c r="I100" s="3">
-        <v>299400</v>
+        <v>-594400</v>
       </c>
       <c r="J100" s="3">
+        <v>295500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-305300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>80300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100" s="3">
         <v>-270400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>612800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-162300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>106600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>36500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>254400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5646,32 +5895,35 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P101" s="3">
         <v>-20500</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5705,28 +5957,31 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P102" s="3">
         <v>-403200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>793900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>124400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-20900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>65100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>79900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>79400</v>
+        <v>64500</v>
       </c>
       <c r="E8" s="3">
-        <v>109900</v>
+        <v>80700</v>
       </c>
       <c r="F8" s="3">
-        <v>130800</v>
+        <v>111700</v>
       </c>
       <c r="G8" s="3">
-        <v>179700</v>
+        <v>133000</v>
       </c>
       <c r="H8" s="3">
-        <v>147500</v>
+        <v>182700</v>
       </c>
       <c r="I8" s="3">
-        <v>297400</v>
+        <v>150000</v>
       </c>
       <c r="J8" s="3">
+        <v>302400</v>
+      </c>
+      <c r="K8" s="3">
         <v>398900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>346500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>320400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>274300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>280100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>321900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>246300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>221300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>215300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>272100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>121400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>104100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14000</v>
+        <v>10200</v>
       </c>
       <c r="E9" s="3">
-        <v>31000</v>
+        <v>14200</v>
       </c>
       <c r="F9" s="3">
-        <v>30600</v>
+        <v>31600</v>
       </c>
       <c r="G9" s="3">
-        <v>56400</v>
+        <v>31100</v>
       </c>
       <c r="H9" s="3">
-        <v>14700</v>
+        <v>57400</v>
       </c>
       <c r="I9" s="3">
-        <v>22900</v>
+        <v>15000</v>
       </c>
       <c r="J9" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K9" s="3">
         <v>31800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>61300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>101400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>136000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>98500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>45300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>47000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>17800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>65400</v>
+        <v>54400</v>
       </c>
       <c r="E10" s="3">
-        <v>78800</v>
+        <v>66500</v>
       </c>
       <c r="F10" s="3">
-        <v>100200</v>
+        <v>80200</v>
       </c>
       <c r="G10" s="3">
-        <v>123300</v>
+        <v>101900</v>
       </c>
       <c r="H10" s="3">
-        <v>132800</v>
+        <v>125300</v>
       </c>
       <c r="I10" s="3">
-        <v>274500</v>
+        <v>135000</v>
       </c>
       <c r="J10" s="3">
+        <v>279100</v>
+      </c>
+      <c r="K10" s="3">
         <v>367200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>301800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>280600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>213000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>178700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>185900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>147800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>176000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>176900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>225100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>103600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>87800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="N12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="E12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="P12" s="3">
         <v>5300</v>
       </c>
-      <c r="J12" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>9700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>11900</v>
-      </c>
-      <c r="N12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>5300</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7800</v>
+        <v>13300</v>
       </c>
       <c r="E17" s="3">
-        <v>-5100</v>
+        <v>8000</v>
       </c>
       <c r="F17" s="3">
-        <v>12600</v>
+        <v>-5200</v>
       </c>
       <c r="G17" s="3">
-        <v>131600</v>
+        <v>12800</v>
       </c>
       <c r="H17" s="3">
-        <v>295500</v>
+        <v>133800</v>
       </c>
       <c r="I17" s="3">
-        <v>262500</v>
+        <v>300400</v>
       </c>
       <c r="J17" s="3">
+        <v>266900</v>
+      </c>
+      <c r="K17" s="3">
         <v>211200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>149200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>146500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>178100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>210900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>199500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>138300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>112100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>99000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>40200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>49800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>71600</v>
+        <v>51200</v>
       </c>
       <c r="E18" s="3">
-        <v>115000</v>
+        <v>72800</v>
       </c>
       <c r="F18" s="3">
-        <v>118200</v>
+        <v>116900</v>
       </c>
       <c r="G18" s="3">
-        <v>48100</v>
+        <v>120200</v>
       </c>
       <c r="H18" s="3">
-        <v>-148000</v>
+        <v>48900</v>
       </c>
       <c r="I18" s="3">
-        <v>34900</v>
+        <v>-150500</v>
       </c>
       <c r="J18" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K18" s="3">
         <v>187800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>197200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>173900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>134800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>102100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>111000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>46800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>83000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>103300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>173100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>81200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>54300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>14300</v>
+        <v>2700</v>
       </c>
       <c r="E20" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>-6800</v>
-      </c>
       <c r="G20" s="3">
-        <v>-7800</v>
+        <v>-6900</v>
       </c>
       <c r="H20" s="3">
-        <v>68800</v>
+        <v>-8000</v>
       </c>
       <c r="I20" s="3">
+        <v>69900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1492,20 +1529,23 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>173300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>51100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>85800</v>
+        <v>54000</v>
       </c>
       <c r="E23" s="3">
-        <v>115500</v>
+        <v>87300</v>
       </c>
       <c r="F23" s="3">
-        <v>111400</v>
+        <v>117500</v>
       </c>
       <c r="G23" s="3">
-        <v>40300</v>
+        <v>113300</v>
       </c>
       <c r="H23" s="3">
-        <v>-79200</v>
+        <v>40900</v>
       </c>
       <c r="I23" s="3">
-        <v>33700</v>
+        <v>-80600</v>
       </c>
       <c r="J23" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K23" s="3">
         <v>189100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>202200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>175400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>128400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>115400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>46600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>82900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>103400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>172800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>81000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>51000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="E24" s="3">
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="F24" s="3">
-        <v>20200</v>
+        <v>12000</v>
       </c>
       <c r="G24" s="3">
-        <v>12700</v>
+        <v>20600</v>
       </c>
       <c r="H24" s="3">
-        <v>-4300</v>
+        <v>12900</v>
       </c>
       <c r="I24" s="3">
-        <v>14000</v>
+        <v>-4400</v>
       </c>
       <c r="J24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K24" s="3">
         <v>28400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>73600</v>
+        <v>42100</v>
       </c>
       <c r="E26" s="3">
-        <v>103800</v>
+        <v>74900</v>
       </c>
       <c r="F26" s="3">
-        <v>91200</v>
+        <v>105500</v>
       </c>
       <c r="G26" s="3">
-        <v>27600</v>
+        <v>92700</v>
       </c>
       <c r="H26" s="3">
-        <v>-74900</v>
+        <v>28000</v>
       </c>
       <c r="I26" s="3">
-        <v>19700</v>
+        <v>-76200</v>
       </c>
       <c r="J26" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K26" s="3">
         <v>160700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>178400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>145100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>116800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>99300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>103900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>45300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>80200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>96600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>144500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>67600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>42200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>73700</v>
+        <v>42300</v>
       </c>
       <c r="E27" s="3">
-        <v>103800</v>
+        <v>74900</v>
       </c>
       <c r="F27" s="3">
-        <v>91200</v>
+        <v>105500</v>
       </c>
       <c r="G27" s="3">
-        <v>27600</v>
+        <v>92700</v>
       </c>
       <c r="H27" s="3">
-        <v>-74900</v>
+        <v>28000</v>
       </c>
       <c r="I27" s="3">
-        <v>19700</v>
+        <v>-76200</v>
       </c>
       <c r="J27" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K27" s="3">
         <v>160700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>178400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>145100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>116800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>99300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>103900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>80200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>96600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>144500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>67600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>42200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14300</v>
+        <v>-2700</v>
       </c>
       <c r="E32" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>6800</v>
-      </c>
       <c r="G32" s="3">
-        <v>7800</v>
+        <v>6900</v>
       </c>
       <c r="H32" s="3">
-        <v>-68800</v>
+        <v>8000</v>
       </c>
       <c r="I32" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>73700</v>
+        <v>42300</v>
       </c>
       <c r="E33" s="3">
-        <v>103800</v>
+        <v>74900</v>
       </c>
       <c r="F33" s="3">
-        <v>91200</v>
+        <v>105500</v>
       </c>
       <c r="G33" s="3">
-        <v>27600</v>
+        <v>92700</v>
       </c>
       <c r="H33" s="3">
-        <v>-74900</v>
+        <v>28000</v>
       </c>
       <c r="I33" s="3">
-        <v>19700</v>
+        <v>-76200</v>
       </c>
       <c r="J33" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K33" s="3">
         <v>160700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>178400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>145100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>116800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>99300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>103900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>80200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>96600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>144500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>67600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>42200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>73700</v>
+        <v>42300</v>
       </c>
       <c r="E35" s="3">
-        <v>103800</v>
+        <v>74900</v>
       </c>
       <c r="F35" s="3">
-        <v>91200</v>
+        <v>105500</v>
       </c>
       <c r="G35" s="3">
-        <v>27600</v>
+        <v>92700</v>
       </c>
       <c r="H35" s="3">
-        <v>-74900</v>
+        <v>28000</v>
       </c>
       <c r="I35" s="3">
-        <v>19700</v>
+        <v>-76200</v>
       </c>
       <c r="J35" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K35" s="3">
         <v>160700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>178400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>145100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>116800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>99300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>103900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>80200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>96600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>144500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>67600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>42200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,194 +2573,204 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>336800</v>
+        <v>490600</v>
       </c>
       <c r="E41" s="3">
-        <v>236800</v>
+        <v>342500</v>
       </c>
       <c r="F41" s="3">
-        <v>229300</v>
+        <v>240700</v>
       </c>
       <c r="G41" s="3">
-        <v>269700</v>
+        <v>233100</v>
       </c>
       <c r="H41" s="3">
-        <v>269700</v>
+        <v>274200</v>
       </c>
       <c r="I41" s="3">
-        <v>440500</v>
+        <v>274200</v>
       </c>
       <c r="J41" s="3">
+        <v>447900</v>
+      </c>
+      <c r="K41" s="3">
         <v>409000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>403600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>295100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>380500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>416800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>823100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1014000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>220100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>95700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V41" s="3">
         <v>114300</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>782100</v>
+        <v>786700</v>
       </c>
       <c r="E42" s="3">
-        <v>776400</v>
+        <v>795200</v>
       </c>
       <c r="F42" s="3">
-        <v>572200</v>
+        <v>789400</v>
       </c>
       <c r="G42" s="3">
-        <v>189800</v>
+        <v>581800</v>
       </c>
       <c r="H42" s="3">
-        <v>189800</v>
+        <v>193000</v>
       </c>
       <c r="I42" s="3">
-        <v>35600</v>
+        <v>193000</v>
       </c>
       <c r="J42" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K42" s="3">
         <v>4600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4600</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>4200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9700</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>44500</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V42" s="3">
         <v>62600</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>568800</v>
+        <v>511300</v>
       </c>
       <c r="E43" s="3">
-        <v>648700</v>
+        <v>578400</v>
       </c>
       <c r="F43" s="3">
-        <v>799200</v>
+        <v>659600</v>
       </c>
       <c r="G43" s="3">
-        <v>1414100</v>
+        <v>812600</v>
       </c>
       <c r="H43" s="3">
-        <v>1414100</v>
+        <v>1437800</v>
       </c>
       <c r="I43" s="3">
-        <v>1699100</v>
+        <v>1437800</v>
       </c>
       <c r="J43" s="3">
+        <v>1727600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1748900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1716300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1809200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1495300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1468600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1567100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1362300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1301100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1580900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1456100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V43" s="3">
         <v>745600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,256 +2831,271 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>191100</v>
+        <v>152900</v>
       </c>
       <c r="E45" s="3">
-        <v>138200</v>
+        <v>194300</v>
       </c>
       <c r="F45" s="3">
-        <v>215300</v>
+        <v>140500</v>
       </c>
       <c r="G45" s="3">
-        <v>254600</v>
+        <v>218900</v>
       </c>
       <c r="H45" s="3">
-        <v>254600</v>
+        <v>258900</v>
       </c>
       <c r="I45" s="3">
-        <v>446000</v>
+        <v>258900</v>
       </c>
       <c r="J45" s="3">
+        <v>453500</v>
+      </c>
+      <c r="K45" s="3">
         <v>427000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>440900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>442900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>328300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>363000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>435700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>265200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>487700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>459300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>117600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V45" s="3">
         <v>85200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1878800</v>
+        <v>1941400</v>
       </c>
       <c r="E46" s="3">
-        <v>1800100</v>
+        <v>1910300</v>
       </c>
       <c r="F46" s="3">
-        <v>1816000</v>
+        <v>1830300</v>
       </c>
       <c r="G46" s="3">
-        <v>2128200</v>
+        <v>1846400</v>
       </c>
       <c r="H46" s="3">
-        <v>2128200</v>
+        <v>2163900</v>
       </c>
       <c r="I46" s="3">
-        <v>2621300</v>
+        <v>2163900</v>
       </c>
       <c r="J46" s="3">
+        <v>2665200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2589600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2565400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2551700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2204100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2235800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2429200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2450700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2847300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2260300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1669400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V46" s="3">
         <v>1007700</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>99600</v>
+        <v>97200</v>
       </c>
       <c r="E47" s="3">
-        <v>94100</v>
+        <v>101300</v>
       </c>
       <c r="F47" s="3">
-        <v>100400</v>
+        <v>95700</v>
       </c>
       <c r="G47" s="3">
-        <v>75300</v>
+        <v>102100</v>
       </c>
       <c r="H47" s="3">
-        <v>75300</v>
+        <v>76600</v>
       </c>
       <c r="I47" s="3">
-        <v>120400</v>
+        <v>76600</v>
       </c>
       <c r="J47" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K47" s="3">
         <v>140700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>240500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>154500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>207400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>104500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>106500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>59100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V47" s="3">
         <v>22400</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>101000</v>
+        <v>150700</v>
       </c>
       <c r="E48" s="3">
-        <v>79100</v>
+        <v>102700</v>
       </c>
       <c r="F48" s="3">
-        <v>55100</v>
+        <v>80500</v>
       </c>
       <c r="G48" s="3">
-        <v>39500</v>
+        <v>56000</v>
       </c>
       <c r="H48" s="3">
-        <v>39500</v>
+        <v>40200</v>
       </c>
       <c r="I48" s="3">
-        <v>37200</v>
+        <v>40200</v>
       </c>
       <c r="J48" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K48" s="3">
         <v>34700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>600</v>
       </c>
       <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="T48" s="3">
+        <v>600</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V48" s="3">
         <v>700</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2992,13 +3103,13 @@
         <v>1400</v>
       </c>
       <c r="E49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F49" s="3">
         <v>1300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1000</v>
       </c>
       <c r="H49" s="3">
         <v>1000</v>
@@ -3007,46 +3118,49 @@
         <v>1000</v>
       </c>
       <c r="J49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>700</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83900</v>
+        <v>83200</v>
       </c>
       <c r="E52" s="3">
-        <v>88400</v>
+        <v>85300</v>
       </c>
       <c r="F52" s="3">
-        <v>60900</v>
+        <v>89900</v>
       </c>
       <c r="G52" s="3">
-        <v>74300</v>
+        <v>61900</v>
       </c>
       <c r="H52" s="3">
-        <v>74300</v>
+        <v>75500</v>
       </c>
       <c r="I52" s="3">
-        <v>47400</v>
+        <v>75500</v>
       </c>
       <c r="J52" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K52" s="3">
         <v>112900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>51400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>41200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V52" s="3">
         <v>4300</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2164700</v>
+        <v>2273800</v>
       </c>
       <c r="E54" s="3">
-        <v>2063000</v>
+        <v>2201000</v>
       </c>
       <c r="F54" s="3">
-        <v>2033600</v>
+        <v>2097600</v>
       </c>
       <c r="G54" s="3">
-        <v>2318300</v>
+        <v>2067700</v>
       </c>
       <c r="H54" s="3">
-        <v>2318300</v>
+        <v>2357100</v>
       </c>
       <c r="I54" s="3">
-        <v>2827300</v>
+        <v>2357100</v>
       </c>
       <c r="J54" s="3">
+        <v>2874700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2878700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2911700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2787800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2472500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2387100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2580600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2552900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2876200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2280500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1687700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V54" s="3">
         <v>1035100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,289 +3596,304 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>59200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>59200</v>
+        <v>60200</v>
       </c>
       <c r="I58" s="3">
-        <v>161600</v>
+        <v>60200</v>
       </c>
       <c r="J58" s="3">
+        <v>164300</v>
+      </c>
+      <c r="K58" s="3">
         <v>119800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>505700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>641900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>587300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>698700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>865400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>897200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1184200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1314200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>959700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V58" s="3">
         <v>608400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79200</v>
+        <v>78900</v>
       </c>
       <c r="E59" s="3">
-        <v>72800</v>
+        <v>80600</v>
       </c>
       <c r="F59" s="3">
-        <v>151800</v>
+        <v>74000</v>
       </c>
       <c r="G59" s="3">
-        <v>417800</v>
+        <v>154300</v>
       </c>
       <c r="H59" s="3">
-        <v>417800</v>
+        <v>424800</v>
       </c>
       <c r="I59" s="3">
-        <v>438500</v>
+        <v>424800</v>
       </c>
       <c r="J59" s="3">
+        <v>445800</v>
+      </c>
+      <c r="K59" s="3">
         <v>458700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>339900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>236100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>176300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>121800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>260600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>206600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>307700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>203900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V59" s="3">
         <v>50100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>79200</v>
+        <v>78900</v>
       </c>
       <c r="E60" s="3">
-        <v>72800</v>
+        <v>80600</v>
       </c>
       <c r="F60" s="3">
-        <v>151800</v>
+        <v>74000</v>
       </c>
       <c r="G60" s="3">
-        <v>477000</v>
+        <v>154300</v>
       </c>
       <c r="H60" s="3">
-        <v>477000</v>
+        <v>485000</v>
       </c>
       <c r="I60" s="3">
-        <v>600100</v>
+        <v>485000</v>
       </c>
       <c r="J60" s="3">
+        <v>610200</v>
+      </c>
+      <c r="K60" s="3">
         <v>578400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>845600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>878100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>763500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>820500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1126000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1103800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1384700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1621900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1163600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V60" s="3">
         <v>658500</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>149800</v>
+        <v>150800</v>
       </c>
       <c r="E61" s="3">
-        <v>142300</v>
+        <v>152300</v>
       </c>
       <c r="F61" s="3">
-        <v>148800</v>
+        <v>144700</v>
       </c>
       <c r="G61" s="3">
-        <v>225200</v>
+        <v>151300</v>
       </c>
       <c r="H61" s="3">
-        <v>225200</v>
+        <v>228900</v>
       </c>
       <c r="I61" s="3">
-        <v>360200</v>
+        <v>228900</v>
       </c>
       <c r="J61" s="3">
+        <v>366300</v>
+      </c>
+      <c r="K61" s="3">
         <v>411100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>93200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>91300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>62900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>36600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>75700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>37800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>11100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26300</v>
+        <v>59800</v>
       </c>
       <c r="E62" s="3">
-        <v>14000</v>
+        <v>26700</v>
       </c>
       <c r="F62" s="3">
+        <v>14300</v>
+      </c>
+      <c r="G62" s="3">
         <v>2400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>4300</v>
       </c>
       <c r="H62" s="3">
         <v>4300</v>
       </c>
       <c r="I62" s="3">
-        <v>30900</v>
+        <v>4300</v>
       </c>
       <c r="J62" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K62" s="3">
         <v>81500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>61700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>256800</v>
+        <v>290900</v>
       </c>
       <c r="E66" s="3">
-        <v>230700</v>
+        <v>261100</v>
       </c>
       <c r="F66" s="3">
-        <v>302900</v>
+        <v>234600</v>
       </c>
       <c r="G66" s="3">
-        <v>706400</v>
+        <v>308000</v>
       </c>
       <c r="H66" s="3">
-        <v>706400</v>
+        <v>718300</v>
       </c>
       <c r="I66" s="3">
-        <v>991300</v>
+        <v>718300</v>
       </c>
       <c r="J66" s="3">
+        <v>1007900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1071000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1000500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>988600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>826400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>849200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1126000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1140400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1460400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1659700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1165300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V66" s="3">
         <v>669600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4219,22 +4387,25 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>882100</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>882100</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>882100</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>864400</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1354100</v>
+        <v>1419000</v>
       </c>
       <c r="E72" s="3">
-        <v>1280400</v>
+        <v>1376700</v>
       </c>
       <c r="F72" s="3">
-        <v>1176600</v>
+        <v>1301900</v>
       </c>
       <c r="G72" s="3">
-        <v>1057900</v>
+        <v>1196400</v>
       </c>
       <c r="H72" s="3">
-        <v>1057900</v>
+        <v>1075600</v>
       </c>
       <c r="I72" s="3">
-        <v>1282800</v>
+        <v>1075600</v>
       </c>
       <c r="J72" s="3">
+        <v>1304300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1263200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1117000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>919200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>770800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>624400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>518800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>414900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>366200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-280000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-376600</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V72" s="3">
         <v>-510600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1907900</v>
+        <v>1983000</v>
       </c>
       <c r="E76" s="3">
-        <v>1832300</v>
+        <v>1939800</v>
       </c>
       <c r="F76" s="3">
-        <v>1730700</v>
+        <v>1863000</v>
       </c>
       <c r="G76" s="3">
-        <v>1611900</v>
+        <v>1759700</v>
       </c>
       <c r="H76" s="3">
-        <v>1611900</v>
+        <v>1638900</v>
       </c>
       <c r="I76" s="3">
-        <v>1836100</v>
+        <v>1638900</v>
       </c>
       <c r="J76" s="3">
+        <v>1866800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1807600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1911300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1799100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1646000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1537800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1454600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1412500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1415900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-261400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-359800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V76" s="3">
         <v>-498900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>73700</v>
+        <v>42300</v>
       </c>
       <c r="E81" s="3">
-        <v>103800</v>
+        <v>74900</v>
       </c>
       <c r="F81" s="3">
-        <v>91200</v>
+        <v>105500</v>
       </c>
       <c r="G81" s="3">
-        <v>27600</v>
+        <v>92700</v>
       </c>
       <c r="H81" s="3">
-        <v>-74900</v>
+        <v>28000</v>
       </c>
       <c r="I81" s="3">
-        <v>19700</v>
+        <v>-76200</v>
       </c>
       <c r="J81" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K81" s="3">
         <v>160700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>178400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>145100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>116800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>99300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>103900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>80200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>96600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>144500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>67600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>42200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4864,26 +5063,29 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T83" s="3">
         <v>400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U83" s="3">
-        <v>100</v>
+      <c r="U83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31200</v>
+        <v>89300</v>
       </c>
       <c r="E89" s="3">
-        <v>67400</v>
+        <v>31700</v>
       </c>
       <c r="F89" s="3">
-        <v>184100</v>
+        <v>68500</v>
       </c>
       <c r="G89" s="3">
-        <v>48900</v>
+        <v>187100</v>
       </c>
       <c r="H89" s="3">
-        <v>80300</v>
+        <v>49700</v>
       </c>
       <c r="I89" s="3">
-        <v>188100</v>
+        <v>81700</v>
       </c>
       <c r="J89" s="3">
+        <v>191200</v>
+      </c>
+      <c r="K89" s="3">
         <v>257300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>198300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>204700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q89" s="3">
         <v>70000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>110100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>132000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>214400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>77300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>54200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5322,26 +5543,29 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V91" s="3">
         <v>100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>76900</v>
+        <v>71500</v>
       </c>
       <c r="E94" s="3">
-        <v>-952300</v>
+        <v>78200</v>
       </c>
       <c r="F94" s="3">
-        <v>114300</v>
+        <v>-968300</v>
       </c>
       <c r="G94" s="3">
-        <v>111600</v>
+        <v>116200</v>
       </c>
       <c r="H94" s="3">
-        <v>222900</v>
+        <v>113500</v>
       </c>
       <c r="I94" s="3">
-        <v>-570300</v>
+        <v>226700</v>
       </c>
       <c r="J94" s="3">
+        <v>-579900</v>
+      </c>
+      <c r="K94" s="3">
         <v>67500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>583900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-215000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-182300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>82500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>154700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-341900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-228600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>6600</v>
+      <c r="D100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E100" s="3">
-        <v>-482300</v>
+        <v>6700</v>
       </c>
       <c r="F100" s="3">
-        <v>50300</v>
+        <v>-490400</v>
       </c>
       <c r="G100" s="3">
-        <v>8300</v>
+        <v>51100</v>
       </c>
       <c r="H100" s="3">
-        <v>178700</v>
+        <v>8400</v>
       </c>
       <c r="I100" s="3">
-        <v>-594400</v>
+        <v>181700</v>
       </c>
       <c r="J100" s="3">
+        <v>-604400</v>
+      </c>
+      <c r="K100" s="3">
         <v>295500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-305300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>80300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-270400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>612800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-162300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>106600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>36500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>254400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5898,32 +6147,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5960,28 +6212,31 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-403200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>793900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>124400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-20900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>65100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>79900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>64500</v>
+        <v>54800</v>
       </c>
       <c r="E8" s="3">
-        <v>80700</v>
+        <v>65000</v>
       </c>
       <c r="F8" s="3">
-        <v>111700</v>
+        <v>81400</v>
       </c>
       <c r="G8" s="3">
-        <v>133000</v>
+        <v>112600</v>
       </c>
       <c r="H8" s="3">
-        <v>182700</v>
+        <v>134000</v>
       </c>
       <c r="I8" s="3">
-        <v>150000</v>
+        <v>184100</v>
       </c>
       <c r="J8" s="3">
+        <v>151100</v>
+      </c>
+      <c r="K8" s="3">
         <v>302400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>398900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>346500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>320400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>274300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>280100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>321900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>246300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>221300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>215300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>272100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>121400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>104100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E9" s="3">
         <v>10200</v>
       </c>
-      <c r="E9" s="3">
-        <v>14200</v>
-      </c>
       <c r="F9" s="3">
-        <v>31600</v>
+        <v>14400</v>
       </c>
       <c r="G9" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="H9" s="3">
-        <v>57400</v>
+        <v>31400</v>
       </c>
       <c r="I9" s="3">
-        <v>15000</v>
+        <v>57800</v>
       </c>
       <c r="J9" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K9" s="3">
         <v>23300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>31800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>101400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>136000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>98500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>45300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>47000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>17800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>16200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>54400</v>
+        <v>38300</v>
       </c>
       <c r="E10" s="3">
-        <v>66500</v>
+        <v>54800</v>
       </c>
       <c r="F10" s="3">
-        <v>80200</v>
+        <v>67000</v>
       </c>
       <c r="G10" s="3">
-        <v>101900</v>
+        <v>80800</v>
       </c>
       <c r="H10" s="3">
-        <v>125300</v>
+        <v>102600</v>
       </c>
       <c r="I10" s="3">
-        <v>135000</v>
+        <v>126300</v>
       </c>
       <c r="J10" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K10" s="3">
         <v>279100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>367200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>301800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>280600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>213000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>178700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>185900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>147800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>176000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>176900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>225100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>103600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>87800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E12" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F12" s="3">
-        <v>1300</v>
+        <v>6200</v>
       </c>
       <c r="G12" s="3">
-        <v>8000</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="3">
-        <v>8800</v>
+        <v>8100</v>
       </c>
       <c r="I12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J12" s="3">
         <v>8600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13300</v>
+        <v>41700</v>
       </c>
       <c r="E17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-5200</v>
       </c>
-      <c r="G17" s="3">
-        <v>12800</v>
-      </c>
       <c r="H17" s="3">
-        <v>133800</v>
+        <v>12900</v>
       </c>
       <c r="I17" s="3">
-        <v>300400</v>
+        <v>134800</v>
       </c>
       <c r="J17" s="3">
+        <v>302700</v>
+      </c>
+      <c r="K17" s="3">
         <v>266900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>211200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>149200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>146500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>139500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>178100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>210900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>199500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>138300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>112100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>99000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>40200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>49800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>51200</v>
+        <v>13100</v>
       </c>
       <c r="E18" s="3">
-        <v>72800</v>
+        <v>51600</v>
       </c>
       <c r="F18" s="3">
-        <v>116900</v>
+        <v>73300</v>
       </c>
       <c r="G18" s="3">
-        <v>120200</v>
+        <v>117800</v>
       </c>
       <c r="H18" s="3">
-        <v>48900</v>
+        <v>121100</v>
       </c>
       <c r="I18" s="3">
-        <v>-150500</v>
+        <v>49300</v>
       </c>
       <c r="J18" s="3">
+        <v>-151600</v>
+      </c>
+      <c r="K18" s="3">
         <v>35500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>187800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>197200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>173900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>134800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>102100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>111000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>46800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>83000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>103300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>173100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>81200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>54300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
-        <v>14500</v>
-      </c>
       <c r="F20" s="3">
+        <v>14600</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>-6900</v>
-      </c>
       <c r="H20" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-8000</v>
       </c>
-      <c r="I20" s="3">
-        <v>69900</v>
-      </c>
       <c r="J20" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1532,20 +1569,23 @@
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>173300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>51100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>54000</v>
+        <v>-7100</v>
       </c>
       <c r="E23" s="3">
-        <v>87300</v>
+        <v>54400</v>
       </c>
       <c r="F23" s="3">
-        <v>117500</v>
+        <v>87900</v>
       </c>
       <c r="G23" s="3">
-        <v>113300</v>
+        <v>118400</v>
       </c>
       <c r="H23" s="3">
-        <v>40900</v>
+        <v>114100</v>
       </c>
       <c r="I23" s="3">
-        <v>-80600</v>
+        <v>41300</v>
       </c>
       <c r="J23" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="K23" s="3">
         <v>34200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>189100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>202200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>175400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>128400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>115400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>46600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>82900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>103400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>172800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>81000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>51000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11800</v>
+        <v>7900</v>
       </c>
       <c r="E24" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="F24" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="G24" s="3">
-        <v>20600</v>
+        <v>12100</v>
       </c>
       <c r="H24" s="3">
-        <v>12900</v>
+        <v>20700</v>
       </c>
       <c r="I24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>8800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42100</v>
+        <v>-15100</v>
       </c>
       <c r="E26" s="3">
-        <v>74900</v>
+        <v>42500</v>
       </c>
       <c r="F26" s="3">
-        <v>105500</v>
+        <v>75400</v>
       </c>
       <c r="G26" s="3">
-        <v>92700</v>
+        <v>106300</v>
       </c>
       <c r="H26" s="3">
-        <v>28000</v>
+        <v>93400</v>
       </c>
       <c r="I26" s="3">
-        <v>-76200</v>
+        <v>28300</v>
       </c>
       <c r="J26" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="K26" s="3">
         <v>20000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>160700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>178400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>145100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>116800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>99300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>103900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>45300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>80200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>96600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>144500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>67600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>42200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>42300</v>
+        <v>-14900</v>
       </c>
       <c r="E27" s="3">
-        <v>74900</v>
+        <v>42600</v>
       </c>
       <c r="F27" s="3">
-        <v>105500</v>
+        <v>75500</v>
       </c>
       <c r="G27" s="3">
-        <v>92700</v>
+        <v>106300</v>
       </c>
       <c r="H27" s="3">
-        <v>28000</v>
+        <v>93400</v>
       </c>
       <c r="I27" s="3">
-        <v>-76200</v>
+        <v>28300</v>
       </c>
       <c r="J27" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="K27" s="3">
         <v>20000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>160700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>178400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>145100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>116800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>99300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>103900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>80200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>96600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>144500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>67600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>42200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
-        <v>-14500</v>
-      </c>
       <c r="F32" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
-        <v>6900</v>
-      </c>
       <c r="H32" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I32" s="3">
         <v>8000</v>
       </c>
-      <c r="I32" s="3">
-        <v>-69900</v>
-      </c>
       <c r="J32" s="3">
+        <v>-70400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>42300</v>
+        <v>-14900</v>
       </c>
       <c r="E33" s="3">
-        <v>74900</v>
+        <v>42600</v>
       </c>
       <c r="F33" s="3">
-        <v>105500</v>
+        <v>75500</v>
       </c>
       <c r="G33" s="3">
-        <v>92700</v>
+        <v>106300</v>
       </c>
       <c r="H33" s="3">
-        <v>28000</v>
+        <v>93400</v>
       </c>
       <c r="I33" s="3">
-        <v>-76200</v>
+        <v>28300</v>
       </c>
       <c r="J33" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="K33" s="3">
         <v>20000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>160700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>178400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>145100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>116800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>99300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>103900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>80200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>96600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>144500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>67600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>42200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>42300</v>
+        <v>-14900</v>
       </c>
       <c r="E35" s="3">
-        <v>74900</v>
+        <v>42600</v>
       </c>
       <c r="F35" s="3">
-        <v>105500</v>
+        <v>75500</v>
       </c>
       <c r="G35" s="3">
-        <v>92700</v>
+        <v>106300</v>
       </c>
       <c r="H35" s="3">
-        <v>28000</v>
+        <v>93400</v>
       </c>
       <c r="I35" s="3">
-        <v>-76200</v>
+        <v>28300</v>
       </c>
       <c r="J35" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="K35" s="3">
         <v>20000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>160700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>178400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>145100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>116800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>99300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>103900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>80200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>96600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>144500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>67600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>42200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,203 +2660,213 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>490600</v>
+        <v>267100</v>
       </c>
       <c r="E41" s="3">
-        <v>342500</v>
+        <v>494400</v>
       </c>
       <c r="F41" s="3">
-        <v>240700</v>
+        <v>345100</v>
       </c>
       <c r="G41" s="3">
-        <v>233100</v>
+        <v>242600</v>
       </c>
       <c r="H41" s="3">
-        <v>274200</v>
+        <v>234900</v>
       </c>
       <c r="I41" s="3">
-        <v>274200</v>
+        <v>276300</v>
       </c>
       <c r="J41" s="3">
+        <v>276300</v>
+      </c>
+      <c r="K41" s="3">
         <v>447900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>409000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>403600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>295100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>380500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>416800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>823100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1014000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>220100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>95700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W41" s="3">
         <v>114300</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>786700</v>
+        <v>960800</v>
       </c>
       <c r="E42" s="3">
-        <v>795200</v>
+        <v>792700</v>
       </c>
       <c r="F42" s="3">
-        <v>789400</v>
+        <v>801300</v>
       </c>
       <c r="G42" s="3">
-        <v>581800</v>
+        <v>795500</v>
       </c>
       <c r="H42" s="3">
-        <v>193000</v>
+        <v>586200</v>
       </c>
       <c r="I42" s="3">
-        <v>193000</v>
+        <v>194500</v>
       </c>
       <c r="J42" s="3">
+        <v>194500</v>
+      </c>
+      <c r="K42" s="3">
         <v>36200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4600</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>4200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9700</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>44500</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W42" s="3">
         <v>62600</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>511300</v>
+        <v>444400</v>
       </c>
       <c r="E43" s="3">
-        <v>578400</v>
+        <v>515200</v>
       </c>
       <c r="F43" s="3">
-        <v>659600</v>
+        <v>582800</v>
       </c>
       <c r="G43" s="3">
-        <v>812600</v>
+        <v>664600</v>
       </c>
       <c r="H43" s="3">
-        <v>1437800</v>
+        <v>818800</v>
       </c>
       <c r="I43" s="3">
-        <v>1437800</v>
+        <v>1448800</v>
       </c>
       <c r="J43" s="3">
+        <v>1448800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1727600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1748900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1716300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1809200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1495300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1468600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1567100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1362300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1301100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1580900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1456100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W43" s="3">
         <v>745600</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,333 +2930,351 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>152900</v>
+        <v>238200</v>
       </c>
       <c r="E45" s="3">
-        <v>194300</v>
+        <v>154100</v>
       </c>
       <c r="F45" s="3">
-        <v>140500</v>
+        <v>195700</v>
       </c>
       <c r="G45" s="3">
-        <v>218900</v>
+        <v>141600</v>
       </c>
       <c r="H45" s="3">
-        <v>258900</v>
+        <v>220600</v>
       </c>
       <c r="I45" s="3">
-        <v>258900</v>
+        <v>260900</v>
       </c>
       <c r="J45" s="3">
+        <v>260900</v>
+      </c>
+      <c r="K45" s="3">
         <v>453500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>427000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>440900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>442900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>328300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>363000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>435700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>265200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>487700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>459300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>117600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" s="3">
         <v>85200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1941400</v>
+        <v>1910500</v>
       </c>
       <c r="E46" s="3">
-        <v>1910300</v>
+        <v>1956300</v>
       </c>
       <c r="F46" s="3">
-        <v>1830300</v>
+        <v>1924900</v>
       </c>
       <c r="G46" s="3">
-        <v>1846400</v>
+        <v>1844300</v>
       </c>
       <c r="H46" s="3">
-        <v>2163900</v>
+        <v>1860600</v>
       </c>
       <c r="I46" s="3">
-        <v>2163900</v>
+        <v>2180500</v>
       </c>
       <c r="J46" s="3">
+        <v>2180500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2665200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2589600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2565400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2551700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2204100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2235800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2429200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2450700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2847300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2260300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1669400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W46" s="3">
         <v>1007700</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>97200</v>
+        <v>75400</v>
       </c>
       <c r="E47" s="3">
-        <v>101300</v>
+        <v>97900</v>
       </c>
       <c r="F47" s="3">
-        <v>95700</v>
+        <v>102100</v>
       </c>
       <c r="G47" s="3">
-        <v>102100</v>
+        <v>96400</v>
       </c>
       <c r="H47" s="3">
-        <v>76600</v>
+        <v>102900</v>
       </c>
       <c r="I47" s="3">
-        <v>76600</v>
+        <v>77200</v>
       </c>
       <c r="J47" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K47" s="3">
         <v>122400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>140700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>240500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>154500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>207400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>104500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>106500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>59100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W47" s="3">
         <v>22400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>150700</v>
+        <v>191000</v>
       </c>
       <c r="E48" s="3">
-        <v>102700</v>
+        <v>151800</v>
       </c>
       <c r="F48" s="3">
-        <v>80500</v>
+        <v>103500</v>
       </c>
       <c r="G48" s="3">
-        <v>56000</v>
+        <v>81100</v>
       </c>
       <c r="H48" s="3">
-        <v>40200</v>
+        <v>56400</v>
       </c>
       <c r="I48" s="3">
-        <v>40200</v>
+        <v>40500</v>
       </c>
       <c r="J48" s="3">
+        <v>40500</v>
+      </c>
+      <c r="K48" s="3">
         <v>37800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>31400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>600</v>
       </c>
       <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="U48" s="3">
+        <v>600</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W48" s="3">
         <v>700</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E49" s="3">
         <v>1400</v>
       </c>
       <c r="F49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1000</v>
       </c>
       <c r="I49" s="3">
         <v>1000</v>
       </c>
       <c r="J49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>700</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83200</v>
+        <v>98500</v>
       </c>
       <c r="E52" s="3">
-        <v>85300</v>
+        <v>83800</v>
       </c>
       <c r="F52" s="3">
-        <v>89900</v>
+        <v>85900</v>
       </c>
       <c r="G52" s="3">
-        <v>61900</v>
+        <v>90600</v>
       </c>
       <c r="H52" s="3">
-        <v>75500</v>
+        <v>62400</v>
       </c>
       <c r="I52" s="3">
-        <v>75500</v>
+        <v>76100</v>
       </c>
       <c r="J52" s="3">
+        <v>76100</v>
+      </c>
+      <c r="K52" s="3">
         <v>48200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>112900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>51400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>41200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W52" s="3">
         <v>4300</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2273800</v>
+        <v>2276800</v>
       </c>
       <c r="E54" s="3">
-        <v>2201000</v>
+        <v>2291300</v>
       </c>
       <c r="F54" s="3">
-        <v>2097600</v>
+        <v>2217900</v>
       </c>
       <c r="G54" s="3">
-        <v>2067700</v>
+        <v>2113700</v>
       </c>
       <c r="H54" s="3">
-        <v>2357100</v>
+        <v>2083500</v>
       </c>
       <c r="I54" s="3">
-        <v>2357100</v>
+        <v>2375200</v>
       </c>
       <c r="J54" s="3">
+        <v>2375200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2874700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2878700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2911700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2787800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2472500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2387100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2580600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2552900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2876200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2280500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1687700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W54" s="3">
         <v>1035100</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3610,293 +3744,305 @@
       <c r="E58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>60200</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>60200</v>
+        <v>60700</v>
       </c>
       <c r="J58" s="3">
+        <v>60700</v>
+      </c>
+      <c r="K58" s="3">
         <v>164300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>119800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>505700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>641900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>587300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>698700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>865400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>897200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1184200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1314200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>959700</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W58" s="3">
         <v>608400</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78900</v>
+        <v>78000</v>
       </c>
       <c r="E59" s="3">
-        <v>80600</v>
+        <v>79500</v>
       </c>
       <c r="F59" s="3">
-        <v>74000</v>
+        <v>81200</v>
       </c>
       <c r="G59" s="3">
-        <v>154300</v>
+        <v>74600</v>
       </c>
       <c r="H59" s="3">
-        <v>424800</v>
+        <v>155500</v>
       </c>
       <c r="I59" s="3">
-        <v>424800</v>
+        <v>428000</v>
       </c>
       <c r="J59" s="3">
+        <v>428000</v>
+      </c>
+      <c r="K59" s="3">
         <v>445800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>458700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>339900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>236100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>176300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>121800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>260600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>206600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>307700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>203900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W59" s="3">
         <v>50100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>78900</v>
+        <v>78000</v>
       </c>
       <c r="E60" s="3">
-        <v>80600</v>
+        <v>79500</v>
       </c>
       <c r="F60" s="3">
-        <v>74000</v>
+        <v>81200</v>
       </c>
       <c r="G60" s="3">
-        <v>154300</v>
+        <v>74600</v>
       </c>
       <c r="H60" s="3">
-        <v>485000</v>
+        <v>155500</v>
       </c>
       <c r="I60" s="3">
-        <v>485000</v>
+        <v>488700</v>
       </c>
       <c r="J60" s="3">
+        <v>488700</v>
+      </c>
+      <c r="K60" s="3">
         <v>610200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>578400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>845600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>878100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>763500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>820500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1126000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1103800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1384700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1621900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1163600</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W60" s="3">
         <v>658500</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>150800</v>
+        <v>131300</v>
       </c>
       <c r="E61" s="3">
-        <v>152300</v>
+        <v>151900</v>
       </c>
       <c r="F61" s="3">
-        <v>144700</v>
+        <v>153500</v>
       </c>
       <c r="G61" s="3">
-        <v>151300</v>
+        <v>145800</v>
       </c>
       <c r="H61" s="3">
-        <v>228900</v>
+        <v>152500</v>
       </c>
       <c r="I61" s="3">
-        <v>228900</v>
+        <v>230700</v>
       </c>
       <c r="J61" s="3">
+        <v>230700</v>
+      </c>
+      <c r="K61" s="3">
         <v>366300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>411100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>93200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>91300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>62900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>36600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>75700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>37800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>11100</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59800</v>
+        <v>81900</v>
       </c>
       <c r="E62" s="3">
-        <v>26700</v>
+        <v>60200</v>
       </c>
       <c r="F62" s="3">
-        <v>14300</v>
+        <v>26900</v>
       </c>
       <c r="G62" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
-        <v>4300</v>
-      </c>
       <c r="I62" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K62" s="3">
         <v>31400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>81500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>61700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>290900</v>
+        <v>292400</v>
       </c>
       <c r="E66" s="3">
-        <v>261100</v>
+        <v>293100</v>
       </c>
       <c r="F66" s="3">
-        <v>234600</v>
+        <v>263200</v>
       </c>
       <c r="G66" s="3">
-        <v>308000</v>
+        <v>236400</v>
       </c>
       <c r="H66" s="3">
-        <v>718300</v>
+        <v>310400</v>
       </c>
       <c r="I66" s="3">
-        <v>718300</v>
+        <v>723800</v>
       </c>
       <c r="J66" s="3">
+        <v>723800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1007900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1071000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>988600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>826400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>849200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1126000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1140400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1460400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1659700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1165300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W66" s="3">
         <v>669600</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,22 +4558,25 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>882100</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>882100</v>
       </c>
       <c r="U70" s="3">
-        <v>0</v>
+        <v>882100</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>864400</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1419000</v>
+        <v>1415000</v>
       </c>
       <c r="E72" s="3">
-        <v>1376700</v>
+        <v>1429900</v>
       </c>
       <c r="F72" s="3">
-        <v>1301900</v>
+        <v>1387300</v>
       </c>
       <c r="G72" s="3">
-        <v>1196400</v>
+        <v>1311800</v>
       </c>
       <c r="H72" s="3">
-        <v>1075600</v>
+        <v>1205500</v>
       </c>
       <c r="I72" s="3">
-        <v>1075600</v>
+        <v>1083800</v>
       </c>
       <c r="J72" s="3">
+        <v>1083800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1304300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1263200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1117000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>919200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>770800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>624400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>518800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>414900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>366200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-280000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-376600</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W72" s="3">
         <v>-510600</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1983000</v>
+        <v>1984400</v>
       </c>
       <c r="E76" s="3">
-        <v>1939800</v>
+        <v>1998100</v>
       </c>
       <c r="F76" s="3">
-        <v>1863000</v>
+        <v>1954700</v>
       </c>
       <c r="G76" s="3">
-        <v>1759700</v>
+        <v>1877300</v>
       </c>
       <c r="H76" s="3">
-        <v>1638900</v>
+        <v>1773100</v>
       </c>
       <c r="I76" s="3">
-        <v>1638900</v>
+        <v>1651400</v>
       </c>
       <c r="J76" s="3">
+        <v>1651400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1866800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1807600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1911300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1799100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1646000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1537800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1454600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1412500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1415900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-261400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-359800</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W76" s="3">
         <v>-498900</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>42300</v>
+        <v>-14900</v>
       </c>
       <c r="E81" s="3">
-        <v>74900</v>
+        <v>42600</v>
       </c>
       <c r="F81" s="3">
-        <v>105500</v>
+        <v>75500</v>
       </c>
       <c r="G81" s="3">
-        <v>92700</v>
+        <v>106300</v>
       </c>
       <c r="H81" s="3">
-        <v>28000</v>
+        <v>93400</v>
       </c>
       <c r="I81" s="3">
-        <v>-76200</v>
+        <v>28300</v>
       </c>
       <c r="J81" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="K81" s="3">
         <v>20000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>160700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>178400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>145100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>116800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>99300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>103900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>80200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>96600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>144500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>67600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>42200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5066,26 +5265,29 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U83" s="3">
         <v>400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
+      <c r="V83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>89300</v>
+        <v>13800</v>
       </c>
       <c r="E89" s="3">
-        <v>31700</v>
+        <v>90000</v>
       </c>
       <c r="F89" s="3">
-        <v>68500</v>
+        <v>32000</v>
       </c>
       <c r="G89" s="3">
-        <v>187100</v>
+        <v>69000</v>
       </c>
       <c r="H89" s="3">
-        <v>49700</v>
+        <v>188600</v>
       </c>
       <c r="I89" s="3">
-        <v>81700</v>
+        <v>50100</v>
       </c>
       <c r="J89" s="3">
+        <v>82300</v>
+      </c>
+      <c r="K89" s="3">
         <v>191200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>257300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>198300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>204700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R89" s="3">
         <v>70000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>110100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>132000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>214400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>77300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>54200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5546,26 +5767,29 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W91" s="3">
         <v>100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>71500</v>
+        <v>222900</v>
       </c>
       <c r="E94" s="3">
-        <v>78200</v>
+        <v>72100</v>
       </c>
       <c r="F94" s="3">
-        <v>-968300</v>
+        <v>78800</v>
       </c>
       <c r="G94" s="3">
-        <v>116200</v>
+        <v>-975700</v>
       </c>
       <c r="H94" s="3">
-        <v>113500</v>
+        <v>117100</v>
       </c>
       <c r="I94" s="3">
-        <v>226700</v>
+        <v>114400</v>
       </c>
       <c r="J94" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-579900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>67500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>583900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-215000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R94" s="3">
         <v>-182300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>82500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>154700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-341900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-48600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-228600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="3">
-        <v>6700</v>
+      <c r="E100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F100" s="3">
-        <v>-490400</v>
+        <v>6800</v>
       </c>
       <c r="G100" s="3">
-        <v>51100</v>
+        <v>-494200</v>
       </c>
       <c r="H100" s="3">
-        <v>8400</v>
+        <v>51500</v>
       </c>
       <c r="I100" s="3">
-        <v>181700</v>
+        <v>8500</v>
       </c>
       <c r="J100" s="3">
+        <v>183100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-604400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>295500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-305300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>80300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R100" s="3">
         <v>-270400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>612800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-162300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>106600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>36500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>254400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6150,32 +6399,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R101" s="3">
         <v>-20500</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
+      <c r="U101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6215,28 +6467,31 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="3">
         <v>-403200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>793900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>124400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-20900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>65100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>79900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="E8" s="3">
-        <v>65000</v>
+        <v>60700</v>
       </c>
       <c r="F8" s="3">
-        <v>81400</v>
+        <v>76000</v>
       </c>
       <c r="G8" s="3">
-        <v>112600</v>
+        <v>105200</v>
       </c>
       <c r="H8" s="3">
-        <v>134000</v>
+        <v>125200</v>
       </c>
       <c r="I8" s="3">
-        <v>184100</v>
+        <v>172000</v>
       </c>
       <c r="J8" s="3">
-        <v>151100</v>
+        <v>141200</v>
       </c>
       <c r="K8" s="3">
         <v>302400</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16500</v>
+        <v>15400</v>
       </c>
       <c r="E9" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="F9" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="G9" s="3">
-        <v>31800</v>
+        <v>29700</v>
       </c>
       <c r="H9" s="3">
-        <v>31400</v>
+        <v>29300</v>
       </c>
       <c r="I9" s="3">
-        <v>57800</v>
+        <v>54000</v>
       </c>
       <c r="J9" s="3">
-        <v>15100</v>
+        <v>14100</v>
       </c>
       <c r="K9" s="3">
         <v>23300</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38300</v>
+        <v>35800</v>
       </c>
       <c r="E10" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="F10" s="3">
-        <v>67000</v>
+        <v>62600</v>
       </c>
       <c r="G10" s="3">
-        <v>80800</v>
+        <v>75500</v>
       </c>
       <c r="H10" s="3">
-        <v>102600</v>
+        <v>95900</v>
       </c>
       <c r="I10" s="3">
-        <v>126300</v>
+        <v>118000</v>
       </c>
       <c r="J10" s="3">
-        <v>136000</v>
+        <v>127100</v>
       </c>
       <c r="K10" s="3">
         <v>279100</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="E12" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="F12" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G12" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J12" s="3">
         <v>8100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8600</v>
       </c>
       <c r="K12" s="3">
         <v>5400</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>41700</v>
+        <v>39000</v>
       </c>
       <c r="E17" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="F17" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="G17" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="H17" s="3">
-        <v>12900</v>
+        <v>12000</v>
       </c>
       <c r="I17" s="3">
-        <v>134800</v>
+        <v>125900</v>
       </c>
       <c r="J17" s="3">
-        <v>302700</v>
+        <v>282800</v>
       </c>
       <c r="K17" s="3">
         <v>266900</v>
@@ -1360,25 +1360,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>13100</v>
+        <v>12200</v>
       </c>
       <c r="E18" s="3">
-        <v>51600</v>
+        <v>48200</v>
       </c>
       <c r="F18" s="3">
-        <v>73300</v>
+        <v>68500</v>
       </c>
       <c r="G18" s="3">
-        <v>117800</v>
+        <v>110000</v>
       </c>
       <c r="H18" s="3">
-        <v>121100</v>
+        <v>113100</v>
       </c>
       <c r="I18" s="3">
-        <v>49300</v>
+        <v>46000</v>
       </c>
       <c r="J18" s="3">
-        <v>-151600</v>
+        <v>-141600</v>
       </c>
       <c r="K18" s="3">
         <v>35500</v>
@@ -1454,25 +1454,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-20200</v>
+        <v>-18900</v>
       </c>
       <c r="E20" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F20" s="3">
-        <v>14600</v>
+        <v>13600</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
       </c>
       <c r="H20" s="3">
-        <v>-7000</v>
+        <v>-6500</v>
       </c>
       <c r="I20" s="3">
-        <v>-8000</v>
+        <v>-7500</v>
       </c>
       <c r="J20" s="3">
-        <v>70400</v>
+        <v>65800</v>
       </c>
       <c r="K20" s="3">
         <v>-1300</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="E23" s="3">
-        <v>54400</v>
+        <v>50800</v>
       </c>
       <c r="F23" s="3">
-        <v>87900</v>
+        <v>82100</v>
       </c>
       <c r="G23" s="3">
-        <v>118400</v>
+        <v>110600</v>
       </c>
       <c r="H23" s="3">
-        <v>114100</v>
+        <v>106600</v>
       </c>
       <c r="I23" s="3">
-        <v>41300</v>
+        <v>38500</v>
       </c>
       <c r="J23" s="3">
-        <v>-81200</v>
+        <v>-75800</v>
       </c>
       <c r="K23" s="3">
         <v>34200</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="E24" s="3">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="F24" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="G24" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I24" s="3">
         <v>12100</v>
       </c>
-      <c r="H24" s="3">
-        <v>20700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>13000</v>
-      </c>
       <c r="J24" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="K24" s="3">
         <v>14200</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15100</v>
+        <v>-14100</v>
       </c>
       <c r="E26" s="3">
-        <v>42500</v>
+        <v>39700</v>
       </c>
       <c r="F26" s="3">
-        <v>75400</v>
+        <v>70500</v>
       </c>
       <c r="G26" s="3">
-        <v>106300</v>
+        <v>99300</v>
       </c>
       <c r="H26" s="3">
-        <v>93400</v>
+        <v>87300</v>
       </c>
       <c r="I26" s="3">
-        <v>28300</v>
+        <v>26400</v>
       </c>
       <c r="J26" s="3">
-        <v>-76700</v>
+        <v>-71700</v>
       </c>
       <c r="K26" s="3">
         <v>20000</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14900</v>
+        <v>-13900</v>
       </c>
       <c r="E27" s="3">
-        <v>42600</v>
+        <v>39800</v>
       </c>
       <c r="F27" s="3">
-        <v>75500</v>
+        <v>70500</v>
       </c>
       <c r="G27" s="3">
-        <v>106300</v>
+        <v>99300</v>
       </c>
       <c r="H27" s="3">
-        <v>93400</v>
+        <v>87300</v>
       </c>
       <c r="I27" s="3">
-        <v>28300</v>
+        <v>26400</v>
       </c>
       <c r="J27" s="3">
-        <v>-76700</v>
+        <v>-71700</v>
       </c>
       <c r="K27" s="3">
         <v>20000</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20200</v>
+        <v>18900</v>
       </c>
       <c r="E32" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="F32" s="3">
-        <v>-14600</v>
+        <v>-13600</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
       </c>
       <c r="H32" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="I32" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="J32" s="3">
-        <v>-70400</v>
+        <v>-65800</v>
       </c>
       <c r="K32" s="3">
         <v>1300</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14900</v>
+        <v>-13900</v>
       </c>
       <c r="E33" s="3">
-        <v>42600</v>
+        <v>39800</v>
       </c>
       <c r="F33" s="3">
-        <v>75500</v>
+        <v>70500</v>
       </c>
       <c r="G33" s="3">
-        <v>106300</v>
+        <v>99300</v>
       </c>
       <c r="H33" s="3">
-        <v>93400</v>
+        <v>87300</v>
       </c>
       <c r="I33" s="3">
-        <v>28300</v>
+        <v>26400</v>
       </c>
       <c r="J33" s="3">
-        <v>-76700</v>
+        <v>-71700</v>
       </c>
       <c r="K33" s="3">
         <v>20000</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14900</v>
+        <v>-13900</v>
       </c>
       <c r="E35" s="3">
-        <v>42600</v>
+        <v>39800</v>
       </c>
       <c r="F35" s="3">
-        <v>75500</v>
+        <v>70500</v>
       </c>
       <c r="G35" s="3">
-        <v>106300</v>
+        <v>99300</v>
       </c>
       <c r="H35" s="3">
-        <v>93400</v>
+        <v>87300</v>
       </c>
       <c r="I35" s="3">
-        <v>28300</v>
+        <v>26400</v>
       </c>
       <c r="J35" s="3">
-        <v>-76700</v>
+        <v>-71700</v>
       </c>
       <c r="K35" s="3">
         <v>20000</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>267100</v>
+        <v>249500</v>
       </c>
       <c r="E41" s="3">
-        <v>494400</v>
+        <v>461800</v>
       </c>
       <c r="F41" s="3">
-        <v>345100</v>
+        <v>322400</v>
       </c>
       <c r="G41" s="3">
-        <v>242600</v>
+        <v>226600</v>
       </c>
       <c r="H41" s="3">
-        <v>234900</v>
+        <v>219400</v>
       </c>
       <c r="I41" s="3">
-        <v>276300</v>
+        <v>258100</v>
       </c>
       <c r="J41" s="3">
-        <v>276300</v>
+        <v>258100</v>
       </c>
       <c r="K41" s="3">
         <v>447900</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>960800</v>
+        <v>897400</v>
       </c>
       <c r="E42" s="3">
-        <v>792700</v>
+        <v>740500</v>
       </c>
       <c r="F42" s="3">
-        <v>801300</v>
+        <v>748500</v>
       </c>
       <c r="G42" s="3">
-        <v>795500</v>
+        <v>743000</v>
       </c>
       <c r="H42" s="3">
-        <v>586200</v>
+        <v>547600</v>
       </c>
       <c r="I42" s="3">
-        <v>194500</v>
+        <v>181700</v>
       </c>
       <c r="J42" s="3">
-        <v>194500</v>
+        <v>181700</v>
       </c>
       <c r="K42" s="3">
         <v>36200</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>444400</v>
+        <v>415100</v>
       </c>
       <c r="E43" s="3">
-        <v>515200</v>
+        <v>481200</v>
       </c>
       <c r="F43" s="3">
-        <v>582800</v>
+        <v>544400</v>
       </c>
       <c r="G43" s="3">
-        <v>664600</v>
+        <v>620800</v>
       </c>
       <c r="H43" s="3">
-        <v>818800</v>
+        <v>764900</v>
       </c>
       <c r="I43" s="3">
-        <v>1448800</v>
+        <v>1353300</v>
       </c>
       <c r="J43" s="3">
-        <v>1448800</v>
+        <v>1353300</v>
       </c>
       <c r="K43" s="3">
         <v>1727600</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>238200</v>
+        <v>222500</v>
       </c>
       <c r="E45" s="3">
-        <v>154100</v>
+        <v>143900</v>
       </c>
       <c r="F45" s="3">
-        <v>195700</v>
+        <v>182800</v>
       </c>
       <c r="G45" s="3">
-        <v>141600</v>
+        <v>132300</v>
       </c>
       <c r="H45" s="3">
-        <v>220600</v>
+        <v>206000</v>
       </c>
       <c r="I45" s="3">
-        <v>260900</v>
+        <v>243700</v>
       </c>
       <c r="J45" s="3">
-        <v>260900</v>
+        <v>243700</v>
       </c>
       <c r="K45" s="3">
         <v>453500</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1910500</v>
+        <v>1784500</v>
       </c>
       <c r="E46" s="3">
-        <v>1956300</v>
+        <v>1827400</v>
       </c>
       <c r="F46" s="3">
-        <v>1924900</v>
+        <v>1798000</v>
       </c>
       <c r="G46" s="3">
-        <v>1844300</v>
+        <v>1722700</v>
       </c>
       <c r="H46" s="3">
-        <v>1860600</v>
+        <v>1737900</v>
       </c>
       <c r="I46" s="3">
-        <v>2180500</v>
+        <v>2036700</v>
       </c>
       <c r="J46" s="3">
-        <v>2180500</v>
+        <v>2036700</v>
       </c>
       <c r="K46" s="3">
         <v>2665200</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75400</v>
+        <v>70500</v>
       </c>
       <c r="E47" s="3">
-        <v>97900</v>
+        <v>91500</v>
       </c>
       <c r="F47" s="3">
-        <v>102100</v>
+        <v>95400</v>
       </c>
       <c r="G47" s="3">
-        <v>96400</v>
+        <v>90000</v>
       </c>
       <c r="H47" s="3">
-        <v>102900</v>
+        <v>96100</v>
       </c>
       <c r="I47" s="3">
-        <v>77200</v>
+        <v>72100</v>
       </c>
       <c r="J47" s="3">
-        <v>77200</v>
+        <v>72100</v>
       </c>
       <c r="K47" s="3">
         <v>122400</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>191000</v>
+        <v>178400</v>
       </c>
       <c r="E48" s="3">
-        <v>151800</v>
+        <v>141800</v>
       </c>
       <c r="F48" s="3">
-        <v>103500</v>
+        <v>96700</v>
       </c>
       <c r="G48" s="3">
-        <v>81100</v>
+        <v>75700</v>
       </c>
       <c r="H48" s="3">
-        <v>56400</v>
+        <v>52700</v>
       </c>
       <c r="I48" s="3">
-        <v>40500</v>
+        <v>37800</v>
       </c>
       <c r="J48" s="3">
-        <v>40500</v>
+        <v>37800</v>
       </c>
       <c r="K48" s="3">
         <v>37800</v>
@@ -3211,19 +3211,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I49" s="3">
         <v>1000</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98500</v>
+        <v>92000</v>
       </c>
       <c r="E52" s="3">
-        <v>83800</v>
+        <v>78300</v>
       </c>
       <c r="F52" s="3">
-        <v>85900</v>
+        <v>80300</v>
       </c>
       <c r="G52" s="3">
-        <v>90600</v>
+        <v>84600</v>
       </c>
       <c r="H52" s="3">
-        <v>62400</v>
+        <v>58300</v>
       </c>
       <c r="I52" s="3">
-        <v>76100</v>
+        <v>71100</v>
       </c>
       <c r="J52" s="3">
-        <v>76100</v>
+        <v>71100</v>
       </c>
       <c r="K52" s="3">
         <v>48200</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2276800</v>
+        <v>2126700</v>
       </c>
       <c r="E54" s="3">
-        <v>2291300</v>
+        <v>2140200</v>
       </c>
       <c r="F54" s="3">
-        <v>2217900</v>
+        <v>2071700</v>
       </c>
       <c r="G54" s="3">
-        <v>2113700</v>
+        <v>1974300</v>
       </c>
       <c r="H54" s="3">
-        <v>2083500</v>
+        <v>1946200</v>
       </c>
       <c r="I54" s="3">
-        <v>2375200</v>
+        <v>2218600</v>
       </c>
       <c r="J54" s="3">
-        <v>2375200</v>
+        <v>2218600</v>
       </c>
       <c r="K54" s="3">
         <v>2874700</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>60700</v>
+        <v>56700</v>
       </c>
       <c r="J58" s="3">
-        <v>60700</v>
+        <v>56700</v>
       </c>
       <c r="K58" s="3">
         <v>164300</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78000</v>
+        <v>72900</v>
       </c>
       <c r="E59" s="3">
-        <v>79500</v>
+        <v>74300</v>
       </c>
       <c r="F59" s="3">
-        <v>81200</v>
+        <v>75800</v>
       </c>
       <c r="G59" s="3">
-        <v>74600</v>
+        <v>69600</v>
       </c>
       <c r="H59" s="3">
-        <v>155500</v>
+        <v>145200</v>
       </c>
       <c r="I59" s="3">
-        <v>428000</v>
+        <v>399800</v>
       </c>
       <c r="J59" s="3">
-        <v>428000</v>
+        <v>399800</v>
       </c>
       <c r="K59" s="3">
         <v>445800</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>78000</v>
+        <v>72900</v>
       </c>
       <c r="E60" s="3">
-        <v>79500</v>
+        <v>74300</v>
       </c>
       <c r="F60" s="3">
-        <v>81200</v>
+        <v>75800</v>
       </c>
       <c r="G60" s="3">
-        <v>74600</v>
+        <v>69600</v>
       </c>
       <c r="H60" s="3">
-        <v>155500</v>
+        <v>145200</v>
       </c>
       <c r="I60" s="3">
-        <v>488700</v>
+        <v>456500</v>
       </c>
       <c r="J60" s="3">
-        <v>488700</v>
+        <v>456500</v>
       </c>
       <c r="K60" s="3">
         <v>610200</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>131300</v>
+        <v>122700</v>
       </c>
       <c r="E61" s="3">
-        <v>151900</v>
+        <v>141900</v>
       </c>
       <c r="F61" s="3">
-        <v>153500</v>
+        <v>143400</v>
       </c>
       <c r="G61" s="3">
-        <v>145800</v>
+        <v>136200</v>
       </c>
       <c r="H61" s="3">
-        <v>152500</v>
+        <v>142400</v>
       </c>
       <c r="I61" s="3">
-        <v>230700</v>
+        <v>215500</v>
       </c>
       <c r="J61" s="3">
-        <v>230700</v>
+        <v>215500</v>
       </c>
       <c r="K61" s="3">
         <v>366300</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>81900</v>
+        <v>76500</v>
       </c>
       <c r="E62" s="3">
-        <v>60200</v>
+        <v>56300</v>
       </c>
       <c r="F62" s="3">
-        <v>26900</v>
+        <v>25200</v>
       </c>
       <c r="G62" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="H62" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I62" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="J62" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="K62" s="3">
         <v>31400</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>292400</v>
+        <v>273100</v>
       </c>
       <c r="E66" s="3">
-        <v>293100</v>
+        <v>273800</v>
       </c>
       <c r="F66" s="3">
-        <v>263200</v>
+        <v>245800</v>
       </c>
       <c r="G66" s="3">
-        <v>236400</v>
+        <v>220800</v>
       </c>
       <c r="H66" s="3">
-        <v>310400</v>
+        <v>289900</v>
       </c>
       <c r="I66" s="3">
-        <v>723800</v>
+        <v>676100</v>
       </c>
       <c r="J66" s="3">
-        <v>723800</v>
+        <v>676100</v>
       </c>
       <c r="K66" s="3">
         <v>1007900</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1415000</v>
+        <v>1321700</v>
       </c>
       <c r="E72" s="3">
-        <v>1429900</v>
+        <v>1335600</v>
       </c>
       <c r="F72" s="3">
-        <v>1387300</v>
+        <v>1295800</v>
       </c>
       <c r="G72" s="3">
-        <v>1311800</v>
+        <v>1225400</v>
       </c>
       <c r="H72" s="3">
-        <v>1205500</v>
+        <v>1126100</v>
       </c>
       <c r="I72" s="3">
-        <v>1083800</v>
+        <v>1012400</v>
       </c>
       <c r="J72" s="3">
-        <v>1083800</v>
+        <v>1012400</v>
       </c>
       <c r="K72" s="3">
         <v>1304300</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1984400</v>
+        <v>1853600</v>
       </c>
       <c r="E76" s="3">
-        <v>1998100</v>
+        <v>1866400</v>
       </c>
       <c r="F76" s="3">
-        <v>1954700</v>
+        <v>1825800</v>
       </c>
       <c r="G76" s="3">
-        <v>1877300</v>
+        <v>1753600</v>
       </c>
       <c r="H76" s="3">
-        <v>1773100</v>
+        <v>1656300</v>
       </c>
       <c r="I76" s="3">
-        <v>1651400</v>
+        <v>1542600</v>
       </c>
       <c r="J76" s="3">
-        <v>1651400</v>
+        <v>1542600</v>
       </c>
       <c r="K76" s="3">
         <v>1866800</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14900</v>
+        <v>-13900</v>
       </c>
       <c r="E81" s="3">
-        <v>42600</v>
+        <v>39800</v>
       </c>
       <c r="F81" s="3">
-        <v>75500</v>
+        <v>70500</v>
       </c>
       <c r="G81" s="3">
-        <v>106300</v>
+        <v>99300</v>
       </c>
       <c r="H81" s="3">
-        <v>93400</v>
+        <v>87300</v>
       </c>
       <c r="I81" s="3">
-        <v>28300</v>
+        <v>26400</v>
       </c>
       <c r="J81" s="3">
-        <v>-76700</v>
+        <v>-71700</v>
       </c>
       <c r="K81" s="3">
         <v>20000</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13800</v>
+        <v>12800</v>
       </c>
       <c r="E89" s="3">
-        <v>90000</v>
+        <v>84000</v>
       </c>
       <c r="F89" s="3">
-        <v>32000</v>
+        <v>29900</v>
       </c>
       <c r="G89" s="3">
-        <v>69000</v>
+        <v>64500</v>
       </c>
       <c r="H89" s="3">
-        <v>188600</v>
+        <v>176100</v>
       </c>
       <c r="I89" s="3">
-        <v>50100</v>
+        <v>46800</v>
       </c>
       <c r="J89" s="3">
-        <v>82300</v>
+        <v>76900</v>
       </c>
       <c r="K89" s="3">
         <v>191200</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>222900</v>
+        <v>208200</v>
       </c>
       <c r="E94" s="3">
-        <v>72100</v>
+        <v>67300</v>
       </c>
       <c r="F94" s="3">
-        <v>78800</v>
+        <v>73600</v>
       </c>
       <c r="G94" s="3">
-        <v>-975700</v>
+        <v>-911400</v>
       </c>
       <c r="H94" s="3">
-        <v>117100</v>
+        <v>109400</v>
       </c>
       <c r="I94" s="3">
-        <v>114400</v>
+        <v>106800</v>
       </c>
       <c r="J94" s="3">
-        <v>228400</v>
+        <v>213300</v>
       </c>
       <c r="K94" s="3">
         <v>-579900</v>
@@ -6302,19 +6302,19 @@
         <v>16</v>
       </c>
       <c r="F100" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="G100" s="3">
-        <v>-494200</v>
+        <v>-461600</v>
       </c>
       <c r="H100" s="3">
-        <v>51500</v>
+        <v>48100</v>
       </c>
       <c r="I100" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="J100" s="3">
-        <v>183100</v>
+        <v>171000</v>
       </c>
       <c r="K100" s="3">
         <v>-604400</v>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>51200</v>
+        <v>29500</v>
       </c>
       <c r="E8" s="3">
-        <v>60700</v>
+        <v>55300</v>
       </c>
       <c r="F8" s="3">
-        <v>76000</v>
+        <v>50700</v>
       </c>
       <c r="G8" s="3">
-        <v>105200</v>
+        <v>60200</v>
       </c>
       <c r="H8" s="3">
-        <v>125200</v>
+        <v>75300</v>
       </c>
       <c r="I8" s="3">
+        <v>104200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K8" s="3">
         <v>172000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>141200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>302400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>398900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>346500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>320400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>274300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>280100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>321900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>246300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>221300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>215300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>272100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>121400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>104100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15400</v>
+        <v>4700</v>
       </c>
       <c r="E9" s="3">
-        <v>9600</v>
+        <v>5600</v>
       </c>
       <c r="F9" s="3">
-        <v>13400</v>
+        <v>15300</v>
       </c>
       <c r="G9" s="3">
-        <v>29700</v>
+        <v>9500</v>
       </c>
       <c r="H9" s="3">
-        <v>29300</v>
+        <v>13300</v>
       </c>
       <c r="I9" s="3">
+        <v>29400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K9" s="3">
         <v>54000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>14100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>23300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>31800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>44600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>39800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>61300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>101400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>136000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>98500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>45300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>38400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>47000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>17800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>16200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35800</v>
+        <v>24800</v>
       </c>
       <c r="E10" s="3">
-        <v>51200</v>
+        <v>49700</v>
       </c>
       <c r="F10" s="3">
-        <v>62600</v>
+        <v>35500</v>
       </c>
       <c r="G10" s="3">
-        <v>75500</v>
+        <v>50700</v>
       </c>
       <c r="H10" s="3">
-        <v>95900</v>
+        <v>62000</v>
       </c>
       <c r="I10" s="3">
+        <v>74800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K10" s="3">
         <v>118000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>127100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>279100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>367200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>301800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>280600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>213000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>178700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>185900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>147800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>176000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>176900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>225100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>103600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>87800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1016,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F12" s="3">
         <v>5900</v>
       </c>
-      <c r="E12" s="3">
-        <v>5800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5800</v>
-      </c>
       <c r="G12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>6800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>9800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>11900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>5300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>6200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>5500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>7800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>9400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>3600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>4000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,31 +1160,37 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>16600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>22800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>39000</v>
+        <v>39200</v>
       </c>
       <c r="E17" s="3">
-        <v>12500</v>
+        <v>48300</v>
       </c>
       <c r="F17" s="3">
-        <v>7500</v>
+        <v>38600</v>
       </c>
       <c r="G17" s="3">
-        <v>-4900</v>
+        <v>12400</v>
       </c>
       <c r="H17" s="3">
-        <v>12000</v>
+        <v>7400</v>
       </c>
       <c r="I17" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K17" s="3">
         <v>125900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>282800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>266900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>211200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>149200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>146500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>139500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>178100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>210900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>199500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>138300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>112100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>99000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>40200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>49800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12200</v>
+        <v>-9700</v>
       </c>
       <c r="E18" s="3">
-        <v>48200</v>
+        <v>7000</v>
       </c>
       <c r="F18" s="3">
-        <v>68500</v>
+        <v>12100</v>
       </c>
       <c r="G18" s="3">
-        <v>110000</v>
+        <v>47800</v>
       </c>
       <c r="H18" s="3">
-        <v>113100</v>
+        <v>67900</v>
       </c>
       <c r="I18" s="3">
+        <v>109000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>112100</v>
+      </c>
+      <c r="K18" s="3">
         <v>46000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-141600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>35500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>187800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>197200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>173900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>134800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>102100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>111000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>46800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>83000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>103300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>173100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>81200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>54300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,76 +1513,84 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-18900</v>
+        <v>2600</v>
       </c>
       <c r="E20" s="3">
-        <v>2600</v>
+        <v>-8500</v>
       </c>
       <c r="F20" s="3">
-        <v>13600</v>
+        <v>-18700</v>
       </c>
       <c r="G20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-6500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-7500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>65800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-3300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1572,20 +1645,26 @@
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>173300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
         <v>51100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1731,162 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6600</v>
       </c>
-      <c r="E23" s="3">
-        <v>50800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>82100</v>
-      </c>
       <c r="G23" s="3">
-        <v>110600</v>
+        <v>50300</v>
       </c>
       <c r="H23" s="3">
-        <v>106600</v>
+        <v>81400</v>
       </c>
       <c r="I23" s="3">
+        <v>109600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K23" s="3">
         <v>38500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-75800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>34200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>189100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>202200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>175400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>128400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>98200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>115400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>46600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>82900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>103400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>172800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>81000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>51000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F24" s="3">
         <v>7400</v>
       </c>
-      <c r="E24" s="3">
-        <v>11100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>11700</v>
-      </c>
       <c r="G24" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="H24" s="3">
-        <v>19300</v>
+        <v>11600</v>
       </c>
       <c r="I24" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K24" s="3">
         <v>12100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>28400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>23800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>30300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>11600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>11500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>6800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>28300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>13400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>8800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14100</v>
+        <v>-20900</v>
       </c>
       <c r="E26" s="3">
-        <v>39700</v>
+        <v>-9600</v>
       </c>
       <c r="F26" s="3">
-        <v>70500</v>
+        <v>-13900</v>
       </c>
       <c r="G26" s="3">
+        <v>39300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>69800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>98400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>26400</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="M26" s="3">
+        <v>20000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>160700</v>
+      </c>
+      <c r="O26" s="3">
+        <v>178400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>145100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>116800</v>
+      </c>
+      <c r="R26" s="3">
         <v>99300</v>
       </c>
-      <c r="H26" s="3">
-        <v>87300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>26400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-71700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>20000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>160700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>178400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>145100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>116800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>99300</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>103900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>45300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>80200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>96600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>144500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>67600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>42200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13900</v>
+        <v>-20900</v>
       </c>
       <c r="E27" s="3">
-        <v>39800</v>
+        <v>-9500</v>
       </c>
       <c r="F27" s="3">
-        <v>70500</v>
+        <v>-13800</v>
       </c>
       <c r="G27" s="3">
+        <v>39400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>69900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>98400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>26400</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="M27" s="3">
+        <v>20000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>160700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>178400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>145100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>116800</v>
+      </c>
+      <c r="R27" s="3">
         <v>99300</v>
       </c>
-      <c r="H27" s="3">
-        <v>87300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>26400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-71700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>20000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>160700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>178400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>145100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>116800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>99300</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>103900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>45300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>80200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>96600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>144500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>67600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>42200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18900</v>
+        <v>-2600</v>
       </c>
       <c r="E32" s="3">
-        <v>-2600</v>
+        <v>8500</v>
       </c>
       <c r="F32" s="3">
-        <v>-13600</v>
+        <v>18700</v>
       </c>
       <c r="G32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>6500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>7500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-65800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>3300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13900</v>
+        <v>-20900</v>
       </c>
       <c r="E33" s="3">
-        <v>39800</v>
+        <v>-9500</v>
       </c>
       <c r="F33" s="3">
-        <v>70500</v>
+        <v>-13800</v>
       </c>
       <c r="G33" s="3">
+        <v>39400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>69900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>98400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>26400</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="M33" s="3">
+        <v>20000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>160700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>178400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>145100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>116800</v>
+      </c>
+      <c r="R33" s="3">
         <v>99300</v>
       </c>
-      <c r="H33" s="3">
-        <v>87300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>26400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-71700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>20000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>160700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>178400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>145100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>116800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>99300</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>103900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>45300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>80200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>96600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>144500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>67600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>42200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13900</v>
+        <v>-20900</v>
       </c>
       <c r="E35" s="3">
-        <v>39800</v>
+        <v>-9500</v>
       </c>
       <c r="F35" s="3">
-        <v>70500</v>
+        <v>-13800</v>
       </c>
       <c r="G35" s="3">
+        <v>39400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>69900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>98400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>26400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="M35" s="3">
+        <v>20000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>160700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>178400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>145100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>116800</v>
+      </c>
+      <c r="R35" s="3">
         <v>99300</v>
       </c>
-      <c r="H35" s="3">
-        <v>87300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>26400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-71700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>20000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>160700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>178400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>145100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>116800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>99300</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>103900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>45300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>80200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>96600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>144500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>67600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>42200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2832,232 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>249500</v>
+        <v>327900</v>
       </c>
       <c r="E41" s="3">
-        <v>461800</v>
+        <v>301600</v>
       </c>
       <c r="F41" s="3">
-        <v>322400</v>
+        <v>247300</v>
       </c>
       <c r="G41" s="3">
-        <v>226600</v>
+        <v>457600</v>
       </c>
       <c r="H41" s="3">
-        <v>219400</v>
+        <v>319400</v>
       </c>
       <c r="I41" s="3">
+        <v>224500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>217500</v>
+      </c>
+      <c r="K41" s="3">
         <v>258100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>258100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>447900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>409000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>403600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>295100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>380500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>416800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>823100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1014000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>220100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>95700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y41" s="3">
         <v>114300</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>897400</v>
+        <v>881500</v>
       </c>
       <c r="E42" s="3">
-        <v>740500</v>
+        <v>865500</v>
       </c>
       <c r="F42" s="3">
-        <v>748500</v>
+        <v>889300</v>
       </c>
       <c r="G42" s="3">
-        <v>743000</v>
+        <v>733800</v>
       </c>
       <c r="H42" s="3">
-        <v>547600</v>
+        <v>741700</v>
       </c>
       <c r="I42" s="3">
+        <v>736300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>542600</v>
+      </c>
+      <c r="K42" s="3">
         <v>181700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>181700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>36200</v>
-      </c>
-      <c r="L42" s="3">
-        <v>4600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>4700</v>
       </c>
       <c r="N42" s="3">
         <v>4600</v>
       </c>
       <c r="O42" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="P42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>4200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>9700</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>44500</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>16</v>
+      <c r="V42" s="3">
+        <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y42" s="3">
         <v>62600</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>415100</v>
+        <v>197200</v>
       </c>
       <c r="E43" s="3">
-        <v>481200</v>
+        <v>355100</v>
       </c>
       <c r="F43" s="3">
-        <v>544400</v>
+        <v>411300</v>
       </c>
       <c r="G43" s="3">
-        <v>620800</v>
+        <v>476900</v>
       </c>
       <c r="H43" s="3">
-        <v>764900</v>
+        <v>539500</v>
       </c>
       <c r="I43" s="3">
+        <v>615200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>758000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1353300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1353300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1727600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1748900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1716300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1809200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1495300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1468600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1567100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1362300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1301100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1580900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1456100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y43" s="3">
         <v>745600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,348 +3124,384 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>222500</v>
+        <v>318600</v>
       </c>
       <c r="E45" s="3">
-        <v>143900</v>
+        <v>262100</v>
       </c>
       <c r="F45" s="3">
-        <v>182800</v>
+        <v>220500</v>
       </c>
       <c r="G45" s="3">
-        <v>132300</v>
+        <v>142600</v>
       </c>
       <c r="H45" s="3">
-        <v>206000</v>
+        <v>181200</v>
       </c>
       <c r="I45" s="3">
+        <v>131100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K45" s="3">
         <v>243700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>243700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>453500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>427000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>440900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>442900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>328300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>363000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>435700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>265200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>487700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>459300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>117600</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y45" s="3">
         <v>85200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1784500</v>
+        <v>1725200</v>
       </c>
       <c r="E46" s="3">
-        <v>1827400</v>
+        <v>1784200</v>
       </c>
       <c r="F46" s="3">
-        <v>1798000</v>
+        <v>1768400</v>
       </c>
       <c r="G46" s="3">
-        <v>1722700</v>
+        <v>1810900</v>
       </c>
       <c r="H46" s="3">
-        <v>1737900</v>
+        <v>1781800</v>
       </c>
       <c r="I46" s="3">
+        <v>1707200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1722200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2036700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2036700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2665200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2589600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2565400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2551700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2204100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2235800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2429200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2450700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2847300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2260300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1669400</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1007700</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70500</v>
+        <v>56700</v>
       </c>
       <c r="E47" s="3">
-        <v>91500</v>
+        <v>54300</v>
       </c>
       <c r="F47" s="3">
-        <v>95400</v>
+        <v>69800</v>
       </c>
       <c r="G47" s="3">
-        <v>90000</v>
+        <v>90700</v>
       </c>
       <c r="H47" s="3">
-        <v>96100</v>
+        <v>94500</v>
       </c>
       <c r="I47" s="3">
+        <v>89200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>95200</v>
+      </c>
+      <c r="K47" s="3">
         <v>72100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>72100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>122400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>140700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>240500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>154500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>207400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>104500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>106500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>59100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>9300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>9400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>11100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y47" s="3">
         <v>22400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>178400</v>
+        <v>133700</v>
       </c>
       <c r="E48" s="3">
-        <v>141800</v>
+        <v>140100</v>
       </c>
       <c r="F48" s="3">
-        <v>96700</v>
+        <v>176800</v>
       </c>
       <c r="G48" s="3">
-        <v>75700</v>
+        <v>140500</v>
       </c>
       <c r="H48" s="3">
-        <v>52700</v>
+        <v>95800</v>
       </c>
       <c r="I48" s="3">
-        <v>37800</v>
+        <v>75000</v>
       </c>
       <c r="J48" s="3">
-        <v>37800</v>
+        <v>52200</v>
       </c>
       <c r="K48" s="3">
         <v>37800</v>
       </c>
       <c r="L48" s="3">
+        <v>37800</v>
+      </c>
+      <c r="M48" s="3">
+        <v>37800</v>
+      </c>
+      <c r="N48" s="3">
         <v>34700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>31400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>29100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>16800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y48" s="3">
         <v>700</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>17300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>16500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>700</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>92000</v>
+        <v>70400</v>
       </c>
       <c r="E52" s="3">
-        <v>78300</v>
+        <v>77400</v>
       </c>
       <c r="F52" s="3">
-        <v>80300</v>
+        <v>91100</v>
       </c>
       <c r="G52" s="3">
-        <v>84600</v>
+        <v>77600</v>
       </c>
       <c r="H52" s="3">
-        <v>58300</v>
+        <v>79500</v>
       </c>
       <c r="I52" s="3">
+        <v>83900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K52" s="3">
         <v>71100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>71100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>48200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>112900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>73400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>51400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>39600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>26500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>26800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>41200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>18100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>9600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>5800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y52" s="3">
         <v>4300</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2126700</v>
+        <v>1987600</v>
       </c>
       <c r="E54" s="3">
-        <v>2140200</v>
+        <v>2057700</v>
       </c>
       <c r="F54" s="3">
-        <v>2071700</v>
+        <v>2107500</v>
       </c>
       <c r="G54" s="3">
-        <v>1974300</v>
+        <v>2120900</v>
       </c>
       <c r="H54" s="3">
-        <v>1946200</v>
+        <v>2053000</v>
       </c>
       <c r="I54" s="3">
+        <v>1956500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1928600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2218600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2218600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2874700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2878700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2911700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2787800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2472500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2387100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2580600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2552900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2876200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2280500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1687700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1035100</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3994,14 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3747,308 +4014,332 @@
       <c r="F58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>56700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>56700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>164300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>119800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>505700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>641900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>587300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>698700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>865400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>897200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1184200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1314200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>959700</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y58" s="3">
         <v>608400</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72900</v>
+        <v>79100</v>
       </c>
       <c r="E59" s="3">
-        <v>74300</v>
+        <v>72100</v>
       </c>
       <c r="F59" s="3">
-        <v>75800</v>
+        <v>72200</v>
       </c>
       <c r="G59" s="3">
-        <v>69600</v>
+        <v>73600</v>
       </c>
       <c r="H59" s="3">
-        <v>145200</v>
+        <v>75100</v>
       </c>
       <c r="I59" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K59" s="3">
         <v>399800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>399800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>445800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>458700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>339900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>236100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>176300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>121800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>260600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>206600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>200400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>307700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>203900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y59" s="3">
         <v>50100</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72900</v>
+        <v>79100</v>
       </c>
       <c r="E60" s="3">
-        <v>74300</v>
+        <v>72100</v>
       </c>
       <c r="F60" s="3">
-        <v>75800</v>
+        <v>72200</v>
       </c>
       <c r="G60" s="3">
-        <v>69600</v>
+        <v>73600</v>
       </c>
       <c r="H60" s="3">
-        <v>145200</v>
+        <v>75100</v>
       </c>
       <c r="I60" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K60" s="3">
         <v>456500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>456500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>610200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>578400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>845600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>878100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>763500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>820500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1126000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1103800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1384700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1621900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1163600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y60" s="3">
         <v>658500</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>122700</v>
+        <v>65100</v>
       </c>
       <c r="E61" s="3">
-        <v>141900</v>
+        <v>120700</v>
       </c>
       <c r="F61" s="3">
-        <v>143400</v>
+        <v>121600</v>
       </c>
       <c r="G61" s="3">
-        <v>136200</v>
+        <v>140600</v>
       </c>
       <c r="H61" s="3">
-        <v>142400</v>
+        <v>142100</v>
       </c>
       <c r="I61" s="3">
+        <v>135000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>141100</v>
+      </c>
+      <c r="K61" s="3">
         <v>215500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>215500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>366300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>411100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>93200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>91300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>62900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>28800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>36600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>75700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>37800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>11100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>76500</v>
+        <v>36000</v>
       </c>
       <c r="E62" s="3">
-        <v>56300</v>
+        <v>36100</v>
       </c>
       <c r="F62" s="3">
-        <v>25200</v>
+        <v>75800</v>
       </c>
       <c r="G62" s="3">
-        <v>13400</v>
+        <v>55800</v>
       </c>
       <c r="H62" s="3">
-        <v>2300</v>
+        <v>24900</v>
       </c>
       <c r="I62" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>31400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>81500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>61700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>19300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>273100</v>
+        <v>181200</v>
       </c>
       <c r="E66" s="3">
-        <v>273800</v>
+        <v>229900</v>
       </c>
       <c r="F66" s="3">
-        <v>245800</v>
+        <v>270700</v>
       </c>
       <c r="G66" s="3">
-        <v>220800</v>
+        <v>271300</v>
       </c>
       <c r="H66" s="3">
-        <v>289900</v>
+        <v>243600</v>
       </c>
       <c r="I66" s="3">
+        <v>218800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>287300</v>
+      </c>
+      <c r="K66" s="3">
         <v>676100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>676100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1007900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1071000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1000500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>988600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>826400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>849200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1126000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1140400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1460400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1659700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1165300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y66" s="3">
         <v>669600</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4561,22 +4896,28 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>882100</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>882100</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>864400</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1321700</v>
+        <v>1279500</v>
       </c>
       <c r="E72" s="3">
-        <v>1335600</v>
+        <v>1300300</v>
       </c>
       <c r="F72" s="3">
-        <v>1295800</v>
+        <v>1309800</v>
       </c>
       <c r="G72" s="3">
-        <v>1225400</v>
+        <v>1323600</v>
       </c>
       <c r="H72" s="3">
-        <v>1126100</v>
+        <v>1284100</v>
       </c>
       <c r="I72" s="3">
+        <v>1214300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1115900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1012400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1012400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1304300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1263200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1117000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>919200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>770800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>624400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>518800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>414900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>366200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-280000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-376600</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-510600</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1853600</v>
+        <v>1806300</v>
       </c>
       <c r="E76" s="3">
-        <v>1866400</v>
+        <v>1827800</v>
       </c>
       <c r="F76" s="3">
-        <v>1825800</v>
+        <v>1836800</v>
       </c>
       <c r="G76" s="3">
-        <v>1753600</v>
+        <v>1849600</v>
       </c>
       <c r="H76" s="3">
-        <v>1656300</v>
+        <v>1809400</v>
       </c>
       <c r="I76" s="3">
+        <v>1737700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1641300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1542600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1542600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1866800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1807600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1911300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1799100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1646000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1537800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1454600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1412500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1415900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-261400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-359800</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-498900</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13900</v>
+        <v>-20900</v>
       </c>
       <c r="E81" s="3">
-        <v>39800</v>
+        <v>-9500</v>
       </c>
       <c r="F81" s="3">
-        <v>70500</v>
+        <v>-13800</v>
       </c>
       <c r="G81" s="3">
+        <v>39400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>69900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>98400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>26400</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="M81" s="3">
+        <v>20000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>160700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>178400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>145100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>116800</v>
+      </c>
+      <c r="R81" s="3">
         <v>99300</v>
       </c>
-      <c r="H81" s="3">
-        <v>87300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>26400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-71700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>20000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>160700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>178400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>145100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>116800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>99300</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>103900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>45300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>80200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>96600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>144500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>67600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>42200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5268,26 +5665,32 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W83" s="3">
         <v>400</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12800</v>
+        <v>82800</v>
       </c>
       <c r="E89" s="3">
-        <v>84000</v>
+        <v>9000</v>
       </c>
       <c r="F89" s="3">
-        <v>29900</v>
+        <v>12700</v>
       </c>
       <c r="G89" s="3">
-        <v>64500</v>
+        <v>83300</v>
       </c>
       <c r="H89" s="3">
-        <v>176100</v>
+        <v>29600</v>
       </c>
       <c r="I89" s="3">
+        <v>63900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K89" s="3">
         <v>46800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>76900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>191200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>257300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>198300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>204700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T89" s="3">
         <v>70000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>110100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>132000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>214400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>77300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>54200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5770,26 +6211,32 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y91" s="3">
         <v>100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>208200</v>
+        <v>6300</v>
       </c>
       <c r="E94" s="3">
-        <v>67300</v>
+        <v>-381900</v>
       </c>
       <c r="F94" s="3">
-        <v>73600</v>
+        <v>206300</v>
       </c>
       <c r="G94" s="3">
-        <v>-911400</v>
+        <v>66700</v>
       </c>
       <c r="H94" s="3">
-        <v>109400</v>
+        <v>72900</v>
       </c>
       <c r="I94" s="3">
+        <v>-903100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K94" s="3">
         <v>106800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>213300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-579900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>67500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>583900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-215000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T94" s="3">
         <v>-182300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>82500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>154700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-341900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-48600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-228600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6775,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="D100" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3">
         <v>6300</v>
       </c>
-      <c r="G100" s="3">
-        <v>-461600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>48100</v>
-      </c>
       <c r="I100" s="3">
+        <v>-457400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K100" s="3">
         <v>7900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>171000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-604400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>295500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-305300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>80300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T100" s="3">
         <v>-270400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>612800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-162300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>106600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>36500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>254400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6402,32 +6899,38 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T101" s="3">
         <v>-20500</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6470,28 +6973,34 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T102" s="3">
         <v>-403200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>793900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>124400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-20900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>65100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>79900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29500</v>
+        <v>14700</v>
       </c>
       <c r="E8" s="3">
-        <v>55300</v>
+        <v>28100</v>
       </c>
       <c r="F8" s="3">
-        <v>50700</v>
+        <v>52700</v>
       </c>
       <c r="G8" s="3">
-        <v>60200</v>
+        <v>48400</v>
       </c>
       <c r="H8" s="3">
-        <v>75300</v>
+        <v>57400</v>
       </c>
       <c r="I8" s="3">
-        <v>104200</v>
+        <v>71800</v>
       </c>
       <c r="J8" s="3">
+        <v>99300</v>
+      </c>
+      <c r="K8" s="3">
         <v>124000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>172000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>141200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>302400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>398900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>346500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>320400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>274300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>280100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>321900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>246300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>221300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>215300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>272100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>121400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>104100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="E9" s="3">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="F9" s="3">
-        <v>15300</v>
+        <v>5300</v>
       </c>
       <c r="G9" s="3">
-        <v>9500</v>
+        <v>14600</v>
       </c>
       <c r="H9" s="3">
-        <v>13300</v>
+        <v>9000</v>
       </c>
       <c r="I9" s="3">
-        <v>29400</v>
+        <v>12700</v>
       </c>
       <c r="J9" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K9" s="3">
         <v>29000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>31800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>101400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>136000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>98500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>45300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>38400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>47000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>17800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>16200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24800</v>
+        <v>9000</v>
       </c>
       <c r="E10" s="3">
-        <v>49700</v>
+        <v>23600</v>
       </c>
       <c r="F10" s="3">
-        <v>35500</v>
+        <v>47400</v>
       </c>
       <c r="G10" s="3">
-        <v>50700</v>
+        <v>33800</v>
       </c>
       <c r="H10" s="3">
-        <v>62000</v>
+        <v>48300</v>
       </c>
       <c r="I10" s="3">
-        <v>74800</v>
+        <v>59100</v>
       </c>
       <c r="J10" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K10" s="3">
         <v>95000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>118000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>127100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>279100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>367200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>301800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>280600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>213000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>178700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>185900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>147800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>176000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>176900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>225100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>103600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>87800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="E12" s="3">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="F12" s="3">
-        <v>5900</v>
+        <v>3200</v>
       </c>
       <c r="G12" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H12" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I12" s="3">
-        <v>1300</v>
+        <v>5500</v>
       </c>
       <c r="J12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K12" s="3">
         <v>7500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>9400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>4000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,19 +1183,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>16600</v>
+        <v>6300</v>
       </c>
       <c r="E14" s="3">
-        <v>22800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>15800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>21800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
@@ -1192,8 +1212,8 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>39200</v>
+        <v>18800</v>
       </c>
       <c r="E17" s="3">
-        <v>48300</v>
+        <v>37300</v>
       </c>
       <c r="F17" s="3">
-        <v>38600</v>
+        <v>46100</v>
       </c>
       <c r="G17" s="3">
-        <v>12400</v>
+        <v>36800</v>
       </c>
       <c r="H17" s="3">
-        <v>7400</v>
+        <v>11800</v>
       </c>
       <c r="I17" s="3">
-        <v>-4800</v>
+        <v>7100</v>
       </c>
       <c r="J17" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K17" s="3">
         <v>11900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>125900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>282800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>266900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>211200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>149200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>146500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>139500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>178100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>210900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>199500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>138300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>112100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>99000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>40200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>49800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-9700</v>
+        <v>-4100</v>
       </c>
       <c r="E18" s="3">
-        <v>7000</v>
+        <v>-9300</v>
       </c>
       <c r="F18" s="3">
-        <v>12100</v>
+        <v>6700</v>
       </c>
       <c r="G18" s="3">
-        <v>47800</v>
+        <v>11500</v>
       </c>
       <c r="H18" s="3">
-        <v>67900</v>
+        <v>45600</v>
       </c>
       <c r="I18" s="3">
-        <v>109000</v>
+        <v>64700</v>
       </c>
       <c r="J18" s="3">
+        <v>103900</v>
+      </c>
+      <c r="K18" s="3">
         <v>112100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-141600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>187800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>197200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>173900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>134800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>102100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>111000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>46800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>83000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>103300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>173100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>81200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>54300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,82 +1548,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>2600</v>
+        <v>-3500</v>
       </c>
       <c r="E20" s="3">
-        <v>-8500</v>
+        <v>2500</v>
       </c>
       <c r="F20" s="3">
-        <v>-18700</v>
+        <v>-8100</v>
       </c>
       <c r="G20" s="3">
-        <v>2500</v>
+        <v>-17800</v>
       </c>
       <c r="H20" s="3">
-        <v>13500</v>
+        <v>2400</v>
       </c>
       <c r="I20" s="3">
-        <v>600</v>
+        <v>12900</v>
       </c>
       <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>65800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1651,20 +1688,23 @@
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>173300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3">
         <v>51100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7100</v>
+        <v>-7500</v>
       </c>
       <c r="E23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-6600</v>
-      </c>
       <c r="G23" s="3">
-        <v>50300</v>
+        <v>-6300</v>
       </c>
       <c r="H23" s="3">
-        <v>81400</v>
+        <v>48000</v>
       </c>
       <c r="I23" s="3">
-        <v>109600</v>
+        <v>77600</v>
       </c>
       <c r="J23" s="3">
+        <v>104400</v>
+      </c>
+      <c r="K23" s="3">
         <v>105700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>38500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-75800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>34200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>189100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>202200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>175400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>128400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>98200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>115400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>46600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>82900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>103400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>172800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>81000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>51000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13700</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>8100</v>
+        <v>13100</v>
       </c>
       <c r="F24" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="G24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>12100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="N24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>28400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>23800</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>30300</v>
+      </c>
+      <c r="R24" s="3">
         <v>11600</v>
       </c>
-      <c r="I24" s="3">
-        <v>11200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>19200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>12100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>14200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>28400</v>
-      </c>
-      <c r="O24" s="3">
-        <v>23800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>30300</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>11600</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>28300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20900</v>
+        <v>-8500</v>
       </c>
       <c r="E26" s="3">
-        <v>-9600</v>
+        <v>-19900</v>
       </c>
       <c r="F26" s="3">
-        <v>-13900</v>
+        <v>-9200</v>
       </c>
       <c r="G26" s="3">
-        <v>39300</v>
+        <v>-13300</v>
       </c>
       <c r="H26" s="3">
-        <v>69800</v>
+        <v>37500</v>
       </c>
       <c r="I26" s="3">
-        <v>98400</v>
+        <v>66600</v>
       </c>
       <c r="J26" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K26" s="3">
         <v>86500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-71700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>160700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>178400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>145100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>116800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>99300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>103900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>45300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>80200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>96600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>144500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>67600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>42200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20900</v>
+        <v>-8500</v>
       </c>
       <c r="E27" s="3">
-        <v>-9500</v>
+        <v>-19900</v>
       </c>
       <c r="F27" s="3">
-        <v>-13800</v>
+        <v>-9100</v>
       </c>
       <c r="G27" s="3">
-        <v>39400</v>
+        <v>-13100</v>
       </c>
       <c r="H27" s="3">
-        <v>69900</v>
+        <v>37600</v>
       </c>
       <c r="I27" s="3">
-        <v>98400</v>
+        <v>66600</v>
       </c>
       <c r="J27" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K27" s="3">
         <v>86500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-71700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>160700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>178400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>145100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>116800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>99300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>103900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>45300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>80200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>96600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>144500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>67600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>42200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2600</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="3">
-        <v>8500</v>
+        <v>-2500</v>
       </c>
       <c r="F32" s="3">
-        <v>18700</v>
+        <v>8100</v>
       </c>
       <c r="G32" s="3">
-        <v>-2500</v>
+        <v>17800</v>
       </c>
       <c r="H32" s="3">
-        <v>-13500</v>
+        <v>-2400</v>
       </c>
       <c r="I32" s="3">
-        <v>-600</v>
+        <v>-12900</v>
       </c>
       <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
         <v>6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-65800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20900</v>
+        <v>-8500</v>
       </c>
       <c r="E33" s="3">
-        <v>-9500</v>
+        <v>-19900</v>
       </c>
       <c r="F33" s="3">
-        <v>-13800</v>
+        <v>-9100</v>
       </c>
       <c r="G33" s="3">
-        <v>39400</v>
+        <v>-13100</v>
       </c>
       <c r="H33" s="3">
-        <v>69900</v>
+        <v>37600</v>
       </c>
       <c r="I33" s="3">
-        <v>98400</v>
+        <v>66600</v>
       </c>
       <c r="J33" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K33" s="3">
         <v>86500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-71700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>160700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>178400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>145100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>116800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>99300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>103900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>45300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>80200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>96600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>144500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>67600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>42200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20900</v>
+        <v>-8500</v>
       </c>
       <c r="E35" s="3">
-        <v>-9500</v>
+        <v>-19900</v>
       </c>
       <c r="F35" s="3">
-        <v>-13800</v>
+        <v>-9100</v>
       </c>
       <c r="G35" s="3">
-        <v>39400</v>
+        <v>-13100</v>
       </c>
       <c r="H35" s="3">
-        <v>69900</v>
+        <v>37600</v>
       </c>
       <c r="I35" s="3">
-        <v>98400</v>
+        <v>66600</v>
       </c>
       <c r="J35" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K35" s="3">
         <v>86500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-71700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>160700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>178400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>145100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>116800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>99300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>103900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>45300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>80200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>96600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>144500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>67600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>42200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,230 +2920,240 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>327900</v>
+        <v>431400</v>
       </c>
       <c r="E41" s="3">
-        <v>301600</v>
+        <v>312600</v>
       </c>
       <c r="F41" s="3">
-        <v>247300</v>
+        <v>287500</v>
       </c>
       <c r="G41" s="3">
-        <v>457600</v>
+        <v>235700</v>
       </c>
       <c r="H41" s="3">
-        <v>319400</v>
+        <v>436200</v>
       </c>
       <c r="I41" s="3">
-        <v>224500</v>
+        <v>304500</v>
       </c>
       <c r="J41" s="3">
+        <v>214000</v>
+      </c>
+      <c r="K41" s="3">
         <v>217500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>258100</v>
       </c>
       <c r="L41" s="3">
         <v>258100</v>
       </c>
       <c r="M41" s="3">
+        <v>258100</v>
+      </c>
+      <c r="N41" s="3">
         <v>447900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>409000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>403600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>295100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>380500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>416800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>823100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1014000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>220100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>95700</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="3">
         <v>114300</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>881500</v>
+        <v>705800</v>
       </c>
       <c r="E42" s="3">
-        <v>865500</v>
+        <v>840200</v>
       </c>
       <c r="F42" s="3">
-        <v>889300</v>
+        <v>825000</v>
       </c>
       <c r="G42" s="3">
-        <v>733800</v>
+        <v>847700</v>
       </c>
       <c r="H42" s="3">
-        <v>741700</v>
+        <v>699500</v>
       </c>
       <c r="I42" s="3">
-        <v>736300</v>
+        <v>707000</v>
       </c>
       <c r="J42" s="3">
+        <v>701900</v>
+      </c>
+      <c r="K42" s="3">
         <v>542600</v>
-      </c>
-      <c r="K42" s="3">
-        <v>181700</v>
       </c>
       <c r="L42" s="3">
         <v>181700</v>
       </c>
       <c r="M42" s="3">
+        <v>181700</v>
+      </c>
+      <c r="N42" s="3">
         <v>36200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4600</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>4200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9700</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>44500</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
       <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z42" s="3">
         <v>62600</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>197200</v>
+        <v>80100</v>
       </c>
       <c r="E43" s="3">
-        <v>355100</v>
+        <v>188000</v>
       </c>
       <c r="F43" s="3">
-        <v>411300</v>
+        <v>338400</v>
       </c>
       <c r="G43" s="3">
-        <v>476900</v>
+        <v>392100</v>
       </c>
       <c r="H43" s="3">
-        <v>539500</v>
+        <v>454600</v>
       </c>
       <c r="I43" s="3">
-        <v>615200</v>
+        <v>514200</v>
       </c>
       <c r="J43" s="3">
+        <v>586400</v>
+      </c>
+      <c r="K43" s="3">
         <v>758000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1353300</v>
       </c>
       <c r="L43" s="3">
         <v>1353300</v>
       </c>
       <c r="M43" s="3">
+        <v>1353300</v>
+      </c>
+      <c r="N43" s="3">
         <v>1727600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1748900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1716300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1809200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1495300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1468600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1567100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1362300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1301100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1580900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1456100</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z43" s="3">
         <v>745600</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,256 +3226,268 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>318600</v>
+        <v>406600</v>
       </c>
       <c r="E45" s="3">
-        <v>262100</v>
+        <v>303700</v>
       </c>
       <c r="F45" s="3">
-        <v>220500</v>
+        <v>249800</v>
       </c>
       <c r="G45" s="3">
-        <v>142600</v>
+        <v>210200</v>
       </c>
       <c r="H45" s="3">
-        <v>181200</v>
+        <v>135900</v>
       </c>
       <c r="I45" s="3">
-        <v>131100</v>
+        <v>172700</v>
       </c>
       <c r="J45" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K45" s="3">
         <v>204200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>243700</v>
       </c>
       <c r="L45" s="3">
         <v>243700</v>
       </c>
       <c r="M45" s="3">
+        <v>243700</v>
+      </c>
+      <c r="N45" s="3">
         <v>453500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>427000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>440900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>442900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>328300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>363000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>435700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>265200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>487700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>459300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>117600</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z45" s="3">
         <v>85200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1725200</v>
+        <v>1623800</v>
       </c>
       <c r="E46" s="3">
-        <v>1784200</v>
+        <v>1644500</v>
       </c>
       <c r="F46" s="3">
-        <v>1768400</v>
+        <v>1700800</v>
       </c>
       <c r="G46" s="3">
-        <v>1810900</v>
+        <v>1685700</v>
       </c>
       <c r="H46" s="3">
-        <v>1781800</v>
+        <v>1726200</v>
       </c>
       <c r="I46" s="3">
-        <v>1707200</v>
+        <v>1698500</v>
       </c>
       <c r="J46" s="3">
+        <v>1627300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1722200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>2036700</v>
       </c>
       <c r="L46" s="3">
         <v>2036700</v>
       </c>
       <c r="M46" s="3">
+        <v>2036700</v>
+      </c>
+      <c r="N46" s="3">
         <v>2665200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2589600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2565400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2551700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2204100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2235800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2429200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2450700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2847300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2260300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1669400</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z46" s="3">
         <v>1007700</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56700</v>
+        <v>51400</v>
       </c>
       <c r="E47" s="3">
-        <v>54300</v>
+        <v>54000</v>
       </c>
       <c r="F47" s="3">
-        <v>69800</v>
+        <v>51800</v>
       </c>
       <c r="G47" s="3">
-        <v>90700</v>
+        <v>66600</v>
       </c>
       <c r="H47" s="3">
-        <v>94500</v>
+        <v>86400</v>
       </c>
       <c r="I47" s="3">
-        <v>89200</v>
+        <v>90100</v>
       </c>
       <c r="J47" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K47" s="3">
         <v>95200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>72100</v>
       </c>
       <c r="L47" s="3">
         <v>72100</v>
       </c>
       <c r="M47" s="3">
+        <v>72100</v>
+      </c>
+      <c r="N47" s="3">
         <v>122400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>140700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>240500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>154500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>207400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>104500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>106500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>59100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>9300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>9400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>11100</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z47" s="3">
         <v>22400</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>133700</v>
+        <v>173900</v>
       </c>
       <c r="E48" s="3">
-        <v>140100</v>
+        <v>127400</v>
       </c>
       <c r="F48" s="3">
-        <v>176800</v>
+        <v>133600</v>
       </c>
       <c r="G48" s="3">
-        <v>140500</v>
+        <v>168500</v>
       </c>
       <c r="H48" s="3">
-        <v>95800</v>
+        <v>133900</v>
       </c>
       <c r="I48" s="3">
-        <v>75000</v>
+        <v>91300</v>
       </c>
       <c r="J48" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K48" s="3">
         <v>52200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>37800</v>
       </c>
       <c r="L48" s="3">
         <v>37800</v>
@@ -3388,46 +3496,49 @@
         <v>37800</v>
       </c>
       <c r="N48" s="3">
+        <v>37800</v>
+      </c>
+      <c r="O48" s="3">
         <v>34700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>600</v>
       </c>
       <c r="W48" s="3">
         <v>600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="X48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z48" s="3">
         <v>700</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3435,73 +3546,76 @@
         <v>1600</v>
       </c>
       <c r="E49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G49" s="3">
         <v>1300</v>
       </c>
       <c r="H49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I49" s="3">
         <v>1200</v>
       </c>
       <c r="J49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1000</v>
       </c>
       <c r="L49" s="3">
         <v>1000</v>
       </c>
       <c r="M49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>700</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70400</v>
+        <v>64400</v>
       </c>
       <c r="E52" s="3">
-        <v>77400</v>
+        <v>67100</v>
       </c>
       <c r="F52" s="3">
-        <v>91100</v>
+        <v>73800</v>
       </c>
       <c r="G52" s="3">
-        <v>77600</v>
+        <v>86900</v>
       </c>
       <c r="H52" s="3">
-        <v>79500</v>
+        <v>74000</v>
       </c>
       <c r="I52" s="3">
-        <v>83900</v>
+        <v>75800</v>
       </c>
       <c r="J52" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K52" s="3">
         <v>57800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>71100</v>
       </c>
       <c r="L52" s="3">
         <v>71100</v>
       </c>
       <c r="M52" s="3">
+        <v>71100</v>
+      </c>
+      <c r="N52" s="3">
         <v>48200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>112900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>73400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>51400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>41200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z52" s="3">
         <v>4300</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1987600</v>
+        <v>1915100</v>
       </c>
       <c r="E54" s="3">
-        <v>2057700</v>
+        <v>1894600</v>
       </c>
       <c r="F54" s="3">
-        <v>2107500</v>
+        <v>1961500</v>
       </c>
       <c r="G54" s="3">
-        <v>2120900</v>
+        <v>2008900</v>
       </c>
       <c r="H54" s="3">
-        <v>2053000</v>
+        <v>2021700</v>
       </c>
       <c r="I54" s="3">
-        <v>1956500</v>
+        <v>1956900</v>
       </c>
       <c r="J54" s="3">
+        <v>1865000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1928600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>2218600</v>
       </c>
       <c r="L54" s="3">
         <v>2218600</v>
       </c>
       <c r="M54" s="3">
+        <v>2218600</v>
+      </c>
+      <c r="N54" s="3">
         <v>2874700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2878700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2911700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2787800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2472500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2387100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2580600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2552900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2876200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2280500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1687700</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1035100</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,13 +4131,16 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>16</v>
+      <c r="D58" s="3">
+        <v>35400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>16</v>
@@ -4020,329 +4154,341 @@
       <c r="H58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>56700</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>56700</v>
       </c>
       <c r="M58" s="3">
+        <v>56700</v>
+      </c>
+      <c r="N58" s="3">
         <v>164300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>119800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>505700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>641900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>587300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>698700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>865400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>897200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1184200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1314200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>959700</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z58" s="3">
         <v>608400</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79100</v>
+        <v>100000</v>
       </c>
       <c r="E59" s="3">
-        <v>72100</v>
+        <v>75400</v>
       </c>
       <c r="F59" s="3">
-        <v>72200</v>
+        <v>68700</v>
       </c>
       <c r="G59" s="3">
-        <v>73600</v>
+        <v>68800</v>
       </c>
       <c r="H59" s="3">
-        <v>75100</v>
+        <v>70200</v>
       </c>
       <c r="I59" s="3">
-        <v>69000</v>
+        <v>71600</v>
       </c>
       <c r="J59" s="3">
+        <v>65800</v>
+      </c>
+      <c r="K59" s="3">
         <v>143900</v>
-      </c>
-      <c r="K59" s="3">
-        <v>399800</v>
       </c>
       <c r="L59" s="3">
         <v>399800</v>
       </c>
       <c r="M59" s="3">
+        <v>399800</v>
+      </c>
+      <c r="N59" s="3">
         <v>445800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>458700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>339900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>236100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>176300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>121800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>260600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>206600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>307700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>203900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z59" s="3">
         <v>50100</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>79100</v>
+        <v>135300</v>
       </c>
       <c r="E60" s="3">
-        <v>72100</v>
+        <v>75400</v>
       </c>
       <c r="F60" s="3">
-        <v>72200</v>
+        <v>68700</v>
       </c>
       <c r="G60" s="3">
-        <v>73600</v>
+        <v>68800</v>
       </c>
       <c r="H60" s="3">
-        <v>75100</v>
+        <v>70200</v>
       </c>
       <c r="I60" s="3">
-        <v>69000</v>
+        <v>71600</v>
       </c>
       <c r="J60" s="3">
+        <v>65800</v>
+      </c>
+      <c r="K60" s="3">
         <v>143900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>456500</v>
       </c>
       <c r="L60" s="3">
         <v>456500</v>
       </c>
       <c r="M60" s="3">
+        <v>456500</v>
+      </c>
+      <c r="N60" s="3">
         <v>610200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>578400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>845600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>878100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>763500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>820500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1126000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1103800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1384700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1621900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1163600</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z60" s="3">
         <v>658500</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65100</v>
+        <v>3500</v>
       </c>
       <c r="E61" s="3">
-        <v>120700</v>
+        <v>62000</v>
       </c>
       <c r="F61" s="3">
-        <v>121600</v>
+        <v>115100</v>
       </c>
       <c r="G61" s="3">
-        <v>140600</v>
+        <v>115900</v>
       </c>
       <c r="H61" s="3">
-        <v>142100</v>
+        <v>134000</v>
       </c>
       <c r="I61" s="3">
-        <v>135000</v>
+        <v>135400</v>
       </c>
       <c r="J61" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K61" s="3">
         <v>141100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>215500</v>
       </c>
       <c r="L61" s="3">
         <v>215500</v>
       </c>
       <c r="M61" s="3">
+        <v>215500</v>
+      </c>
+      <c r="N61" s="3">
         <v>366300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>411100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>93200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>91300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>62900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>36600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>75700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>37800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1800</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>11100</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36000</v>
+        <v>66700</v>
       </c>
       <c r="E62" s="3">
-        <v>36100</v>
+        <v>34400</v>
       </c>
       <c r="F62" s="3">
-        <v>75800</v>
+        <v>34400</v>
       </c>
       <c r="G62" s="3">
-        <v>55800</v>
+        <v>72200</v>
       </c>
       <c r="H62" s="3">
-        <v>24900</v>
+        <v>53200</v>
       </c>
       <c r="I62" s="3">
-        <v>13300</v>
+        <v>23800</v>
       </c>
       <c r="J62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>4100</v>
       </c>
       <c r="L62" s="3">
         <v>4100</v>
       </c>
       <c r="M62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N62" s="3">
         <v>31400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>81500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>61700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>181200</v>
+        <v>205600</v>
       </c>
       <c r="E66" s="3">
-        <v>229900</v>
+        <v>172700</v>
       </c>
       <c r="F66" s="3">
-        <v>270700</v>
+        <v>219200</v>
       </c>
       <c r="G66" s="3">
-        <v>271300</v>
+        <v>258000</v>
       </c>
       <c r="H66" s="3">
-        <v>243600</v>
+        <v>258600</v>
       </c>
       <c r="I66" s="3">
-        <v>218800</v>
+        <v>232200</v>
       </c>
       <c r="J66" s="3">
+        <v>208500</v>
+      </c>
+      <c r="K66" s="3">
         <v>287300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>676100</v>
       </c>
       <c r="L66" s="3">
         <v>676100</v>
       </c>
       <c r="M66" s="3">
+        <v>676100</v>
+      </c>
+      <c r="N66" s="3">
         <v>1007900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1071000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>988600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>826400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>849200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1126000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1140400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1460400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1659700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1165300</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z66" s="3">
         <v>669600</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4902,22 +5070,25 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
-        <v>882100</v>
+        <v>0</v>
       </c>
       <c r="W70" s="3">
         <v>882100</v>
       </c>
       <c r="X70" s="3">
-        <v>0</v>
+        <v>882100</v>
       </c>
       <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>864400</v>
       </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1279500</v>
+        <v>1210600</v>
       </c>
       <c r="E72" s="3">
-        <v>1300300</v>
+        <v>1219600</v>
       </c>
       <c r="F72" s="3">
-        <v>1309800</v>
+        <v>1239500</v>
       </c>
       <c r="G72" s="3">
-        <v>1323600</v>
+        <v>1248600</v>
       </c>
       <c r="H72" s="3">
-        <v>1284100</v>
+        <v>1261700</v>
       </c>
       <c r="I72" s="3">
-        <v>1214300</v>
+        <v>1224100</v>
       </c>
       <c r="J72" s="3">
+        <v>1157500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1115900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>1012400</v>
       </c>
       <c r="L72" s="3">
         <v>1012400</v>
       </c>
       <c r="M72" s="3">
+        <v>1012400</v>
+      </c>
+      <c r="N72" s="3">
         <v>1304300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1263200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1117000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>919200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>770800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>624400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>518800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>414900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>366200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-280000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-376600</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-510600</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1806300</v>
+        <v>1709500</v>
       </c>
       <c r="E76" s="3">
-        <v>1827800</v>
+        <v>1721900</v>
       </c>
       <c r="F76" s="3">
-        <v>1836800</v>
+        <v>1742300</v>
       </c>
       <c r="G76" s="3">
-        <v>1849600</v>
+        <v>1750900</v>
       </c>
       <c r="H76" s="3">
-        <v>1809400</v>
+        <v>1763100</v>
       </c>
       <c r="I76" s="3">
-        <v>1737700</v>
+        <v>1724700</v>
       </c>
       <c r="J76" s="3">
+        <v>1656500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1641300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1542600</v>
       </c>
       <c r="L76" s="3">
         <v>1542600</v>
       </c>
       <c r="M76" s="3">
+        <v>1542600</v>
+      </c>
+      <c r="N76" s="3">
         <v>1866800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1807600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1911300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1799100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1646000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1537800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1454600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1412500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1415900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-261400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-359800</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-498900</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20900</v>
+        <v>-8500</v>
       </c>
       <c r="E81" s="3">
-        <v>-9500</v>
+        <v>-19900</v>
       </c>
       <c r="F81" s="3">
-        <v>-13800</v>
+        <v>-9100</v>
       </c>
       <c r="G81" s="3">
-        <v>39400</v>
+        <v>-13100</v>
       </c>
       <c r="H81" s="3">
-        <v>69900</v>
+        <v>37600</v>
       </c>
       <c r="I81" s="3">
-        <v>98400</v>
+        <v>66600</v>
       </c>
       <c r="J81" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K81" s="3">
         <v>86500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-71700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>160700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>178400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>145100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>116800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>99300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>103900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>45300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>80200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>96600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>144500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>67600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>42200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5671,26 +5870,29 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>16</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X83" s="3">
         <v>400</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>100</v>
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>82800</v>
+        <v>50900</v>
       </c>
       <c r="E89" s="3">
-        <v>9000</v>
+        <v>79000</v>
       </c>
       <c r="F89" s="3">
-        <v>12700</v>
+        <v>8600</v>
       </c>
       <c r="G89" s="3">
-        <v>83300</v>
+        <v>12100</v>
       </c>
       <c r="H89" s="3">
-        <v>29600</v>
+        <v>79400</v>
       </c>
       <c r="I89" s="3">
-        <v>63900</v>
+        <v>28200</v>
       </c>
       <c r="J89" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K89" s="3">
         <v>174500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>46800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>76900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>191200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>257300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>198300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>204700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U89" s="3">
         <v>70000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>110100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>132000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>214400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>77300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>54200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6217,26 +6438,29 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>16</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1100</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z91" s="3">
         <v>100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6300</v>
+        <v>202500</v>
       </c>
       <c r="E94" s="3">
-        <v>-381900</v>
+        <v>6000</v>
       </c>
       <c r="F94" s="3">
-        <v>206300</v>
+        <v>-364000</v>
       </c>
       <c r="G94" s="3">
-        <v>66700</v>
+        <v>196600</v>
       </c>
       <c r="H94" s="3">
-        <v>72900</v>
+        <v>63600</v>
       </c>
       <c r="I94" s="3">
-        <v>-903100</v>
+        <v>69500</v>
       </c>
       <c r="J94" s="3">
+        <v>-860900</v>
+      </c>
+      <c r="K94" s="3">
         <v>108400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>106800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>213300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-579900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>67500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>583900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-215000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U94" s="3">
         <v>-182300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>82500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>154700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-341900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-48600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-228600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>55200</v>
+        <v>31600</v>
       </c>
       <c r="E100" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
+        <v>52600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-28500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="3">
-        <v>6300</v>
+      <c r="H100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I100" s="3">
-        <v>-457400</v>
+        <v>6000</v>
       </c>
       <c r="J100" s="3">
+        <v>-436000</v>
+      </c>
+      <c r="K100" s="3">
         <v>47700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>171000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-604400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>295500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-305300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>80300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U100" s="3">
         <v>-270400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>612800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-162300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>106600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>36500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>254400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6905,32 +7154,35 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U101" s="3">
         <v>-20500</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>16</v>
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6979,28 +7231,31 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3">
         <v>-403200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>793900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>124400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-20900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>65100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>79900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14700</v>
+        <v>23000</v>
       </c>
       <c r="E8" s="3">
-        <v>28100</v>
+        <v>15800</v>
       </c>
       <c r="F8" s="3">
-        <v>52700</v>
+        <v>15100</v>
       </c>
       <c r="G8" s="3">
-        <v>48400</v>
+        <v>29000</v>
       </c>
       <c r="H8" s="3">
-        <v>57400</v>
+        <v>54400</v>
       </c>
       <c r="I8" s="3">
+        <v>49900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K8" s="3">
         <v>71800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>99300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>124000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>172000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>141200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>302400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>398900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>346500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>320400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>274300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>280100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>321900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>246300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>221300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>215300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>272100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>121400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>104100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5700</v>
+        <v>10600</v>
       </c>
       <c r="E9" s="3">
-        <v>4500</v>
+        <v>33900</v>
       </c>
       <c r="F9" s="3">
-        <v>5300</v>
+        <v>5900</v>
       </c>
       <c r="G9" s="3">
-        <v>14600</v>
+        <v>4600</v>
       </c>
       <c r="H9" s="3">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="I9" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K9" s="3">
         <v>12700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>28100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>29000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>54000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>14100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>23300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>31800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>44600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>39800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>61300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>101400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>136000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>98500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>45300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>38400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>47000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>17800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>16200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9000</v>
+        <v>12400</v>
       </c>
       <c r="E10" s="3">
-        <v>23600</v>
+        <v>-18100</v>
       </c>
       <c r="F10" s="3">
-        <v>47400</v>
+        <v>9200</v>
       </c>
       <c r="G10" s="3">
-        <v>33800</v>
+        <v>24400</v>
       </c>
       <c r="H10" s="3">
-        <v>48300</v>
+        <v>48900</v>
       </c>
       <c r="I10" s="3">
+        <v>34900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K10" s="3">
         <v>59100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>71300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>95000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>118000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>127100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>279100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>367200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>301800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>280600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>213000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>178700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>185900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>147800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>176000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>176900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>225100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>103600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>87800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2600</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="F12" s="3">
-        <v>3200</v>
-      </c>
       <c r="G12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J12" s="3">
         <v>5600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="N12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="O12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="R12" s="3">
+        <v>9800</v>
+      </c>
+      <c r="S12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="T12" s="3">
+        <v>11900</v>
+      </c>
+      <c r="U12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="W12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="X12" s="3">
         <v>5500</v>
       </c>
-      <c r="J12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>7500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>5400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>6800</v>
-      </c>
-      <c r="P12" s="3">
-        <v>9800</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>9700</v>
-      </c>
-      <c r="R12" s="3">
-        <v>11900</v>
-      </c>
-      <c r="S12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>5300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="V12" s="3">
-        <v>5500</v>
-      </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>7800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>9400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>3600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>4000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,25 +1219,31 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6300</v>
+        <v>14900</v>
       </c>
       <c r="E14" s="3">
-        <v>15800</v>
+        <v>800</v>
       </c>
       <c r="F14" s="3">
-        <v>21800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>6500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>22500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
@@ -1215,11 +1254,11 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>18800</v>
+        <v>13500</v>
       </c>
       <c r="E17" s="3">
-        <v>37300</v>
+        <v>58900</v>
       </c>
       <c r="F17" s="3">
-        <v>46100</v>
+        <v>19400</v>
       </c>
       <c r="G17" s="3">
-        <v>36800</v>
+        <v>38500</v>
       </c>
       <c r="H17" s="3">
-        <v>11800</v>
+        <v>47500</v>
       </c>
       <c r="I17" s="3">
+        <v>38000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>11900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>125900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>282800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>266900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>211200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>149200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>146500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>139500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>178100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>210900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>199500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>138300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>112100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>99000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>40200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>49800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-4100</v>
+        <v>9500</v>
       </c>
       <c r="E18" s="3">
-        <v>-9300</v>
+        <v>-43100</v>
       </c>
       <c r="F18" s="3">
-        <v>6700</v>
+        <v>-4200</v>
       </c>
       <c r="G18" s="3">
-        <v>11500</v>
+        <v>-9500</v>
       </c>
       <c r="H18" s="3">
-        <v>45600</v>
+        <v>6900</v>
       </c>
       <c r="I18" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K18" s="3">
         <v>64700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>103900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>112100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>46000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-141600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>35500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>187800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>197200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>173900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>134800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>102100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>111000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>46800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>83000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>103300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>173100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>81200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>54300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,85 +1614,93 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>71500</v>
       </c>
       <c r="E20" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-17800</v>
-      </c>
       <c r="H20" s="3">
-        <v>2400</v>
+        <v>-8400</v>
       </c>
       <c r="I20" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>12900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-7500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>65800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-6400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1691,20 +1764,26 @@
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3">
         <v>173300</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="3">
         <v>51100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7500</v>
+        <v>81000</v>
       </c>
       <c r="E23" s="3">
-        <v>-6800</v>
+        <v>-104900</v>
       </c>
       <c r="F23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>48000</v>
-      </c>
       <c r="I23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K23" s="3">
         <v>77600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>104400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>105700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>38500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-75800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>34200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>189100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>202200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>175400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>128400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>98200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>115400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>46600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>82900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>103400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>172800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>81000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>51000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>13100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>7700</v>
-      </c>
       <c r="G24" s="3">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="H24" s="3">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="I24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>10600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>19200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-4100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>14200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>28400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>23800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>30300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>11600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>2800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>6800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>28300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>13400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>8800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8500</v>
+        <v>70400</v>
       </c>
       <c r="E26" s="3">
-        <v>-19900</v>
+        <v>-93100</v>
       </c>
       <c r="F26" s="3">
-        <v>-9200</v>
+        <v>-8800</v>
       </c>
       <c r="G26" s="3">
-        <v>-13300</v>
+        <v>-20500</v>
       </c>
       <c r="H26" s="3">
-        <v>37500</v>
+        <v>-9500</v>
       </c>
       <c r="I26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K26" s="3">
         <v>66600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>93800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>86500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>26400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-71700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>20000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>160700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>178400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>145100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>116800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>99300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>103900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>45300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>80200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>96600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>144500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>67600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>42200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8500</v>
+        <v>70400</v>
       </c>
       <c r="E27" s="3">
-        <v>-19900</v>
+        <v>-93100</v>
       </c>
       <c r="F27" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="G27" s="3">
-        <v>-13100</v>
+        <v>-20500</v>
       </c>
       <c r="H27" s="3">
-        <v>37600</v>
+        <v>-9300</v>
       </c>
       <c r="I27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K27" s="3">
         <v>66600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>93800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>86500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>26400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-71700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>20000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>160700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>178400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>145100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>116800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>99300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>103900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>45300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>80200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>96600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>144500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>67600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>42200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>-71500</v>
       </c>
       <c r="E32" s="3">
+        <v>61800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>17800</v>
-      </c>
       <c r="H32" s="3">
-        <v>-2400</v>
+        <v>8400</v>
       </c>
       <c r="I32" s="3">
+        <v>18400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>7500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-65800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>6400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>3300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8500</v>
+        <v>70400</v>
       </c>
       <c r="E33" s="3">
-        <v>-19900</v>
+        <v>-93100</v>
       </c>
       <c r="F33" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="G33" s="3">
-        <v>-13100</v>
+        <v>-20500</v>
       </c>
       <c r="H33" s="3">
-        <v>37600</v>
+        <v>-9300</v>
       </c>
       <c r="I33" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K33" s="3">
         <v>66600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>93800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>86500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>26400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-71700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>20000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>160700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>178400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>145100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>116800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>99300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>103900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>45300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>80200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>96600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>144500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>67600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>42200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8500</v>
+        <v>70400</v>
       </c>
       <c r="E35" s="3">
-        <v>-19900</v>
+        <v>-93100</v>
       </c>
       <c r="F35" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="G35" s="3">
-        <v>-13100</v>
+        <v>-20500</v>
       </c>
       <c r="H35" s="3">
-        <v>37600</v>
+        <v>-9300</v>
       </c>
       <c r="I35" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K35" s="3">
         <v>66600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>93800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>86500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>26400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-71700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>20000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>160700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>178400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>145100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>116800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>99300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>103900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>45300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>80200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>96600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>144500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>67600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>42200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,239 +3092,259 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>431400</v>
+        <v>503000</v>
       </c>
       <c r="E41" s="3">
-        <v>312600</v>
+        <v>431300</v>
       </c>
       <c r="F41" s="3">
-        <v>287500</v>
+        <v>445100</v>
       </c>
       <c r="G41" s="3">
-        <v>235700</v>
+        <v>322500</v>
       </c>
       <c r="H41" s="3">
-        <v>436200</v>
+        <v>296600</v>
       </c>
       <c r="I41" s="3">
+        <v>243200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>450100</v>
+      </c>
+      <c r="K41" s="3">
         <v>304500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>214000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>217500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>258100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>258100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>447900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>409000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>403600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>295100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>380500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>416800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>823100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1014000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>220100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>95700</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB41" s="3">
         <v>114300</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>705800</v>
+        <v>772400</v>
       </c>
       <c r="E42" s="3">
-        <v>840200</v>
+        <v>709700</v>
       </c>
       <c r="F42" s="3">
-        <v>825000</v>
+        <v>728200</v>
       </c>
       <c r="G42" s="3">
-        <v>847700</v>
+        <v>866900</v>
       </c>
       <c r="H42" s="3">
-        <v>699500</v>
+        <v>851200</v>
       </c>
       <c r="I42" s="3">
+        <v>874700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>721700</v>
+      </c>
+      <c r="K42" s="3">
         <v>707000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>701900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>542600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>181700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>181700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>36200</v>
-      </c>
-      <c r="O42" s="3">
-        <v>4600</v>
-      </c>
-      <c r="P42" s="3">
-        <v>4700</v>
       </c>
       <c r="Q42" s="3">
         <v>4600</v>
       </c>
       <c r="R42" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="S42" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>4200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>9700</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>44500</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>16</v>
+      <c r="Y42" s="3">
+        <v>0</v>
       </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB42" s="3">
         <v>62600</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>80100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>188000</v>
+        <v>11700</v>
       </c>
       <c r="F43" s="3">
-        <v>338400</v>
+        <v>82600</v>
       </c>
       <c r="G43" s="3">
-        <v>392100</v>
+        <v>194000</v>
       </c>
       <c r="H43" s="3">
-        <v>454600</v>
+        <v>349200</v>
       </c>
       <c r="I43" s="3">
+        <v>404500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>469000</v>
+      </c>
+      <c r="K43" s="3">
         <v>514200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>586400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>758000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1353300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1353300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1727600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1748900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1716300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1809200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1495300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1468600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1567100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1362300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1301100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1580900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1456100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB43" s="3">
         <v>745600</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,393 +3420,429 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>406600</v>
+        <v>312600</v>
       </c>
       <c r="E45" s="3">
-        <v>303700</v>
+        <v>434900</v>
       </c>
       <c r="F45" s="3">
-        <v>249800</v>
+        <v>419500</v>
       </c>
       <c r="G45" s="3">
-        <v>210200</v>
+        <v>313400</v>
       </c>
       <c r="H45" s="3">
-        <v>135900</v>
+        <v>257700</v>
       </c>
       <c r="I45" s="3">
+        <v>216800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K45" s="3">
         <v>172700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>125000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>204200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>243700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>243700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>453500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>427000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>440900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>442900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>328300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>363000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>435700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>265200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>487700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>459300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>117600</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB45" s="3">
         <v>85200</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1623800</v>
+        <v>1588200</v>
       </c>
       <c r="E46" s="3">
-        <v>1644500</v>
+        <v>1587600</v>
       </c>
       <c r="F46" s="3">
-        <v>1700800</v>
+        <v>1675400</v>
       </c>
       <c r="G46" s="3">
-        <v>1685700</v>
+        <v>1696700</v>
       </c>
       <c r="H46" s="3">
-        <v>1726200</v>
+        <v>1754800</v>
       </c>
       <c r="I46" s="3">
+        <v>1739200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1781000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1698500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1627300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1722200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2036700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2036700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2665200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2589600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2565400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2551700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2204100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2235800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2429200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2450700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2847300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2260300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1669400</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB46" s="3">
         <v>1007700</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51400</v>
+        <v>50300</v>
       </c>
       <c r="E47" s="3">
-        <v>54000</v>
+        <v>55200</v>
       </c>
       <c r="F47" s="3">
-        <v>51800</v>
+        <v>53000</v>
       </c>
       <c r="G47" s="3">
-        <v>66600</v>
+        <v>55700</v>
       </c>
       <c r="H47" s="3">
-        <v>86400</v>
+        <v>53400</v>
       </c>
       <c r="I47" s="3">
+        <v>68700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K47" s="3">
         <v>90100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>85100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>95200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>72100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>72100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>122400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>140700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>240500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>154500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>207400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>104500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>106500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>59100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>9300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>9400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>11100</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB47" s="3">
         <v>22400</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>129700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>179400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>131500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>137800</v>
+      </c>
+      <c r="I48" s="3">
         <v>173900</v>
       </c>
-      <c r="E48" s="3">
-        <v>127400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>133600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>168500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>133900</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>138200</v>
+      </c>
+      <c r="K48" s="3">
         <v>91300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>71500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>52200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>37800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>37800</v>
       </c>
       <c r="N48" s="3">
         <v>37800</v>
       </c>
       <c r="O48" s="3">
+        <v>37800</v>
+      </c>
+      <c r="P48" s="3">
+        <v>37800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>34700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>31400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>29100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>16800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>600</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB48" s="3">
         <v>700</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1500</v>
-      </c>
       <c r="G49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I49" s="3">
         <v>1300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>1200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>900</v>
+      </c>
+      <c r="R49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T49" s="3">
+        <v>17300</v>
+      </c>
+      <c r="U49" s="3">
+        <v>16500</v>
+      </c>
+      <c r="V49" s="3">
         <v>1200</v>
       </c>
-      <c r="K49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="W49" s="3">
+        <v>800</v>
+      </c>
+      <c r="X49" s="3">
         <v>900</v>
       </c>
-      <c r="P49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>17300</v>
-      </c>
-      <c r="S49" s="3">
-        <v>16500</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1200</v>
-      </c>
-      <c r="U49" s="3">
-        <v>800</v>
-      </c>
-      <c r="V49" s="3">
-        <v>900</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>700</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>0</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64400</v>
+        <v>64800</v>
       </c>
       <c r="E52" s="3">
-        <v>67100</v>
+        <v>74200</v>
       </c>
       <c r="F52" s="3">
-        <v>73800</v>
+        <v>66400</v>
       </c>
       <c r="G52" s="3">
-        <v>86900</v>
+        <v>69300</v>
       </c>
       <c r="H52" s="3">
-        <v>74000</v>
+        <v>76200</v>
       </c>
       <c r="I52" s="3">
+        <v>89600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>76300</v>
+      </c>
+      <c r="K52" s="3">
         <v>75800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>79900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>57800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>71100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>71100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>48200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>112900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>73400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>51400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>39600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>26500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>26800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>41200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>18100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>9600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>5800</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB52" s="3">
         <v>4300</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1915100</v>
+        <v>1830600</v>
       </c>
       <c r="E54" s="3">
-        <v>1894600</v>
+        <v>1848100</v>
       </c>
       <c r="F54" s="3">
-        <v>1961500</v>
+        <v>1975900</v>
       </c>
       <c r="G54" s="3">
-        <v>2008900</v>
+        <v>1954800</v>
       </c>
       <c r="H54" s="3">
-        <v>2021700</v>
+        <v>2023800</v>
       </c>
       <c r="I54" s="3">
+        <v>2072700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2085900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1956900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1865000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1928600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2218600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2218600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2874700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2878700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2911700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2787800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2472500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2387100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2580600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2552900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2876200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2280500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1687700</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB54" s="3">
         <v>1035100</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4316,10 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,19 +4395,25 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>35400</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>36500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>16</v>
@@ -4157,344 +4424,368 @@
       <c r="I58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>56700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>56700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>164300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>119800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>505700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>641900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>587300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>698700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>865400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>897200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1184200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1314200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>959700</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB58" s="3">
         <v>608400</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100000</v>
+        <v>79800</v>
       </c>
       <c r="E59" s="3">
-        <v>75400</v>
+        <v>151200</v>
       </c>
       <c r="F59" s="3">
-        <v>68700</v>
+        <v>103100</v>
       </c>
       <c r="G59" s="3">
-        <v>68800</v>
+        <v>77800</v>
       </c>
       <c r="H59" s="3">
-        <v>70200</v>
+        <v>70900</v>
       </c>
       <c r="I59" s="3">
+        <v>71000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K59" s="3">
         <v>71600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>65800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>143900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>399800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>399800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>445800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>458700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>339900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>236100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>176300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>121800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>260600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>206600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>200400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>307700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>203900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB59" s="3">
         <v>50100</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>135300</v>
+        <v>84000</v>
       </c>
       <c r="E60" s="3">
-        <v>75400</v>
+        <v>168500</v>
       </c>
       <c r="F60" s="3">
-        <v>68700</v>
+        <v>139600</v>
       </c>
       <c r="G60" s="3">
-        <v>68800</v>
+        <v>77800</v>
       </c>
       <c r="H60" s="3">
-        <v>70200</v>
+        <v>70900</v>
       </c>
       <c r="I60" s="3">
+        <v>71000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K60" s="3">
         <v>71600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>65800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>143900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>456500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>456500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>610200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>578400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>845600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>878100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>763500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>820500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1126000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1103800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1384700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1621900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1163600</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB60" s="3">
         <v>658500</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3500</v>
+        <v>16700</v>
       </c>
       <c r="E61" s="3">
-        <v>62000</v>
+        <v>3600</v>
       </c>
       <c r="F61" s="3">
-        <v>115100</v>
+        <v>3600</v>
       </c>
       <c r="G61" s="3">
-        <v>115900</v>
+        <v>64000</v>
       </c>
       <c r="H61" s="3">
-        <v>134000</v>
+        <v>118700</v>
       </c>
       <c r="I61" s="3">
+        <v>119600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K61" s="3">
         <v>135400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>128700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>141100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>215500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>215500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>366300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>411100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>93200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>91300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>62900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>28800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>36600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>75700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>37800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1800</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>11100</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66700</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>34400</v>
+        <v>6400</v>
       </c>
       <c r="F62" s="3">
-        <v>34400</v>
+        <v>68800</v>
       </c>
       <c r="G62" s="3">
-        <v>72200</v>
+        <v>35400</v>
       </c>
       <c r="H62" s="3">
-        <v>53200</v>
+        <v>35500</v>
       </c>
       <c r="I62" s="3">
+        <v>74500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>54800</v>
+      </c>
+      <c r="K62" s="3">
         <v>23800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>31400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>81500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>61700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>19300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>205600</v>
+        <v>101100</v>
       </c>
       <c r="E66" s="3">
-        <v>172700</v>
+        <v>178500</v>
       </c>
       <c r="F66" s="3">
-        <v>219200</v>
+        <v>212100</v>
       </c>
       <c r="G66" s="3">
-        <v>258000</v>
+        <v>178200</v>
       </c>
       <c r="H66" s="3">
-        <v>258600</v>
+        <v>226100</v>
       </c>
       <c r="I66" s="3">
+        <v>266200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>266800</v>
+      </c>
+      <c r="K66" s="3">
         <v>232200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>208500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>287300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>676100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>676100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1007900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1071000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>988600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>826400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>849200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1126000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1140400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1460400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1659700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1165300</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB66" s="3">
         <v>669600</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5073,22 +5408,28 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>882100</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>882100</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
         <v>864400</v>
       </c>
-      <c r="AA70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1210600</v>
+        <v>1226400</v>
       </c>
       <c r="E72" s="3">
-        <v>1219600</v>
+        <v>1156000</v>
       </c>
       <c r="F72" s="3">
-        <v>1239500</v>
+        <v>1249100</v>
       </c>
       <c r="G72" s="3">
-        <v>1248600</v>
+        <v>1258300</v>
       </c>
       <c r="H72" s="3">
-        <v>1261700</v>
+        <v>1278900</v>
       </c>
       <c r="I72" s="3">
+        <v>1288200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1301700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1224100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1157500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1115900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1012400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1012400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1304300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1263200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1117000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>919200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>770800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>624400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>518800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>414900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>366200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-280000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-376600</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-510600</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1709500</v>
+        <v>1729600</v>
       </c>
       <c r="E76" s="3">
-        <v>1721900</v>
+        <v>1669600</v>
       </c>
       <c r="F76" s="3">
-        <v>1742300</v>
+        <v>1763800</v>
       </c>
       <c r="G76" s="3">
-        <v>1750900</v>
+        <v>1776500</v>
       </c>
       <c r="H76" s="3">
-        <v>1763100</v>
+        <v>1797600</v>
       </c>
       <c r="I76" s="3">
+        <v>1806500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1819100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1724700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1656500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1641300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1542600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1542600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1866800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1807600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1911300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1799100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1646000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1537800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1454600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1412500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1415900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-261400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-359800</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-498900</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8500</v>
+        <v>70400</v>
       </c>
       <c r="E81" s="3">
-        <v>-19900</v>
+        <v>-93100</v>
       </c>
       <c r="F81" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="G81" s="3">
-        <v>-13100</v>
+        <v>-20500</v>
       </c>
       <c r="H81" s="3">
-        <v>37600</v>
+        <v>-9300</v>
       </c>
       <c r="I81" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K81" s="3">
         <v>66600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>93800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>86500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>26400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-71700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>20000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>160700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>178400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>145100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>116800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>99300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>103900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>45300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>80200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>96600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>144500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>67600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>42200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5873,26 +6270,32 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z83" s="3">
         <v>400</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB83" s="3">
         <v>100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50900</v>
+        <v>-174900</v>
       </c>
       <c r="E89" s="3">
-        <v>79000</v>
+        <v>67400</v>
       </c>
       <c r="F89" s="3">
-        <v>8600</v>
+        <v>52500</v>
       </c>
       <c r="G89" s="3">
-        <v>12100</v>
+        <v>81500</v>
       </c>
       <c r="H89" s="3">
-        <v>79400</v>
+        <v>8900</v>
       </c>
       <c r="I89" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K89" s="3">
         <v>28200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>60900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>174500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>46800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>76900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>191200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>257300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>198300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>204700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W89" s="3">
         <v>70000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>110100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>132000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>214400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>77300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>54200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6441,26 +6882,32 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB91" s="3">
         <v>100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>202500</v>
+        <v>47700</v>
       </c>
       <c r="E94" s="3">
-        <v>6000</v>
+        <v>71800</v>
       </c>
       <c r="F94" s="3">
-        <v>-364000</v>
+        <v>208900</v>
       </c>
       <c r="G94" s="3">
-        <v>196600</v>
+        <v>6200</v>
       </c>
       <c r="H94" s="3">
-        <v>63600</v>
+        <v>-375600</v>
       </c>
       <c r="I94" s="3">
+        <v>202900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K94" s="3">
         <v>69500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-860900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>108400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>106800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>213300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-579900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>67500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>583900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-215000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W94" s="3">
         <v>-182300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>82500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>154700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-341900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-48600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-228600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7512,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>31600</v>
+        <v>7400</v>
       </c>
       <c r="E100" s="3">
-        <v>52600</v>
+        <v>25600</v>
       </c>
       <c r="F100" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="3">
+        <v>32600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>54300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="3">
         <v>6000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-436000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>47700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>7900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>171000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-604400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>295500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-305300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>80300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W100" s="3">
         <v>-270400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>612800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-162300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>106600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>36500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>254400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7157,32 +7654,38 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W101" s="3">
         <v>-20500</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7234,28 +7737,34 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W102" s="3">
         <v>-403200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>793900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>124400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-20900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>65100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>79900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23000</v>
+        <v>22800</v>
       </c>
       <c r="E8" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="F8" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="G8" s="3">
-        <v>29000</v>
+        <v>28700</v>
       </c>
       <c r="H8" s="3">
-        <v>54400</v>
+        <v>53900</v>
       </c>
       <c r="I8" s="3">
-        <v>49900</v>
+        <v>49400</v>
       </c>
       <c r="J8" s="3">
-        <v>59200</v>
+        <v>58600</v>
       </c>
       <c r="K8" s="3">
         <v>71800</v>
@@ -868,25 +868,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="E9" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="F9" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G9" s="3">
         <v>4600</v>
       </c>
       <c r="H9" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="I9" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="J9" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="K9" s="3">
         <v>12700</v>
@@ -951,25 +951,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="E10" s="3">
-        <v>-18100</v>
+        <v>-17900</v>
       </c>
       <c r="F10" s="3">
-        <v>9200</v>
+        <v>9100</v>
       </c>
       <c r="G10" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="H10" s="3">
-        <v>48900</v>
+        <v>48400</v>
       </c>
       <c r="I10" s="3">
-        <v>34900</v>
+        <v>34500</v>
       </c>
       <c r="J10" s="3">
-        <v>49900</v>
+        <v>49400</v>
       </c>
       <c r="K10" s="3">
         <v>59100</v>
@@ -1077,10 +1077,10 @@
         <v>2800</v>
       </c>
       <c r="H12" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I12" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="J12" s="3">
         <v>5600</v>
@@ -1231,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="E14" s="3">
         <v>800</v>
@@ -1240,10 +1240,10 @@
         <v>6500</v>
       </c>
       <c r="G14" s="3">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="H14" s="3">
-        <v>22500</v>
+        <v>22200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>16</v>
@@ -1425,25 +1425,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="E17" s="3">
-        <v>58900</v>
+        <v>58300</v>
       </c>
       <c r="F17" s="3">
-        <v>19400</v>
+        <v>19200</v>
       </c>
       <c r="G17" s="3">
-        <v>38500</v>
+        <v>38100</v>
       </c>
       <c r="H17" s="3">
-        <v>47500</v>
+        <v>47100</v>
       </c>
       <c r="I17" s="3">
-        <v>38000</v>
+        <v>37600</v>
       </c>
       <c r="J17" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="K17" s="3">
         <v>7100</v>
@@ -1508,25 +1508,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="E18" s="3">
-        <v>-43100</v>
+        <v>-42600</v>
       </c>
       <c r="F18" s="3">
         <v>-4200</v>
       </c>
       <c r="G18" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="H18" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="I18" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="J18" s="3">
-        <v>47000</v>
+        <v>46500</v>
       </c>
       <c r="K18" s="3">
         <v>64700</v>
@@ -1622,22 +1622,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>71500</v>
+        <v>70700</v>
       </c>
       <c r="E20" s="3">
-        <v>-61800</v>
+        <v>-61200</v>
       </c>
       <c r="F20" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="G20" s="3">
         <v>2500</v>
       </c>
       <c r="H20" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="I20" s="3">
-        <v>-18400</v>
+        <v>-18200</v>
       </c>
       <c r="J20" s="3">
         <v>2500</v>
@@ -1871,25 +1871,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>81000</v>
+        <v>80100</v>
       </c>
       <c r="E23" s="3">
-        <v>-104900</v>
+        <v>-103800</v>
       </c>
       <c r="F23" s="3">
-        <v>-7800</v>
+        <v>-7700</v>
       </c>
       <c r="G23" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="H23" s="3">
         <v>-1500</v>
       </c>
       <c r="I23" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="J23" s="3">
-        <v>49500</v>
+        <v>49000</v>
       </c>
       <c r="K23" s="3">
         <v>77600</v>
@@ -1954,25 +1954,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="E24" s="3">
-        <v>-11800</v>
+        <v>-11700</v>
       </c>
       <c r="F24" s="3">
         <v>1000</v>
       </c>
       <c r="G24" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="H24" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="I24" s="3">
         <v>7200</v>
       </c>
       <c r="J24" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="K24" s="3">
         <v>11000</v>
@@ -2120,25 +2120,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>70400</v>
+        <v>69700</v>
       </c>
       <c r="E26" s="3">
-        <v>-93100</v>
+        <v>-92100</v>
       </c>
       <c r="F26" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="G26" s="3">
-        <v>-20500</v>
+        <v>-20300</v>
       </c>
       <c r="H26" s="3">
-        <v>-9500</v>
+        <v>-9400</v>
       </c>
       <c r="I26" s="3">
-        <v>-13700</v>
+        <v>-13600</v>
       </c>
       <c r="J26" s="3">
-        <v>38700</v>
+        <v>38300</v>
       </c>
       <c r="K26" s="3">
         <v>66600</v>
@@ -2203,25 +2203,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>70400</v>
+        <v>69700</v>
       </c>
       <c r="E27" s="3">
-        <v>-93100</v>
+        <v>-92100</v>
       </c>
       <c r="F27" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="G27" s="3">
-        <v>-20500</v>
+        <v>-20300</v>
       </c>
       <c r="H27" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="I27" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="J27" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="K27" s="3">
         <v>66600</v>
@@ -2618,22 +2618,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71500</v>
+        <v>-70700</v>
       </c>
       <c r="E32" s="3">
-        <v>61800</v>
+        <v>61200</v>
       </c>
       <c r="F32" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G32" s="3">
         <v>-2500</v>
       </c>
       <c r="H32" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="I32" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="J32" s="3">
         <v>-2500</v>
@@ -2701,25 +2701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>70400</v>
+        <v>69700</v>
       </c>
       <c r="E33" s="3">
-        <v>-93100</v>
+        <v>-92100</v>
       </c>
       <c r="F33" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="G33" s="3">
-        <v>-20500</v>
+        <v>-20300</v>
       </c>
       <c r="H33" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="I33" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="J33" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="K33" s="3">
         <v>66600</v>
@@ -2867,25 +2867,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>70400</v>
+        <v>69700</v>
       </c>
       <c r="E35" s="3">
-        <v>-93100</v>
+        <v>-92100</v>
       </c>
       <c r="F35" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="G35" s="3">
-        <v>-20500</v>
+        <v>-20300</v>
       </c>
       <c r="H35" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="I35" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="J35" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="K35" s="3">
         <v>66600</v>
@@ -3100,25 +3100,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>503000</v>
+        <v>495600</v>
       </c>
       <c r="E41" s="3">
-        <v>431300</v>
+        <v>426900</v>
       </c>
       <c r="F41" s="3">
-        <v>445100</v>
+        <v>440500</v>
       </c>
       <c r="G41" s="3">
-        <v>322500</v>
+        <v>319200</v>
       </c>
       <c r="H41" s="3">
-        <v>296600</v>
+        <v>293600</v>
       </c>
       <c r="I41" s="3">
-        <v>243200</v>
+        <v>240700</v>
       </c>
       <c r="J41" s="3">
-        <v>450100</v>
+        <v>445400</v>
       </c>
       <c r="K41" s="3">
         <v>304500</v>
@@ -3183,25 +3183,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>772400</v>
+        <v>764500</v>
       </c>
       <c r="E42" s="3">
-        <v>709700</v>
+        <v>702400</v>
       </c>
       <c r="F42" s="3">
-        <v>728200</v>
+        <v>720700</v>
       </c>
       <c r="G42" s="3">
-        <v>866900</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="3">
-        <v>851200</v>
+        <v>842500</v>
       </c>
       <c r="I42" s="3">
-        <v>874700</v>
+        <v>865700</v>
       </c>
       <c r="J42" s="3">
-        <v>721700</v>
+        <v>714300</v>
       </c>
       <c r="K42" s="3">
         <v>707000</v>
@@ -3269,22 +3269,22 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="F43" s="3">
-        <v>82600</v>
+        <v>81800</v>
       </c>
       <c r="G43" s="3">
-        <v>194000</v>
+        <v>192000</v>
       </c>
       <c r="H43" s="3">
-        <v>349200</v>
+        <v>345600</v>
       </c>
       <c r="I43" s="3">
-        <v>404500</v>
+        <v>400400</v>
       </c>
       <c r="J43" s="3">
-        <v>469000</v>
+        <v>464200</v>
       </c>
       <c r="K43" s="3">
         <v>514200</v>
@@ -3432,25 +3432,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>312600</v>
+        <v>311700</v>
       </c>
       <c r="E45" s="3">
-        <v>434900</v>
+        <v>430500</v>
       </c>
       <c r="F45" s="3">
-        <v>419500</v>
+        <v>415200</v>
       </c>
       <c r="G45" s="3">
-        <v>313400</v>
+        <v>310100</v>
       </c>
       <c r="H45" s="3">
-        <v>257700</v>
+        <v>255100</v>
       </c>
       <c r="I45" s="3">
-        <v>216800</v>
+        <v>214600</v>
       </c>
       <c r="J45" s="3">
-        <v>140200</v>
+        <v>138800</v>
       </c>
       <c r="K45" s="3">
         <v>172700</v>
@@ -3515,25 +3515,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1588200</v>
+        <v>1572000</v>
       </c>
       <c r="E46" s="3">
-        <v>1587600</v>
+        <v>1571300</v>
       </c>
       <c r="F46" s="3">
-        <v>1675400</v>
+        <v>1658300</v>
       </c>
       <c r="G46" s="3">
-        <v>1696700</v>
+        <v>1679400</v>
       </c>
       <c r="H46" s="3">
-        <v>1754800</v>
+        <v>1736800</v>
       </c>
       <c r="I46" s="3">
-        <v>1739200</v>
+        <v>1721400</v>
       </c>
       <c r="J46" s="3">
-        <v>1781000</v>
+        <v>1762700</v>
       </c>
       <c r="K46" s="3">
         <v>1698500</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50300</v>
+        <v>49800</v>
       </c>
       <c r="E47" s="3">
+        <v>54700</v>
+      </c>
+      <c r="F47" s="3">
+        <v>52500</v>
+      </c>
+      <c r="G47" s="3">
         <v>55200</v>
       </c>
-      <c r="F47" s="3">
-        <v>53000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>55700</v>
-      </c>
       <c r="H47" s="3">
-        <v>53400</v>
+        <v>52900</v>
       </c>
       <c r="I47" s="3">
-        <v>68700</v>
+        <v>68000</v>
       </c>
       <c r="J47" s="3">
-        <v>89200</v>
+        <v>88200</v>
       </c>
       <c r="K47" s="3">
         <v>90100</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>126000</v>
+        <v>124700</v>
       </c>
       <c r="E48" s="3">
-        <v>129700</v>
+        <v>128400</v>
       </c>
       <c r="F48" s="3">
-        <v>179400</v>
+        <v>177600</v>
       </c>
       <c r="G48" s="3">
-        <v>131500</v>
+        <v>130100</v>
       </c>
       <c r="H48" s="3">
-        <v>137800</v>
+        <v>136400</v>
       </c>
       <c r="I48" s="3">
-        <v>173900</v>
+        <v>172100</v>
       </c>
       <c r="J48" s="3">
-        <v>138200</v>
+        <v>136800</v>
       </c>
       <c r="K48" s="3">
         <v>91300</v>
@@ -3782,7 +3782,7 @@
         <v>1300</v>
       </c>
       <c r="J49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K49" s="3">
         <v>1200</v>
@@ -4013,25 +4013,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64800</v>
+        <v>64100</v>
       </c>
       <c r="E52" s="3">
-        <v>74200</v>
+        <v>73400</v>
       </c>
       <c r="F52" s="3">
-        <v>66400</v>
+        <v>65800</v>
       </c>
       <c r="G52" s="3">
-        <v>69300</v>
+        <v>68600</v>
       </c>
       <c r="H52" s="3">
-        <v>76200</v>
+        <v>75400</v>
       </c>
       <c r="I52" s="3">
-        <v>89600</v>
+        <v>88700</v>
       </c>
       <c r="J52" s="3">
-        <v>76300</v>
+        <v>75500</v>
       </c>
       <c r="K52" s="3">
         <v>75800</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1830600</v>
+        <v>1811900</v>
       </c>
       <c r="E54" s="3">
-        <v>1848100</v>
+        <v>1829200</v>
       </c>
       <c r="F54" s="3">
-        <v>1975900</v>
+        <v>1955600</v>
       </c>
       <c r="G54" s="3">
-        <v>1954800</v>
+        <v>1934700</v>
       </c>
       <c r="H54" s="3">
-        <v>2023800</v>
+        <v>2003100</v>
       </c>
       <c r="I54" s="3">
-        <v>2072700</v>
+        <v>2051500</v>
       </c>
       <c r="J54" s="3">
-        <v>2085900</v>
+        <v>2064500</v>
       </c>
       <c r="K54" s="3">
         <v>1956900</v>
@@ -4407,13 +4407,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E58" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="F58" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>16</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79800</v>
+        <v>79000</v>
       </c>
       <c r="E59" s="3">
-        <v>151200</v>
+        <v>149700</v>
       </c>
       <c r="F59" s="3">
-        <v>103100</v>
+        <v>102100</v>
       </c>
       <c r="G59" s="3">
-        <v>77800</v>
+        <v>77000</v>
       </c>
       <c r="H59" s="3">
-        <v>70900</v>
+        <v>70200</v>
       </c>
       <c r="I59" s="3">
-        <v>71000</v>
+        <v>70300</v>
       </c>
       <c r="J59" s="3">
-        <v>72400</v>
+        <v>71600</v>
       </c>
       <c r="K59" s="3">
         <v>71600</v>
@@ -4573,25 +4573,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>84000</v>
+        <v>83100</v>
       </c>
       <c r="E60" s="3">
-        <v>168500</v>
+        <v>166700</v>
       </c>
       <c r="F60" s="3">
-        <v>139600</v>
+        <v>138200</v>
       </c>
       <c r="G60" s="3">
-        <v>77800</v>
+        <v>77000</v>
       </c>
       <c r="H60" s="3">
-        <v>70900</v>
+        <v>70200</v>
       </c>
       <c r="I60" s="3">
-        <v>71000</v>
+        <v>70300</v>
       </c>
       <c r="J60" s="3">
-        <v>72400</v>
+        <v>71600</v>
       </c>
       <c r="K60" s="3">
         <v>71600</v>
@@ -4656,7 +4656,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="E61" s="3">
         <v>3600</v>
@@ -4665,16 +4665,16 @@
         <v>3600</v>
       </c>
       <c r="G61" s="3">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="H61" s="3">
-        <v>118700</v>
+        <v>117500</v>
       </c>
       <c r="I61" s="3">
-        <v>119600</v>
+        <v>118300</v>
       </c>
       <c r="J61" s="3">
-        <v>138300</v>
+        <v>136900</v>
       </c>
       <c r="K61" s="3">
         <v>135400</v>
@@ -4745,19 +4745,19 @@
         <v>6400</v>
       </c>
       <c r="F62" s="3">
-        <v>68800</v>
+        <v>68100</v>
       </c>
       <c r="G62" s="3">
-        <v>35400</v>
+        <v>35100</v>
       </c>
       <c r="H62" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="I62" s="3">
-        <v>74500</v>
+        <v>73800</v>
       </c>
       <c r="J62" s="3">
-        <v>54800</v>
+        <v>54300</v>
       </c>
       <c r="K62" s="3">
         <v>23800</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101100</v>
+        <v>100000</v>
       </c>
       <c r="E66" s="3">
-        <v>178500</v>
+        <v>176700</v>
       </c>
       <c r="F66" s="3">
-        <v>212100</v>
+        <v>209900</v>
       </c>
       <c r="G66" s="3">
-        <v>178200</v>
+        <v>176400</v>
       </c>
       <c r="H66" s="3">
-        <v>226100</v>
+        <v>223800</v>
       </c>
       <c r="I66" s="3">
-        <v>266200</v>
+        <v>263500</v>
       </c>
       <c r="J66" s="3">
-        <v>266800</v>
+        <v>264100</v>
       </c>
       <c r="K66" s="3">
         <v>232200</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1226400</v>
+        <v>1213900</v>
       </c>
       <c r="E72" s="3">
-        <v>1156000</v>
+        <v>1144200</v>
       </c>
       <c r="F72" s="3">
-        <v>1249100</v>
+        <v>1236300</v>
       </c>
       <c r="G72" s="3">
-        <v>1258300</v>
+        <v>1245500</v>
       </c>
       <c r="H72" s="3">
-        <v>1278900</v>
+        <v>1265800</v>
       </c>
       <c r="I72" s="3">
-        <v>1288200</v>
+        <v>1275000</v>
       </c>
       <c r="J72" s="3">
-        <v>1301700</v>
+        <v>1288400</v>
       </c>
       <c r="K72" s="3">
         <v>1224100</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1729600</v>
+        <v>1711900</v>
       </c>
       <c r="E76" s="3">
-        <v>1669600</v>
+        <v>1652500</v>
       </c>
       <c r="F76" s="3">
-        <v>1763800</v>
+        <v>1745700</v>
       </c>
       <c r="G76" s="3">
-        <v>1776500</v>
+        <v>1758400</v>
       </c>
       <c r="H76" s="3">
-        <v>1797600</v>
+        <v>1779200</v>
       </c>
       <c r="I76" s="3">
-        <v>1806500</v>
+        <v>1788000</v>
       </c>
       <c r="J76" s="3">
-        <v>1819100</v>
+        <v>1800400</v>
       </c>
       <c r="K76" s="3">
         <v>1724700</v>
@@ -6103,25 +6103,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>70400</v>
+        <v>69700</v>
       </c>
       <c r="E81" s="3">
-        <v>-93100</v>
+        <v>-92100</v>
       </c>
       <c r="F81" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="G81" s="3">
-        <v>-20500</v>
+        <v>-20300</v>
       </c>
       <c r="H81" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="I81" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="J81" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="K81" s="3">
         <v>66600</v>
@@ -6715,25 +6715,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-174900</v>
+        <v>-162200</v>
       </c>
       <c r="E89" s="3">
-        <v>67400</v>
+        <v>66700</v>
       </c>
       <c r="F89" s="3">
-        <v>52500</v>
+        <v>52000</v>
       </c>
       <c r="G89" s="3">
-        <v>81500</v>
+        <v>80600</v>
       </c>
       <c r="H89" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="I89" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="J89" s="3">
-        <v>81900</v>
+        <v>81100</v>
       </c>
       <c r="K89" s="3">
         <v>28200</v>
@@ -7078,25 +7078,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>47700</v>
+        <v>-16100</v>
       </c>
       <c r="E94" s="3">
-        <v>71800</v>
+        <v>71100</v>
       </c>
       <c r="F94" s="3">
-        <v>208900</v>
+        <v>206800</v>
       </c>
       <c r="G94" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="H94" s="3">
-        <v>-375600</v>
+        <v>-371800</v>
       </c>
       <c r="I94" s="3">
-        <v>202900</v>
+        <v>200800</v>
       </c>
       <c r="J94" s="3">
-        <v>65600</v>
+        <v>64900</v>
       </c>
       <c r="K94" s="3">
         <v>69500</v>
@@ -7524,19 +7524,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7400</v>
+        <v>-230100</v>
       </c>
       <c r="E100" s="3">
-        <v>25600</v>
+        <v>25400</v>
       </c>
       <c r="F100" s="3">
-        <v>32600</v>
+        <v>32300</v>
       </c>
       <c r="G100" s="3">
-        <v>54300</v>
+        <v>53700</v>
       </c>
       <c r="H100" s="3">
-        <v>-29500</v>
+        <v>-29200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>16</v>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22800</v>
+        <v>3000</v>
       </c>
       <c r="E8" s="3">
-        <v>15700</v>
+        <v>22100</v>
       </c>
       <c r="F8" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="G8" s="3">
-        <v>28700</v>
+        <v>14500</v>
       </c>
       <c r="H8" s="3">
-        <v>53900</v>
+        <v>27800</v>
       </c>
       <c r="I8" s="3">
-        <v>49400</v>
+        <v>52200</v>
       </c>
       <c r="J8" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K8" s="3">
         <v>58600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>71800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>99300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>124000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>172000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>141200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>302400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>398900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>346500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>320400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>274300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>280100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>321900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>246300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>221300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>215300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>272100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>121400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>104100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10500</v>
+        <v>3100</v>
       </c>
       <c r="E9" s="3">
-        <v>33600</v>
+        <v>10100</v>
       </c>
       <c r="F9" s="3">
-        <v>5800</v>
+        <v>32500</v>
       </c>
       <c r="G9" s="3">
-        <v>4600</v>
+        <v>5700</v>
       </c>
       <c r="H9" s="3">
-        <v>5400</v>
+        <v>4400</v>
       </c>
       <c r="I9" s="3">
-        <v>14900</v>
+        <v>5300</v>
       </c>
       <c r="J9" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K9" s="3">
         <v>9200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>28100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>29000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>54000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>23300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>31800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>44600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>39800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>61300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>101400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>136000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>98500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>45300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>38400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>47000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>17800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>16200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12300</v>
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
-        <v>-17900</v>
+        <v>11900</v>
       </c>
       <c r="F10" s="3">
-        <v>9100</v>
+        <v>-17400</v>
       </c>
       <c r="G10" s="3">
-        <v>24100</v>
+        <v>8900</v>
       </c>
       <c r="H10" s="3">
-        <v>48400</v>
+        <v>23400</v>
       </c>
       <c r="I10" s="3">
-        <v>34500</v>
+        <v>46900</v>
       </c>
       <c r="J10" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K10" s="3">
         <v>49400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>71300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>95000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>118000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>127100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>279100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>367200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>301800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>280600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>213000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>178700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>185900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>147800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>176000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>176900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>225100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>103600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>87800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="3">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3200</v>
-      </c>
       <c r="I12" s="3">
-        <v>5700</v>
+        <v>3100</v>
       </c>
       <c r="J12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K12" s="3">
         <v>5600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>9400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>3600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>4000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,28 +1242,31 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>14800</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>6500</v>
-      </c>
       <c r="G14" s="3">
-        <v>16100</v>
+        <v>6300</v>
       </c>
       <c r="H14" s="3">
-        <v>22200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>16</v>
+        <v>15600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>21500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>16</v>
@@ -1260,8 +1280,8 @@
       <c r="M14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13400</v>
+        <v>7000</v>
       </c>
       <c r="E17" s="3">
-        <v>58300</v>
+        <v>12900</v>
       </c>
       <c r="F17" s="3">
-        <v>19200</v>
+        <v>56500</v>
       </c>
       <c r="G17" s="3">
-        <v>38100</v>
+        <v>18600</v>
       </c>
       <c r="H17" s="3">
-        <v>47100</v>
+        <v>37000</v>
       </c>
       <c r="I17" s="3">
-        <v>37600</v>
+        <v>45600</v>
       </c>
       <c r="J17" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>125900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>282800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>266900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>211200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>149200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>146500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>139500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>178100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>210900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>199500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>138300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>112100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>99000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>40200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>49800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>9400</v>
+        <v>-4000</v>
       </c>
       <c r="E18" s="3">
-        <v>-42600</v>
+        <v>9100</v>
       </c>
       <c r="F18" s="3">
-        <v>-4200</v>
+        <v>-41300</v>
       </c>
       <c r="G18" s="3">
-        <v>-9400</v>
+        <v>-4100</v>
       </c>
       <c r="H18" s="3">
-        <v>6800</v>
+        <v>-9200</v>
       </c>
       <c r="I18" s="3">
-        <v>11800</v>
+        <v>6600</v>
       </c>
       <c r="J18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K18" s="3">
         <v>46500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>103900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>112100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>46000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-141600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>187800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>197200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>173900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>134800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>102100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>111000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>46800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>83000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>103300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>173100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>81200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>54300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,91 +1649,95 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>70700</v>
+        <v>72800</v>
       </c>
       <c r="E20" s="3">
-        <v>-61200</v>
+        <v>68500</v>
       </c>
       <c r="F20" s="3">
-        <v>-3500</v>
+        <v>-59300</v>
       </c>
       <c r="G20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>65800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1770,20 +1807,23 @@
       <c r="Y21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="3">
         <v>173300</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="3">
         <v>51100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>80100</v>
+        <v>68900</v>
       </c>
       <c r="E23" s="3">
-        <v>-103800</v>
+        <v>77700</v>
       </c>
       <c r="F23" s="3">
-        <v>-7700</v>
+        <v>-100600</v>
       </c>
       <c r="G23" s="3">
-        <v>-6900</v>
+        <v>-7500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1500</v>
+        <v>-6700</v>
       </c>
       <c r="I23" s="3">
-        <v>-6400</v>
+        <v>-1400</v>
       </c>
       <c r="J23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K23" s="3">
         <v>49000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>77600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>104400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>105700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>38500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-75800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>189100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>202200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>175400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>128400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>98200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>115400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>46600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>82900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>103400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>172800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>81000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>51000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10500</v>
+        <v>11800</v>
       </c>
       <c r="E24" s="3">
-        <v>-11700</v>
+        <v>10100</v>
       </c>
       <c r="F24" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="L24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>12100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="R24" s="3">
+        <v>28400</v>
+      </c>
+      <c r="S24" s="3">
+        <v>23800</v>
+      </c>
+      <c r="T24" s="3">
+        <v>30300</v>
+      </c>
+      <c r="U24" s="3">
+        <v>11600</v>
+      </c>
+      <c r="V24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>28300</v>
+      </c>
+      <c r="AB24" s="3">
         <v>13400</v>
       </c>
-      <c r="H24" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>10700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>11000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>10600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>19200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>12100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>14200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>28400</v>
-      </c>
-      <c r="R24" s="3">
-        <v>23800</v>
-      </c>
-      <c r="S24" s="3">
-        <v>30300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>11600</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>11500</v>
-      </c>
-      <c r="W24" s="3">
-        <v>1200</v>
-      </c>
-      <c r="X24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>6800</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>28300</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>13400</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>8800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>69700</v>
+        <v>57100</v>
       </c>
       <c r="E26" s="3">
-        <v>-92100</v>
+        <v>67500</v>
       </c>
       <c r="F26" s="3">
-        <v>-8700</v>
+        <v>-89300</v>
       </c>
       <c r="G26" s="3">
-        <v>-20300</v>
+        <v>-8400</v>
       </c>
       <c r="H26" s="3">
-        <v>-9400</v>
+        <v>-19700</v>
       </c>
       <c r="I26" s="3">
-        <v>-13600</v>
+        <v>-9100</v>
       </c>
       <c r="J26" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K26" s="3">
         <v>38300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>66600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>86500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-71700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>160700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>178400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>145100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>116800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>99300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>103900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>45300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>80200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>96600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>144500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>67600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>42200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69700</v>
+        <v>57100</v>
       </c>
       <c r="E27" s="3">
-        <v>-92100</v>
+        <v>67500</v>
       </c>
       <c r="F27" s="3">
-        <v>-8700</v>
+        <v>-89300</v>
       </c>
       <c r="G27" s="3">
-        <v>-20300</v>
+        <v>-8400</v>
       </c>
       <c r="H27" s="3">
-        <v>-9200</v>
+        <v>-19700</v>
       </c>
       <c r="I27" s="3">
-        <v>-13400</v>
+        <v>-9000</v>
       </c>
       <c r="J27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K27" s="3">
         <v>38400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>66600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>93800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>86500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-71700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>160700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>178400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>145100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>116800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>99300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>103900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>45300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>80200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>96600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>144500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>67600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>42200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-70700</v>
+        <v>-72800</v>
       </c>
       <c r="E32" s="3">
-        <v>61200</v>
+        <v>-68500</v>
       </c>
       <c r="F32" s="3">
-        <v>3500</v>
+        <v>59300</v>
       </c>
       <c r="G32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>18200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-65800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69700</v>
+        <v>57100</v>
       </c>
       <c r="E33" s="3">
-        <v>-92100</v>
+        <v>67500</v>
       </c>
       <c r="F33" s="3">
-        <v>-8700</v>
+        <v>-89300</v>
       </c>
       <c r="G33" s="3">
-        <v>-20300</v>
+        <v>-8400</v>
       </c>
       <c r="H33" s="3">
-        <v>-9200</v>
+        <v>-19700</v>
       </c>
       <c r="I33" s="3">
-        <v>-13400</v>
+        <v>-9000</v>
       </c>
       <c r="J33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K33" s="3">
         <v>38400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>66600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>93800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>86500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-71700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>160700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>178400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>145100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>116800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>99300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>103900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>45300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>80200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>96600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>144500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>67600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>42200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69700</v>
+        <v>57100</v>
       </c>
       <c r="E35" s="3">
-        <v>-92100</v>
+        <v>67500</v>
       </c>
       <c r="F35" s="3">
-        <v>-8700</v>
+        <v>-89300</v>
       </c>
       <c r="G35" s="3">
-        <v>-20300</v>
+        <v>-8400</v>
       </c>
       <c r="H35" s="3">
-        <v>-9200</v>
+        <v>-19700</v>
       </c>
       <c r="I35" s="3">
-        <v>-13400</v>
+        <v>-9000</v>
       </c>
       <c r="J35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K35" s="3">
         <v>38400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>66600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>93800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>86500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-71700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>160700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>178400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>145100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>116800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>99300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>103900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>45300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>80200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>96600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>144500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>67600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>42200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,257 +3180,267 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>495600</v>
+        <v>689100</v>
       </c>
       <c r="E41" s="3">
-        <v>426900</v>
+        <v>480400</v>
       </c>
       <c r="F41" s="3">
-        <v>440500</v>
+        <v>413700</v>
       </c>
       <c r="G41" s="3">
-        <v>319200</v>
+        <v>427000</v>
       </c>
       <c r="H41" s="3">
-        <v>293600</v>
+        <v>309400</v>
       </c>
       <c r="I41" s="3">
-        <v>240700</v>
+        <v>284600</v>
       </c>
       <c r="J41" s="3">
+        <v>233300</v>
+      </c>
+      <c r="K41" s="3">
         <v>445400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>304500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>214000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>217500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>258100</v>
       </c>
       <c r="O41" s="3">
         <v>258100</v>
       </c>
       <c r="P41" s="3">
+        <v>258100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>447900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>409000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>403600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>295100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>380500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>416800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>823100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1014000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>220100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>95700</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC41" s="3">
         <v>114300</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>764500</v>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E42" s="3">
-        <v>702400</v>
+        <v>741000</v>
       </c>
       <c r="F42" s="3">
-        <v>720700</v>
+        <v>680800</v>
       </c>
       <c r="G42" s="3">
-        <v>858000</v>
+        <v>698600</v>
       </c>
       <c r="H42" s="3">
-        <v>842500</v>
+        <v>831700</v>
       </c>
       <c r="I42" s="3">
-        <v>865700</v>
+        <v>816600</v>
       </c>
       <c r="J42" s="3">
+        <v>839100</v>
+      </c>
+      <c r="K42" s="3">
         <v>714300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>707000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>701900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>542600</v>
-      </c>
-      <c r="N42" s="3">
-        <v>181700</v>
       </c>
       <c r="O42" s="3">
         <v>181700</v>
       </c>
       <c r="P42" s="3">
+        <v>181700</v>
+      </c>
+      <c r="Q42" s="3">
         <v>36200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4600</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>4200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9700</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>44500</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC42" s="3">
         <v>62600</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>663200</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>11500</v>
-      </c>
       <c r="F43" s="3">
-        <v>81800</v>
+        <v>11200</v>
       </c>
       <c r="G43" s="3">
-        <v>192000</v>
+        <v>79300</v>
       </c>
       <c r="H43" s="3">
-        <v>345600</v>
+        <v>186100</v>
       </c>
       <c r="I43" s="3">
-        <v>400400</v>
+        <v>335000</v>
       </c>
       <c r="J43" s="3">
+        <v>388100</v>
+      </c>
+      <c r="K43" s="3">
         <v>464200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>514200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>586400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>758000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1353300</v>
       </c>
       <c r="O43" s="3">
         <v>1353300</v>
       </c>
       <c r="P43" s="3">
+        <v>1353300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1727600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1748900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1716300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1809200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1495300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1468600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1567100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1362300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1301100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1580900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1456100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC43" s="3">
         <v>745600</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,292 +3522,304 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>311700</v>
+        <v>203800</v>
       </c>
       <c r="E45" s="3">
-        <v>430500</v>
+        <v>302100</v>
       </c>
       <c r="F45" s="3">
-        <v>415200</v>
+        <v>417300</v>
       </c>
       <c r="G45" s="3">
-        <v>310100</v>
+        <v>402500</v>
       </c>
       <c r="H45" s="3">
-        <v>255100</v>
+        <v>300600</v>
       </c>
       <c r="I45" s="3">
-        <v>214600</v>
+        <v>247300</v>
       </c>
       <c r="J45" s="3">
+        <v>208000</v>
+      </c>
+      <c r="K45" s="3">
         <v>138800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>172700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>125000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>204200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>243700</v>
       </c>
       <c r="O45" s="3">
         <v>243700</v>
       </c>
       <c r="P45" s="3">
+        <v>243700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>453500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>427000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>440900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>442900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>328300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>363000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>435700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>265200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>487700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>459300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>117600</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC45" s="3">
         <v>85200</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1572000</v>
+        <v>1556000</v>
       </c>
       <c r="E46" s="3">
-        <v>1571300</v>
+        <v>1523600</v>
       </c>
       <c r="F46" s="3">
-        <v>1658300</v>
+        <v>1523000</v>
       </c>
       <c r="G46" s="3">
-        <v>1679400</v>
+        <v>1607300</v>
       </c>
       <c r="H46" s="3">
-        <v>1736800</v>
+        <v>1627700</v>
       </c>
       <c r="I46" s="3">
-        <v>1721400</v>
+        <v>1683400</v>
       </c>
       <c r="J46" s="3">
+        <v>1668500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1762700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1698500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1627300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1722200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>2036700</v>
       </c>
       <c r="O46" s="3">
         <v>2036700</v>
       </c>
       <c r="P46" s="3">
+        <v>2036700</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2665200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2589600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2565400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2551700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2204100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2235800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2429200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2450700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2847300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2260300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1669400</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC46" s="3">
         <v>1007700</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>49800</v>
+        <v>47600</v>
       </c>
       <c r="E47" s="3">
-        <v>54700</v>
+        <v>48200</v>
       </c>
       <c r="F47" s="3">
-        <v>52500</v>
+        <v>53000</v>
       </c>
       <c r="G47" s="3">
-        <v>55200</v>
+        <v>50800</v>
       </c>
       <c r="H47" s="3">
-        <v>52900</v>
+        <v>53500</v>
       </c>
       <c r="I47" s="3">
-        <v>68000</v>
+        <v>51300</v>
       </c>
       <c r="J47" s="3">
+        <v>65900</v>
+      </c>
+      <c r="K47" s="3">
         <v>88200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>90100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>85100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>95200</v>
-      </c>
-      <c r="N47" s="3">
-        <v>72100</v>
       </c>
       <c r="O47" s="3">
         <v>72100</v>
       </c>
       <c r="P47" s="3">
+        <v>72100</v>
+      </c>
+      <c r="Q47" s="3">
         <v>122400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>140700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>240500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>154500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>207400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>104500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>106500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>59100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>9300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>11100</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC47" s="3">
         <v>22400</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>124700</v>
+        <v>129400</v>
       </c>
       <c r="E48" s="3">
-        <v>128400</v>
+        <v>120800</v>
       </c>
       <c r="F48" s="3">
-        <v>177600</v>
+        <v>124400</v>
       </c>
       <c r="G48" s="3">
-        <v>130100</v>
+        <v>172100</v>
       </c>
       <c r="H48" s="3">
-        <v>136400</v>
+        <v>126100</v>
       </c>
       <c r="I48" s="3">
-        <v>172100</v>
+        <v>132200</v>
       </c>
       <c r="J48" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K48" s="3">
         <v>136800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>91300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>71500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>52200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>37800</v>
       </c>
       <c r="O48" s="3">
         <v>37800</v>
@@ -3720,69 +3828,72 @@
         <v>37800</v>
       </c>
       <c r="Q48" s="3">
+        <v>37800</v>
+      </c>
+      <c r="R48" s="3">
         <v>34700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>700</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>600</v>
       </c>
       <c r="Z48" s="3">
         <v>600</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AA48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC48" s="3">
         <v>700</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1600</v>
-      </c>
       <c r="G49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H49" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J49" s="3">
         <v>1300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1200</v>
       </c>
       <c r="K49" s="3">
         <v>1200</v>
@@ -3791,58 +3902,61 @@
         <v>1200</v>
       </c>
       <c r="M49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N49" s="3">
         <v>1100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1000</v>
       </c>
       <c r="O49" s="3">
         <v>1000</v>
       </c>
       <c r="P49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>16500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>700</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64100</v>
+        <v>62200</v>
       </c>
       <c r="E52" s="3">
-        <v>73400</v>
+        <v>62100</v>
       </c>
       <c r="F52" s="3">
-        <v>65800</v>
+        <v>71200</v>
       </c>
       <c r="G52" s="3">
-        <v>68600</v>
+        <v>63700</v>
       </c>
       <c r="H52" s="3">
-        <v>75400</v>
+        <v>66400</v>
       </c>
       <c r="I52" s="3">
-        <v>88700</v>
+        <v>73100</v>
       </c>
       <c r="J52" s="3">
+        <v>86000</v>
+      </c>
+      <c r="K52" s="3">
         <v>75500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>79900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>57800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>71100</v>
       </c>
       <c r="O52" s="3">
         <v>71100</v>
       </c>
       <c r="P52" s="3">
+        <v>71100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>48200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>112900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>73400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>51400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>39600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>41200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5800</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC52" s="3">
         <v>4300</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1811900</v>
+        <v>1795800</v>
       </c>
       <c r="E54" s="3">
-        <v>1829200</v>
+        <v>1756200</v>
       </c>
       <c r="F54" s="3">
-        <v>1955600</v>
+        <v>1773000</v>
       </c>
       <c r="G54" s="3">
-        <v>1934700</v>
+        <v>1895500</v>
       </c>
       <c r="H54" s="3">
-        <v>2003100</v>
+        <v>1875300</v>
       </c>
       <c r="I54" s="3">
-        <v>2051500</v>
+        <v>1941500</v>
       </c>
       <c r="J54" s="3">
+        <v>1988500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2064500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1956900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1865000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1928600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2218600</v>
       </c>
       <c r="O54" s="3">
         <v>2218600</v>
       </c>
       <c r="P54" s="3">
+        <v>2218600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2874700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2878700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2911700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2787800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2472500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2387100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2580600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2552900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2876200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2280500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1687700</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC54" s="3">
         <v>1035100</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4401,22 +4532,25 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4100</v>
+        <v>20000</v>
       </c>
       <c r="E58" s="3">
-        <v>17100</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="3">
-        <v>36100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>16</v>
+        <v>16500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>35000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
@@ -4430,365 +4564,377 @@
       <c r="K58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>56700</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>56700</v>
       </c>
       <c r="P58" s="3">
+        <v>56700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>164300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>119800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>505700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>641900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>587300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>698700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>865400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>897200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1184200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1314200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>959700</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC58" s="3">
         <v>608400</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79000</v>
+        <v>67400</v>
       </c>
       <c r="E59" s="3">
-        <v>149700</v>
+        <v>76600</v>
       </c>
       <c r="F59" s="3">
-        <v>102100</v>
+        <v>145100</v>
       </c>
       <c r="G59" s="3">
-        <v>77000</v>
+        <v>99000</v>
       </c>
       <c r="H59" s="3">
-        <v>70200</v>
+        <v>74600</v>
       </c>
       <c r="I59" s="3">
-        <v>70300</v>
+        <v>68000</v>
       </c>
       <c r="J59" s="3">
-        <v>71600</v>
+        <v>68100</v>
       </c>
       <c r="K59" s="3">
         <v>71600</v>
       </c>
       <c r="L59" s="3">
+        <v>71600</v>
+      </c>
+      <c r="M59" s="3">
         <v>65800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>143900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>399800</v>
       </c>
       <c r="O59" s="3">
         <v>399800</v>
       </c>
       <c r="P59" s="3">
+        <v>399800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>445800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>458700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>339900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>236100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>176300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>121800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>260600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>206600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>307700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>203900</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC59" s="3">
         <v>50100</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>83100</v>
+        <v>87400</v>
       </c>
       <c r="E60" s="3">
-        <v>166700</v>
+        <v>80600</v>
       </c>
       <c r="F60" s="3">
-        <v>138200</v>
+        <v>161600</v>
       </c>
       <c r="G60" s="3">
-        <v>77000</v>
+        <v>133900</v>
       </c>
       <c r="H60" s="3">
-        <v>70200</v>
+        <v>74600</v>
       </c>
       <c r="I60" s="3">
-        <v>70300</v>
+        <v>68000</v>
       </c>
       <c r="J60" s="3">
-        <v>71600</v>
+        <v>68100</v>
       </c>
       <c r="K60" s="3">
         <v>71600</v>
       </c>
       <c r="L60" s="3">
+        <v>71600</v>
+      </c>
+      <c r="M60" s="3">
         <v>65800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>143900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>456500</v>
       </c>
       <c r="O60" s="3">
         <v>456500</v>
       </c>
       <c r="P60" s="3">
+        <v>456500</v>
+      </c>
+      <c r="Q60" s="3">
         <v>610200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>578400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>845600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>878100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>763500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>820500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1126000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1103800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1384700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1621900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1163600</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC60" s="3">
         <v>658500</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>3600</v>
+        <v>16000</v>
       </c>
       <c r="F61" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G61" s="3">
-        <v>63300</v>
+        <v>3500</v>
       </c>
       <c r="H61" s="3">
-        <v>117500</v>
+        <v>61400</v>
       </c>
       <c r="I61" s="3">
-        <v>118300</v>
+        <v>113900</v>
       </c>
       <c r="J61" s="3">
+        <v>114700</v>
+      </c>
+      <c r="K61" s="3">
         <v>136900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>135400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>128700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>141100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>215500</v>
       </c>
       <c r="O61" s="3">
         <v>215500</v>
       </c>
       <c r="P61" s="3">
+        <v>215500</v>
+      </c>
+      <c r="Q61" s="3">
         <v>366300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>411100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>93200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>91300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>62900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>36600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>75700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>37800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1800</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>11100</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
-        <v>6400</v>
-      </c>
       <c r="F62" s="3">
-        <v>68100</v>
+        <v>6200</v>
       </c>
       <c r="G62" s="3">
-        <v>35100</v>
+        <v>66000</v>
       </c>
       <c r="H62" s="3">
-        <v>35200</v>
+        <v>34000</v>
       </c>
       <c r="I62" s="3">
-        <v>73800</v>
+        <v>34100</v>
       </c>
       <c r="J62" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K62" s="3">
         <v>54300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>4100</v>
       </c>
       <c r="O62" s="3">
         <v>4100</v>
       </c>
       <c r="P62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>31400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>81500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>61700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>19300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100000</v>
+        <v>87700</v>
       </c>
       <c r="E66" s="3">
-        <v>176700</v>
+        <v>97000</v>
       </c>
       <c r="F66" s="3">
-        <v>209900</v>
+        <v>171300</v>
       </c>
       <c r="G66" s="3">
-        <v>176400</v>
+        <v>203500</v>
       </c>
       <c r="H66" s="3">
-        <v>223800</v>
+        <v>171000</v>
       </c>
       <c r="I66" s="3">
-        <v>263500</v>
+        <v>216900</v>
       </c>
       <c r="J66" s="3">
+        <v>255400</v>
+      </c>
+      <c r="K66" s="3">
         <v>264100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>232200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>208500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>287300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>676100</v>
       </c>
       <c r="O66" s="3">
         <v>676100</v>
       </c>
       <c r="P66" s="3">
+        <v>676100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1007900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1071000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>988600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>826400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>849200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1126000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1140400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1460400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1659700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1165300</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC66" s="3">
         <v>669600</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5414,22 +5582,25 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3">
-        <v>882100</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="3">
         <v>882100</v>
       </c>
       <c r="AA70" s="3">
-        <v>0</v>
+        <v>882100</v>
       </c>
       <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
         <v>864400</v>
       </c>
-      <c r="AC70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1213900</v>
+        <v>1233600</v>
       </c>
       <c r="E72" s="3">
-        <v>1144200</v>
+        <v>1176500</v>
       </c>
       <c r="F72" s="3">
-        <v>1236300</v>
+        <v>1109000</v>
       </c>
       <c r="G72" s="3">
-        <v>1245500</v>
+        <v>1198300</v>
       </c>
       <c r="H72" s="3">
-        <v>1265800</v>
+        <v>1207200</v>
       </c>
       <c r="I72" s="3">
-        <v>1275000</v>
+        <v>1226900</v>
       </c>
       <c r="J72" s="3">
+        <v>1235800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1288400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1224100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1157500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1115900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>1012400</v>
       </c>
       <c r="O72" s="3">
         <v>1012400</v>
       </c>
       <c r="P72" s="3">
+        <v>1012400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>1304300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1263200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1117000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>919200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>770800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>624400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>518800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>414900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>366200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-280000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-376600</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-510600</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1711900</v>
+        <v>1708100</v>
       </c>
       <c r="E76" s="3">
-        <v>1652500</v>
+        <v>1659200</v>
       </c>
       <c r="F76" s="3">
-        <v>1745700</v>
+        <v>1601700</v>
       </c>
       <c r="G76" s="3">
-        <v>1758400</v>
+        <v>1692100</v>
       </c>
       <c r="H76" s="3">
-        <v>1779200</v>
+        <v>1704300</v>
       </c>
       <c r="I76" s="3">
-        <v>1788000</v>
+        <v>1724500</v>
       </c>
       <c r="J76" s="3">
+        <v>1733100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1800400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1724700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1656500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1641300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1542600</v>
       </c>
       <c r="O76" s="3">
         <v>1542600</v>
       </c>
       <c r="P76" s="3">
+        <v>1542600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1866800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1807600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1911300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1799100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1646000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1537800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1454600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1412500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1415900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-261400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-359800</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-498900</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69700</v>
+        <v>57100</v>
       </c>
       <c r="E81" s="3">
-        <v>-92100</v>
+        <v>67500</v>
       </c>
       <c r="F81" s="3">
-        <v>-8700</v>
+        <v>-89300</v>
       </c>
       <c r="G81" s="3">
-        <v>-20300</v>
+        <v>-8400</v>
       </c>
       <c r="H81" s="3">
-        <v>-9200</v>
+        <v>-19700</v>
       </c>
       <c r="I81" s="3">
-        <v>-13400</v>
+        <v>-9000</v>
       </c>
       <c r="J81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K81" s="3">
         <v>38400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>66600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>93800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>86500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-71700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>160700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>178400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>145100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>116800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>99300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>103900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>45300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>80200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>96600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>144500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>67600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>42200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6276,26 +6475,29 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>16</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA83" s="3">
         <v>400</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>100</v>
+      <c r="AB83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-162200</v>
+        <v>45300</v>
       </c>
       <c r="E89" s="3">
-        <v>66700</v>
+        <v>-157200</v>
       </c>
       <c r="F89" s="3">
-        <v>52000</v>
+        <v>64600</v>
       </c>
       <c r="G89" s="3">
-        <v>80600</v>
+        <v>50400</v>
       </c>
       <c r="H89" s="3">
-        <v>8800</v>
+        <v>78100</v>
       </c>
       <c r="I89" s="3">
-        <v>12400</v>
+        <v>8500</v>
       </c>
       <c r="J89" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K89" s="3">
         <v>81100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>28200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>60900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>174500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>46800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>76900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>191200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>257300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>198300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>204700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X89" s="3">
         <v>70000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>110100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>132000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>214400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>77300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>54200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6888,26 +7109,29 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>16</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC91" s="3">
         <v>100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16100</v>
+        <v>167100</v>
       </c>
       <c r="E94" s="3">
-        <v>71100</v>
+        <v>-15600</v>
       </c>
       <c r="F94" s="3">
-        <v>206800</v>
+        <v>68900</v>
       </c>
       <c r="G94" s="3">
-        <v>6100</v>
+        <v>200400</v>
       </c>
       <c r="H94" s="3">
-        <v>-371800</v>
+        <v>5900</v>
       </c>
       <c r="I94" s="3">
-        <v>200800</v>
+        <v>-360300</v>
       </c>
       <c r="J94" s="3">
+        <v>194600</v>
+      </c>
+      <c r="K94" s="3">
         <v>64900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>69500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-860900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>108400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>106800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>213300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-579900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>67500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>583900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-215000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X94" s="3">
         <v>-182300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>82500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>154700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-341900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-48600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-228600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-230100</v>
+        <v>7900</v>
       </c>
       <c r="E100" s="3">
-        <v>25400</v>
+        <v>-223000</v>
       </c>
       <c r="F100" s="3">
-        <v>32300</v>
+        <v>24600</v>
       </c>
       <c r="G100" s="3">
-        <v>53700</v>
+        <v>31300</v>
       </c>
       <c r="H100" s="3">
-        <v>-29200</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
+        <v>52100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-28300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="3">
         <v>6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-436000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>171000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-604400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>295500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-305300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>80300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X100" s="3">
         <v>-270400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>612800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-162300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>106600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>36500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>254400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7660,32 +7909,35 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X101" s="3">
         <v>-20500</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="3" t="s">
-        <v>16</v>
+      <c r="AA101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7743,28 +7995,31 @@
       <c r="U102" s="3">
         <v>0</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3">
         <v>-403200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>793900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>124400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-20900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>65100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>79900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>19300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/QD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>QD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15200</v>
       </c>
-      <c r="G8" s="3">
-        <v>14500</v>
-      </c>
       <c r="H8" s="3">
-        <v>27800</v>
+        <v>14600</v>
       </c>
       <c r="I8" s="3">
-        <v>52200</v>
+        <v>27900</v>
       </c>
       <c r="J8" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K8" s="3">
         <v>47900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>99300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>124000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>172000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>141200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>302400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>398900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>346500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>320400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>274300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>280100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>321900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>246300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>221300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>215300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>272100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>121400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>104100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>51700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3100</v>
       </c>
-      <c r="E9" s="3">
-        <v>10100</v>
-      </c>
       <c r="F9" s="3">
-        <v>32500</v>
+        <v>10200</v>
       </c>
       <c r="G9" s="3">
+        <v>32600</v>
+      </c>
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>28100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>29000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>54000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>23300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>39800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>61300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>101400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>136000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>98500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>45300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>38400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>47000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>17800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>16200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-17400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23400</v>
       </c>
-      <c r="I10" s="3">
-        <v>46900</v>
-      </c>
       <c r="J10" s="3">
+        <v>47000</v>
+      </c>
+      <c r="K10" s="3">
         <v>33500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>59100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>71300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>95000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>118000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>127100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>279100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>367200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>301800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>280600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>213000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>178700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>185900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>147800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>176000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>176900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>225100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>103600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>87800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,85 +1096,88 @@
         <v>1400</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="F12" s="3">
+        <v>400</v>
+      </c>
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>9800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>5500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>9400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>3600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>4000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,31 +1262,34 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>14300</v>
-      </c>
       <c r="F14" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6300</v>
       </c>
-      <c r="H14" s="3">
-        <v>15600</v>
-      </c>
       <c r="I14" s="3">
-        <v>21500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>16</v>
+        <v>15700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>21600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>16</v>
@@ -1283,8 +1303,8 @@
       <c r="N14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E17" s="3">
         <v>7000</v>
       </c>
-      <c r="E17" s="3">
-        <v>12900</v>
-      </c>
       <c r="F17" s="3">
-        <v>56500</v>
+        <v>13000</v>
       </c>
       <c r="G17" s="3">
+        <v>56600</v>
+      </c>
+      <c r="H17" s="3">
         <v>18600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37000</v>
       </c>
-      <c r="I17" s="3">
-        <v>45600</v>
-      </c>
       <c r="J17" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K17" s="3">
         <v>36400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>125900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>282800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>266900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>211200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>149200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>146500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>139500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>178100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>210900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>199500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>138300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>112100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>99000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>40200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>49800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>23600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-41300</v>
-      </c>
       <c r="G18" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>103900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>112100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>46000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-141600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>187800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>197200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>173900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>134800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>102100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>111000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>46800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>83000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>103300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>173100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>81200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>54300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,94 +1683,98 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>72800</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="3">
-        <v>68500</v>
+        <v>73000</v>
       </c>
       <c r="F20" s="3">
-        <v>-59300</v>
+        <v>68700</v>
       </c>
       <c r="G20" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
-        <v>-8000</v>
-      </c>
       <c r="J20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-17600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>65800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-3300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1810,20 +1847,23 @@
       <c r="Z21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="3">
         <v>173300</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="3">
         <v>51100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>68900</v>
+        <v>-8000</v>
       </c>
       <c r="E23" s="3">
-        <v>77700</v>
+        <v>69000</v>
       </c>
       <c r="F23" s="3">
-        <v>-100600</v>
+        <v>77800</v>
       </c>
       <c r="G23" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>77600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>104400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>105700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>38500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-75800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>189100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>202200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>175400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>128400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>98200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>115400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>46600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>82900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>103400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>172800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>81000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>51000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>11800</v>
       </c>
-      <c r="E24" s="3">
-        <v>10100</v>
-      </c>
       <c r="F24" s="3">
-        <v>-11300</v>
+        <v>10200</v>
       </c>
       <c r="G24" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13000</v>
       </c>
-      <c r="I24" s="3">
-        <v>7600</v>
-      </c>
       <c r="J24" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K24" s="3">
         <v>6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>19200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>28300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>13400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>8800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>57100</v>
+        <v>-10600</v>
       </c>
       <c r="E26" s="3">
-        <v>67500</v>
+        <v>57200</v>
       </c>
       <c r="F26" s="3">
-        <v>-89300</v>
+        <v>67700</v>
       </c>
       <c r="G26" s="3">
-        <v>-8400</v>
+        <v>-89500</v>
       </c>
       <c r="H26" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-19700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>66600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>86500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>20000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>160700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>178400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>145100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>116800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>99300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>103900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>45300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>80200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>96600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>144500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>67600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>42200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>57100</v>
+        <v>-10600</v>
       </c>
       <c r="E27" s="3">
-        <v>67500</v>
+        <v>57200</v>
       </c>
       <c r="F27" s="3">
-        <v>-89300</v>
+        <v>67700</v>
       </c>
       <c r="G27" s="3">
-        <v>-8400</v>
+        <v>-89500</v>
       </c>
       <c r="H27" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-19700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>66600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>93800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>86500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>20000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>160700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>178400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>145100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>116800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>99300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>103900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>45300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>80200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>96600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>144500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>67600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>42200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-72800</v>
+        <v>-5000</v>
       </c>
       <c r="E32" s="3">
-        <v>-68500</v>
+        <v>-73000</v>
       </c>
       <c r="F32" s="3">
-        <v>59300</v>
+        <v>-68700</v>
       </c>
       <c r="G32" s="3">
+        <v>59400</v>
+      </c>
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
-        <v>8000</v>
-      </c>
       <c r="J32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K32" s="3">
         <v>17600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>3300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>57100</v>
+        <v>-10600</v>
       </c>
       <c r="E33" s="3">
-        <v>67500</v>
+        <v>57200</v>
       </c>
       <c r="F33" s="3">
-        <v>-89300</v>
+        <v>67700</v>
       </c>
       <c r="G33" s="3">
-        <v>-8400</v>
+        <v>-89500</v>
       </c>
       <c r="H33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>66600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>93800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>86500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>20000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>160700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>178400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>145100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>116800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>99300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>103900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>45300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>80200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>96600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>144500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>67600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>42200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>57100</v>
+        <v>-10600</v>
       </c>
       <c r="E35" s="3">
-        <v>67500</v>
+        <v>57200</v>
       </c>
       <c r="F35" s="3">
-        <v>-89300</v>
+        <v>67700</v>
       </c>
       <c r="G35" s="3">
-        <v>-8400</v>
+        <v>-89500</v>
       </c>
       <c r="H35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>66600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>93800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>86500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>20000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>160700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>178400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>145100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>116800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>99300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>103900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>45300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>80200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>96600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>144500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>67600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>42200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,266 +3267,276 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>689100</v>
+        <v>692200</v>
       </c>
       <c r="E41" s="3">
-        <v>480400</v>
+        <v>690600</v>
       </c>
       <c r="F41" s="3">
-        <v>413700</v>
+        <v>481400</v>
       </c>
       <c r="G41" s="3">
-        <v>427000</v>
+        <v>414600</v>
       </c>
       <c r="H41" s="3">
-        <v>309400</v>
+        <v>427900</v>
       </c>
       <c r="I41" s="3">
-        <v>284600</v>
+        <v>310000</v>
       </c>
       <c r="J41" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K41" s="3">
         <v>233300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>445400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>304500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>214000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>217500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>258100</v>
       </c>
       <c r="P41" s="3">
         <v>258100</v>
       </c>
       <c r="Q41" s="3">
+        <v>258100</v>
+      </c>
+      <c r="R41" s="3">
         <v>447900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>409000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>403600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>295100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>380500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>416800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>823100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1014000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>220100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>95700</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD41" s="3">
         <v>114300</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="3">
-        <v>741000</v>
+      <c r="D42" s="3">
+        <v>521600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F42" s="3">
-        <v>680800</v>
+        <v>742600</v>
       </c>
       <c r="G42" s="3">
-        <v>698600</v>
+        <v>682300</v>
       </c>
       <c r="H42" s="3">
-        <v>831700</v>
+        <v>700100</v>
       </c>
       <c r="I42" s="3">
-        <v>816600</v>
+        <v>833500</v>
       </c>
       <c r="J42" s="3">
+        <v>818300</v>
+      </c>
+      <c r="K42" s="3">
         <v>839100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>714300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>707000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>701900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>542600</v>
-      </c>
-      <c r="O42" s="3">
-        <v>181700</v>
       </c>
       <c r="P42" s="3">
         <v>181700</v>
       </c>
       <c r="Q42" s="3">
+        <v>181700</v>
+      </c>
+      <c r="R42" s="3">
         <v>36200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>4600</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>4200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>9700</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>44500</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
-      </c>
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC42" s="3">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD42" s="3">
         <v>62600</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>663200</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>664600</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11200</v>
       </c>
-      <c r="G43" s="3">
-        <v>79300</v>
-      </c>
       <c r="H43" s="3">
-        <v>186100</v>
+        <v>79400</v>
       </c>
       <c r="I43" s="3">
-        <v>335000</v>
+        <v>186500</v>
       </c>
       <c r="J43" s="3">
+        <v>335700</v>
+      </c>
+      <c r="K43" s="3">
         <v>388100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>464200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>514200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>586400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>758000</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1353300</v>
       </c>
       <c r="P43" s="3">
         <v>1353300</v>
       </c>
       <c r="Q43" s="3">
+        <v>1353300</v>
+      </c>
+      <c r="R43" s="3">
         <v>1727600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1748900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1716300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1809200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1495300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1468600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1567100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1362300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1301100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1580900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1456100</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD43" s="3">
         <v>745600</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,180 +3621,189 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>203800</v>
+        <v>295700</v>
       </c>
       <c r="E45" s="3">
-        <v>302100</v>
+        <v>204200</v>
       </c>
       <c r="F45" s="3">
-        <v>417300</v>
+        <v>302700</v>
       </c>
       <c r="G45" s="3">
-        <v>402500</v>
+        <v>418200</v>
       </c>
       <c r="H45" s="3">
-        <v>300600</v>
+        <v>403300</v>
       </c>
       <c r="I45" s="3">
-        <v>247300</v>
+        <v>301300</v>
       </c>
       <c r="J45" s="3">
+        <v>247800</v>
+      </c>
+      <c r="K45" s="3">
         <v>208000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>138800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>172700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>125000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>204200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>243700</v>
       </c>
       <c r="P45" s="3">
         <v>243700</v>
       </c>
       <c r="Q45" s="3">
+        <v>243700</v>
+      </c>
+      <c r="R45" s="3">
         <v>453500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>427000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>440900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>442900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>328300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>363000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>435700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>265200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>487700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>459300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>117600</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC45" s="3">
+      <c r="AC45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD45" s="3">
         <v>85200</v>
       </c>
-      <c r="AD45" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1556000</v>
+        <v>1509500</v>
       </c>
       <c r="E46" s="3">
-        <v>1523600</v>
+        <v>1559400</v>
       </c>
       <c r="F46" s="3">
-        <v>1523000</v>
+        <v>1527000</v>
       </c>
       <c r="G46" s="3">
-        <v>1607300</v>
+        <v>1526300</v>
       </c>
       <c r="H46" s="3">
-        <v>1627700</v>
+        <v>1610800</v>
       </c>
       <c r="I46" s="3">
-        <v>1683400</v>
+        <v>1631300</v>
       </c>
       <c r="J46" s="3">
+        <v>1687100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1668500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1762700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1698500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1627300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1722200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>2036700</v>
       </c>
       <c r="P46" s="3">
         <v>2036700</v>
       </c>
       <c r="Q46" s="3">
+        <v>2036700</v>
+      </c>
+      <c r="R46" s="3">
         <v>2665200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2589600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2565400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2551700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2204100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2235800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2429200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2450700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2847300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2260300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1669400</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD46" s="3">
         <v>1007700</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3706,123 +3811,126 @@
         <v>47600</v>
       </c>
       <c r="E47" s="3">
-        <v>48200</v>
+        <v>47700</v>
       </c>
       <c r="F47" s="3">
-        <v>53000</v>
+        <v>48300</v>
       </c>
       <c r="G47" s="3">
-        <v>50800</v>
+        <v>53100</v>
       </c>
       <c r="H47" s="3">
-        <v>53500</v>
+        <v>51000</v>
       </c>
       <c r="I47" s="3">
-        <v>51300</v>
+        <v>53600</v>
       </c>
       <c r="J47" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K47" s="3">
         <v>65900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>88200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>90100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>85100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>95200</v>
-      </c>
-      <c r="O47" s="3">
-        <v>72100</v>
       </c>
       <c r="P47" s="3">
         <v>72100</v>
       </c>
       <c r="Q47" s="3">
+        <v>72100</v>
+      </c>
+      <c r="R47" s="3">
         <v>122400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>140700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>240500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>154500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>207400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>104500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>106500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>59100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>9300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>9400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>11100</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD47" s="3">
         <v>22400</v>
       </c>
-      <c r="AD47" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>129400</v>
+        <v>162000</v>
       </c>
       <c r="E48" s="3">
-        <v>120800</v>
+        <v>129700</v>
       </c>
       <c r="F48" s="3">
-        <v>124400</v>
+        <v>121100</v>
       </c>
       <c r="G48" s="3">
-        <v>172100</v>
+        <v>124700</v>
       </c>
       <c r="H48" s="3">
-        <v>126100</v>
+        <v>172500</v>
       </c>
       <c r="I48" s="3">
-        <v>132200</v>
+        <v>126400</v>
       </c>
       <c r="J48" s="3">
+        <v>132500</v>
+      </c>
+      <c r="K48" s="3">
         <v>166800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>136800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>91300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>71500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>52200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>37800</v>
       </c>
       <c r="P48" s="3">
         <v>37800</v>
@@ -3831,72 +3939,75 @@
         <v>37800</v>
       </c>
       <c r="R48" s="3">
+        <v>37800</v>
+      </c>
+      <c r="S48" s="3">
         <v>34700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>31400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>29100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>700</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>600</v>
       </c>
       <c r="AA48" s="3">
         <v>600</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AB48" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD48" s="3">
         <v>700</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1400</v>
       </c>
-      <c r="G49" s="3">
-        <v>1500</v>
-      </c>
       <c r="H49" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I49" s="3">
         <v>1500</v>
       </c>
       <c r="J49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1200</v>
       </c>
       <c r="L49" s="3">
         <v>1200</v>
@@ -3905,58 +4016,61 @@
         <v>1200</v>
       </c>
       <c r="N49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O49" s="3">
         <v>1100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1000</v>
       </c>
       <c r="P49" s="3">
         <v>1000</v>
       </c>
       <c r="Q49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R49" s="3">
         <v>1100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>17300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>16500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>700</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="E52" s="3">
-        <v>62100</v>
+        <v>62300</v>
       </c>
       <c r="F52" s="3">
-        <v>71200</v>
+        <v>62300</v>
       </c>
       <c r="G52" s="3">
-        <v>63700</v>
+        <v>71300</v>
       </c>
       <c r="H52" s="3">
-        <v>66400</v>
+        <v>63900</v>
       </c>
       <c r="I52" s="3">
-        <v>73100</v>
+        <v>66600</v>
       </c>
       <c r="J52" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K52" s="3">
         <v>86000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>75800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>79900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>57800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>71100</v>
       </c>
       <c r="P52" s="3">
         <v>71100</v>
       </c>
       <c r="Q52" s="3">
+        <v>71100</v>
+      </c>
+      <c r="R52" s="3">
         <v>48200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>112900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>73400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>51400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>39600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>26800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>41200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>5800</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD52" s="3">
         <v>4300</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1795800</v>
+        <v>1781800</v>
       </c>
       <c r="E54" s="3">
-        <v>1756200</v>
+        <v>1799700</v>
       </c>
       <c r="F54" s="3">
-        <v>1773000</v>
+        <v>1760000</v>
       </c>
       <c r="G54" s="3">
-        <v>1895500</v>
+        <v>1776800</v>
       </c>
       <c r="H54" s="3">
-        <v>1875300</v>
+        <v>1899700</v>
       </c>
       <c r="I54" s="3">
-        <v>1941500</v>
+        <v>1879300</v>
       </c>
       <c r="J54" s="3">
+        <v>1945700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1988500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2064500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1956900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1865000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1928600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>2218600</v>
       </c>
       <c r="P54" s="3">
         <v>2218600</v>
       </c>
       <c r="Q54" s="3">
+        <v>2218600</v>
+      </c>
+      <c r="R54" s="3">
         <v>2874700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2878700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2911700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2787800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2472500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2387100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2580600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2552900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2876200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2280500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1687700</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD54" s="3">
         <v>1035100</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4535,25 +4666,28 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
-        <v>16500</v>
-      </c>
       <c r="G58" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>16</v>
+        <v>16600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>35100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>16</v>
@@ -4567,234 +4701,243 @@
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>56700</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>56700</v>
       </c>
       <c r="Q58" s="3">
+        <v>56700</v>
+      </c>
+      <c r="R58" s="3">
         <v>164300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>119800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>505700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>641900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>587300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>698700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>865400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>897200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1184200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1314200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>959700</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD58" s="3">
         <v>608400</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>67400</v>
+        <v>76700</v>
       </c>
       <c r="E59" s="3">
-        <v>76600</v>
+        <v>67600</v>
       </c>
       <c r="F59" s="3">
-        <v>145100</v>
+        <v>76800</v>
       </c>
       <c r="G59" s="3">
-        <v>99000</v>
+        <v>145400</v>
       </c>
       <c r="H59" s="3">
-        <v>74600</v>
+        <v>99200</v>
       </c>
       <c r="I59" s="3">
-        <v>68000</v>
+        <v>74800</v>
       </c>
       <c r="J59" s="3">
         <v>68100</v>
       </c>
       <c r="K59" s="3">
-        <v>71600</v>
+        <v>68100</v>
       </c>
       <c r="L59" s="3">
         <v>71600</v>
       </c>
       <c r="M59" s="3">
+        <v>71600</v>
+      </c>
+      <c r="N59" s="3">
         <v>65800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>143900</v>
-      </c>
-      <c r="O59" s="3">
-        <v>399800</v>
       </c>
       <c r="P59" s="3">
         <v>399800</v>
       </c>
       <c r="Q59" s="3">
+        <v>399800</v>
+      </c>
+      <c r="R59" s="3">
         <v>445800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>458700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>339900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>236100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>176300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>121800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>260600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>206600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>307700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>203900</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD59" s="3">
         <v>50100</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>87400</v>
+        <v>76700</v>
       </c>
       <c r="E60" s="3">
-        <v>80600</v>
+        <v>87600</v>
       </c>
       <c r="F60" s="3">
-        <v>161600</v>
+        <v>80800</v>
       </c>
       <c r="G60" s="3">
-        <v>133900</v>
+        <v>162000</v>
       </c>
       <c r="H60" s="3">
-        <v>74600</v>
+        <v>134200</v>
       </c>
       <c r="I60" s="3">
-        <v>68000</v>
+        <v>74800</v>
       </c>
       <c r="J60" s="3">
         <v>68100</v>
       </c>
       <c r="K60" s="3">
-        <v>71600</v>
+        <v>68100</v>
       </c>
       <c r="L60" s="3">
         <v>71600</v>
       </c>
       <c r="M60" s="3">
+        <v>71600</v>
+      </c>
+      <c r="N60" s="3">
         <v>65800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>143900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>456500</v>
       </c>
       <c r="P60" s="3">
         <v>456500</v>
       </c>
       <c r="Q60" s="3">
+        <v>456500</v>
+      </c>
+      <c r="R60" s="3">
         <v>610200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>578400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>845600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>878100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>763500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>820500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1126000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1103800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1384700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1621900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1163600</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD60" s="3">
         <v>658500</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4802,142 +4945,145 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>3500</v>
+        <v>16100</v>
       </c>
       <c r="G61" s="3">
         <v>3500</v>
       </c>
       <c r="H61" s="3">
-        <v>61400</v>
+        <v>3500</v>
       </c>
       <c r="I61" s="3">
-        <v>113900</v>
+        <v>61500</v>
       </c>
       <c r="J61" s="3">
+        <v>114200</v>
+      </c>
+      <c r="K61" s="3">
         <v>114700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>136900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>135400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>128700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>141100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>215500</v>
       </c>
       <c r="P61" s="3">
         <v>215500</v>
       </c>
       <c r="Q61" s="3">
+        <v>215500</v>
+      </c>
+      <c r="R61" s="3">
         <v>366300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>411100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>93200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>91300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>62900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28800</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>36600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>75700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>37800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1800</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>11100</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6200</v>
       </c>
-      <c r="G62" s="3">
-        <v>66000</v>
-      </c>
       <c r="H62" s="3">
-        <v>34000</v>
+        <v>66200</v>
       </c>
       <c r="I62" s="3">
         <v>34100</v>
       </c>
       <c r="J62" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K62" s="3">
         <v>71500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>4100</v>
       </c>
       <c r="P62" s="3">
         <v>4100</v>
       </c>
       <c r="Q62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R62" s="3">
         <v>31400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>81500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>61700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>19300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>87700</v>
+        <v>77000</v>
       </c>
       <c r="E66" s="3">
-        <v>97000</v>
+        <v>87900</v>
       </c>
       <c r="F66" s="3">
+        <v>97200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>171700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>203900</v>
+      </c>
+      <c r="I66" s="3">
         <v>171300</v>
       </c>
-      <c r="G66" s="3">
-        <v>203500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>171000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>216900</v>
-      </c>
       <c r="J66" s="3">
+        <v>217400</v>
+      </c>
+      <c r="K66" s="3">
         <v>255400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>264100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>232200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>208500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>287300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>676100</v>
       </c>
       <c r="P66" s="3">
         <v>676100</v>
       </c>
       <c r="Q66" s="3">
+        <v>676100</v>
+      </c>
+      <c r="R66" s="3">
         <v>1007900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1071000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>988600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>826400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>849200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1126000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1140400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1460400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1659700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1165300</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD66" s="3">
         <v>669600</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5585,22 +5753,25 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3">
-        <v>882100</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="3">
         <v>882100</v>
       </c>
       <c r="AB70" s="3">
-        <v>0</v>
+        <v>882100</v>
       </c>
       <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
         <v>864400</v>
       </c>
-      <c r="AD70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1233600</v>
+        <v>1225700</v>
       </c>
       <c r="E72" s="3">
-        <v>1176500</v>
+        <v>1236300</v>
       </c>
       <c r="F72" s="3">
-        <v>1109000</v>
+        <v>1179100</v>
       </c>
       <c r="G72" s="3">
-        <v>1198300</v>
+        <v>1111400</v>
       </c>
       <c r="H72" s="3">
-        <v>1207200</v>
+        <v>1200900</v>
       </c>
       <c r="I72" s="3">
-        <v>1226900</v>
+        <v>1209800</v>
       </c>
       <c r="J72" s="3">
+        <v>1229500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1235800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1288400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1224100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1157500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1115900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>1012400</v>
       </c>
       <c r="P72" s="3">
         <v>1012400</v>
       </c>
       <c r="Q72" s="3">
+        <v>1012400</v>
+      </c>
+      <c r="R72" s="3">
         <v>1304300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1263200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1117000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>919200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>770800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>624400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>518800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>414900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>366200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-280000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-376600</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-510600</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1708100</v>
+        <v>1704800</v>
       </c>
       <c r="E76" s="3">
-        <v>1659200</v>
+        <v>1711800</v>
       </c>
       <c r="F76" s="3">
-        <v>1601700</v>
+        <v>1662900</v>
       </c>
       <c r="G76" s="3">
-        <v>1692100</v>
+        <v>1605200</v>
       </c>
       <c r="H76" s="3">
-        <v>1704300</v>
+        <v>1695700</v>
       </c>
       <c r="I76" s="3">
-        <v>1724500</v>
+        <v>1708000</v>
       </c>
       <c r="J76" s="3">
+        <v>1728300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1733100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1800400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1724700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1656500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1641300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1542600</v>
       </c>
       <c r="P76" s="3">
         <v>1542600</v>
       </c>
       <c r="Q76" s="3">
+        <v>1542600</v>
+      </c>
+      <c r="R76" s="3">
         <v>1866800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1807600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1911300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1799100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1646000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1537800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1454600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1412500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1415900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-261400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-359800</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-498900</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>57100</v>
+        <v>-10600</v>
       </c>
       <c r="E81" s="3">
-        <v>67500</v>
+        <v>57200</v>
       </c>
       <c r="F81" s="3">
-        <v>-89300</v>
+        <v>67700</v>
       </c>
       <c r="G81" s="3">
-        <v>-8400</v>
+        <v>-89500</v>
       </c>
       <c r="H81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>66600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>93800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>86500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-71700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>20000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>160700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>178400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>145100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>116800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>99300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>103900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>45300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>80200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>96600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>144500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>67600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>42200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6478,26 +6677,29 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>16</v>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB83" s="3">
         <v>400</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>100</v>
+      <c r="AC83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>45300</v>
+      <c r="D89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E89" s="3">
-        <v>-157200</v>
+        <v>9400</v>
       </c>
       <c r="F89" s="3">
-        <v>64600</v>
+        <v>-157600</v>
       </c>
       <c r="G89" s="3">
-        <v>50400</v>
+        <v>64800</v>
       </c>
       <c r="H89" s="3">
-        <v>78100</v>
+        <v>128800</v>
       </c>
       <c r="I89" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="J89" s="3">
         <v>8500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>81100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>60900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>174500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>46800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>76900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>191200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>257300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>198300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>204700</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y89" s="3">
         <v>70000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>110100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>132000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>214400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>77300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>54200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7112,26 +7333,29 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>16</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD91" s="3">
         <v>100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>167100</v>
+      <c r="D94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E94" s="3">
+        <v>-92800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15600</v>
       </c>
-      <c r="F94" s="3">
-        <v>68900</v>
-      </c>
       <c r="G94" s="3">
-        <v>200400</v>
+        <v>69100</v>
       </c>
       <c r="H94" s="3">
-        <v>5900</v>
+        <v>206800</v>
       </c>
       <c r="I94" s="3">
-        <v>-360300</v>
+        <v>40000</v>
       </c>
       <c r="J94" s="3">
+        <v>-361100</v>
+      </c>
+      <c r="K94" s="3">
         <v>194600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>64900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>69500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-860900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>108400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>106800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>213300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-579900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>67500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>583900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-215000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-182300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>82500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>154700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-341900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-48600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-228600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3">
+        <v>123200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-223500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>83600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>63800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-436000</v>
+      </c>
+      <c r="O100" s="3">
+        <v>47700</v>
+      </c>
+      <c r="P100" s="3">
         <v>7900</v>
       </c>
-      <c r="E100" s="3">
-        <v>-223000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>24600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>31300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>52100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="3">
-        <v>6000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-436000</v>
-      </c>
-      <c r="N100" s="3">
-        <v>47700</v>
-      </c>
-      <c r="O100" s="3">
-        <v>7900</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>171000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-604400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>295500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-305300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>80300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-270400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>612800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-162300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>106600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>36500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>254400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>94200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7912,32 +8161,35 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="3" t="s">
-        <v>16</v>
+      <c r="AB101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
       </c>
       <c r="AD101" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7998,28 +8250,31 @@
       <c r="V102" s="3">
         <v>0</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-403200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>793900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>124400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-20900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>65100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>79900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>19300</v>
       </c>
     </row>
